--- a/asm/mips32_all_control_signals_completed.xlsx
+++ b/asm/mips32_all_control_signals_completed.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2025_summer\Mips_single_cycle_verilog\asm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59D0C8D9-D3B9-45D8-96B8-13A53E1C3BF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81838DAA-60E9-4B26-8D2A-8CEC2F815699}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="2" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="191">
   <si>
     <t>HI_write</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1010,78 +1010,78 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{500BC5D6-0FEA-43C3-9C8B-4F5A60F1D4E7}">
-  <dimension ref="A2:T86"/>
+  <dimension ref="A2:T163"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="B63" sqref="B63:B80"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="D97" sqref="D97:D157"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="39.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" customWidth="1"/>
+    <col min="1" max="1" width="39.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.875" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.25" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="19.125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="3:20" x14ac:dyDescent="0.3">
       <c r="S2" s="2" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="3" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="3:20" x14ac:dyDescent="0.3">
       <c r="S3" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:20" x14ac:dyDescent="0.3">
       <c r="S4" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:20" x14ac:dyDescent="0.3">
       <c r="S5" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:20" x14ac:dyDescent="0.3">
       <c r="S6" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="3:20" x14ac:dyDescent="0.3">
       <c r="S7" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="3:20" x14ac:dyDescent="0.3">
       <c r="S8" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="3:20" x14ac:dyDescent="0.3">
       <c r="S9" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="10" spans="3:20" x14ac:dyDescent="0.3">
       <c r="S10" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="11" spans="3:20" x14ac:dyDescent="0.3">
       <c r="S11" s="2" t="s">
         <v>34</v>
       </c>
@@ -1089,7 +1089,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="12" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="12" spans="3:20" x14ac:dyDescent="0.3">
       <c r="P12" t="s">
         <v>116</v>
       </c>
@@ -1103,7 +1103,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="13" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="13" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>107</v>
       </c>
@@ -1156,7 +1156,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="14" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="14" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>106</v>
       </c>
@@ -1206,22 +1206,22 @@
         <v>37</v>
       </c>
     </row>
-    <row r="15" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="15" spans="3:20" x14ac:dyDescent="0.3">
       <c r="S15" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="16" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="16" spans="3:20" x14ac:dyDescent="0.3">
       <c r="S16" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
       <c r="S17" s="2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
       <c r="C19" s="1" t="s">
         <v>101</v>
       </c>
@@ -1274,7 +1274,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>124</v>
       </c>
@@ -1282,7 +1282,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>125</v>
       </c>
@@ -1290,7 +1290,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>126</v>
       </c>
@@ -1298,7 +1298,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>127</v>
       </c>
@@ -1306,7 +1306,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>128</v>
       </c>
@@ -1314,7 +1314,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>129</v>
       </c>
@@ -1322,7 +1322,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>130</v>
       </c>
@@ -1330,7 +1330,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>131</v>
       </c>
@@ -1341,7 +1341,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>132</v>
       </c>
@@ -1349,7 +1349,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>133</v>
       </c>
@@ -1360,7 +1360,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>134</v>
       </c>
@@ -1368,7 +1368,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>135</v>
       </c>
@@ -1376,7 +1376,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>136</v>
       </c>
@@ -1384,7 +1384,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>137</v>
       </c>
@@ -1392,7 +1392,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>138</v>
       </c>
@@ -1400,7 +1400,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>139</v>
       </c>
@@ -1408,7 +1408,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>140</v>
       </c>
@@ -1416,7 +1416,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>141</v>
       </c>
@@ -1427,7 +1427,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>142</v>
       </c>
@@ -1438,7 +1438,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>143</v>
       </c>
@@ -1446,7 +1446,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>144</v>
       </c>
@@ -1454,7 +1454,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>145</v>
       </c>
@@ -1462,7 +1462,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>146</v>
       </c>
@@ -1470,7 +1470,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>147</v>
       </c>
@@ -1478,7 +1478,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>148</v>
       </c>
@@ -1486,7 +1486,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>149</v>
       </c>
@@ -1494,7 +1494,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>150</v>
       </c>
@@ -1502,7 +1502,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>151</v>
       </c>
@@ -1510,7 +1510,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>152</v>
       </c>
@@ -1518,7 +1518,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>153</v>
       </c>
@@ -1526,7 +1526,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>154</v>
       </c>
@@ -1534,7 +1534,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>155</v>
       </c>
@@ -1542,7 +1542,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>156</v>
       </c>
@@ -1550,7 +1550,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>157</v>
       </c>
@@ -1558,7 +1558,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>158</v>
       </c>
@@ -1566,7 +1566,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>159</v>
       </c>
@@ -1574,7 +1574,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>160</v>
       </c>
@@ -1582,7 +1582,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>161</v>
       </c>
@@ -1590,7 +1590,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>162</v>
       </c>
@@ -1598,7 +1598,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>163</v>
       </c>
@@ -1606,7 +1606,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>164</v>
       </c>
@@ -1614,7 +1614,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>165</v>
       </c>
@@ -1622,7 +1622,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>166</v>
       </c>
@@ -1633,7 +1633,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>167</v>
       </c>
@@ -1644,7 +1644,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>168</v>
       </c>
@@ -1655,7 +1655,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>169</v>
       </c>
@@ -1666,7 +1666,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>170</v>
       </c>
@@ -1680,7 +1680,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>171</v>
       </c>
@@ -1697,7 +1697,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>172</v>
       </c>
@@ -1711,7 +1711,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>173</v>
       </c>
@@ -1728,7 +1728,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>174</v>
       </c>
@@ -1736,7 +1736,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>175</v>
       </c>
@@ -1747,7 +1747,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>176</v>
       </c>
@@ -1755,7 +1755,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>177</v>
       </c>
@@ -1766,7 +1766,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>178</v>
       </c>
@@ -1774,7 +1774,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>179</v>
       </c>
@@ -1782,7 +1782,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>180</v>
       </c>
@@ -1790,7 +1790,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>181</v>
       </c>
@@ -1798,7 +1798,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>182</v>
       </c>
@@ -1806,7 +1806,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>183</v>
       </c>
@@ -1817,7 +1817,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>184</v>
       </c>
@@ -1825,7 +1825,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="82" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>185</v>
       </c>
@@ -1833,7 +1833,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="83" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:2" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>186</v>
       </c>
@@ -1841,7 +1841,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="84" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:2" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>187</v>
       </c>
@@ -1849,7 +1849,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="85" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:2" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>188</v>
       </c>
@@ -1857,11 +1857,331 @@
         <v>121</v>
       </c>
     </row>
-    <row r="86" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:2" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>189</v>
       </c>
       <c r="B86" s="3" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="97" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D97" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="98" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D98" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="99" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D99" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="100" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D100" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="101" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D101" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="102" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D102" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="103" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D103" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="104" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D104" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="105" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D105" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="106" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D106" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="107" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D107" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="108" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D108" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="109" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D109" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="110" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D110" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="111" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D111" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="112" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D112" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="113" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D113" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="114" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D114" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="115" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D115" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="116" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D116" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="117" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D117" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="118" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D118" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="119" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D119" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="120" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D120" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="121" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D121" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="122" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D122" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="123" spans="4:4" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="D123" s="3"/>
+    </row>
+    <row r="124" spans="4:4" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="D124" s="3"/>
+    </row>
+    <row r="125" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D125" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="127" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D127" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="128" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D128" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="129" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D129" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="130" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D130" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="131" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D131" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="132" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D132" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="133" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D133" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="134" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D134" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="135" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D135" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="136" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D136" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="137" spans="4:4" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="D137" s="3"/>
+    </row>
+    <row r="138" spans="4:4" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="D138" s="3"/>
+    </row>
+    <row r="139" spans="4:4" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="D139" s="3"/>
+    </row>
+    <row r="140" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D140" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="141" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D141" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="142" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D142" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="143" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D143" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="144" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D144" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="145" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D145" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="146" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D146" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="147" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D147" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="148" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D148" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="149" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D149" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="150" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D150" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="151" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D151" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="152" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D152" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="153" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D153" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="154" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D154" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="155" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D155" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="156" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D156" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="157" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D157" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="158" spans="4:4" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="D158" s="3" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="159" spans="4:4" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="D159" s="3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="160" spans="4:4" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="D160" s="3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="161" spans="4:4" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="D161" s="3" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="162" spans="4:4" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="D162" s="3" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="163" spans="4:4" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="D163" s="3" t="s">
         <v>122</v>
       </c>
     </row>
@@ -1879,79 +2199,79 @@
       <selection activeCell="B3" sqref="B3:B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="31.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.28515625" customWidth="1"/>
+    <col min="1" max="1" width="31.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.25" customWidth="1"/>
     <col min="5" max="5" width="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>24</v>
       </c>

--- a/asm/mips32_all_control_signals_completed.xlsx
+++ b/asm/mips32_all_control_signals_completed.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2025_summer\Mips_single_cycle_verilog\asm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78CA0D23-A2DE-4327-A169-3B5A435A0296}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84AC016B-8DF5-4A22-A4A1-35410D41FEBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="2" r:id="rId1"/>
@@ -968,8 +968,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{500BC5D6-0FEA-43C3-9C8B-4F5A60F1D4E7}">
   <dimension ref="A2:AB86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" topLeftCell="B7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="U51" sqref="U51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -1358,13 +1358,10 @@
       <c r="O22">
         <v>1</v>
       </c>
-      <c r="P22">
-        <v>1</v>
-      </c>
       <c r="U22" s="6"/>
       <c r="W22" t="str" cm="1">
         <f t="array" ref="W22">_xlfn.TEXTJOIN("", TRUE, IF(C22:Q22="", "0", C22:Q22))</f>
-        <v>000000000000110</v>
+        <v>000000000000100</v>
       </c>
       <c r="X22" t="str">
         <f t="shared" ref="X22:X23" si="0">DEC2BIN(0,4)</f>
@@ -1380,7 +1377,7 @@
       </c>
       <c r="AB22" t="str">
         <f t="shared" ref="AB22:AB84" si="1">_xlfn.TEXTJOIN("",TRUE,W22:Z22)</f>
-        <v>0000000000001100000000</v>
+        <v>0000000000001000000000</v>
       </c>
     </row>
     <row r="23" spans="1:28" x14ac:dyDescent="0.3">
@@ -1393,10 +1390,13 @@
       <c r="O23">
         <v>1</v>
       </c>
+      <c r="P23">
+        <v>1</v>
+      </c>
       <c r="U23" s="6"/>
       <c r="W23" t="str" cm="1">
         <f t="array" ref="W23">_xlfn.TEXTJOIN("", TRUE, IF(C23:Q23="", "0", C23:Q23))</f>
-        <v>000000001000100</v>
+        <v>000000001000110</v>
       </c>
       <c r="X23" t="str">
         <f t="shared" si="0"/>
@@ -1412,7 +1412,7 @@
       </c>
       <c r="AB23" t="str">
         <f t="shared" si="1"/>
-        <v>0000000010001000000000</v>
+        <v>0000000010001100000000</v>
       </c>
     </row>
     <row r="24" spans="1:28" x14ac:dyDescent="0.3">
@@ -1486,9 +1486,6 @@
       <c r="B26" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="I26">
-        <v>1</v>
-      </c>
       <c r="N26">
         <v>1</v>
       </c>
@@ -1498,7 +1495,7 @@
       <c r="U26" s="6"/>
       <c r="W26" t="str" cm="1">
         <f t="array" ref="W26">_xlfn.TEXTJOIN("", TRUE, IF(C26:Q26="", "0", C26:Q26))</f>
-        <v>000000100001000</v>
+        <v>000000000001000</v>
       </c>
       <c r="X26" t="str">
         <f>DEC2BIN(VLOOKUP(表格2[[#This Row],[ALUOP]],$R$2:$S$17,2,FALSE),4)</f>
@@ -1514,16 +1511,13 @@
       </c>
       <c r="AB26" t="str">
         <f t="shared" si="1"/>
-        <v>0000001000010001010000</v>
+        <v>0000000000010001010000</v>
       </c>
     </row>
     <row r="27" spans="1:28" x14ac:dyDescent="0.3">
       <c r="B27" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="I27">
-        <v>1</v>
-      </c>
       <c r="N27">
         <v>1</v>
       </c>
@@ -1533,7 +1527,7 @@
       <c r="U27" s="6"/>
       <c r="W27" t="str" cm="1">
         <f t="array" ref="W27">_xlfn.TEXTJOIN("", TRUE, IF(C27:Q27="", "0", C27:Q27))</f>
-        <v>000000100001000</v>
+        <v>000000000001000</v>
       </c>
       <c r="X27" t="str">
         <f>DEC2BIN(VLOOKUP(表格2[[#This Row],[ALUOP]],$R$2:$S$17,2,FALSE),4)</f>
@@ -1549,7 +1543,7 @@
       </c>
       <c r="AB27" t="str">
         <f t="shared" si="1"/>
-        <v>0000001000010000111000</v>
+        <v>0000000000010000111000</v>
       </c>
     </row>
     <row r="28" spans="1:28" x14ac:dyDescent="0.3">
@@ -1562,13 +1556,16 @@
       <c r="I28">
         <v>1</v>
       </c>
+      <c r="K28">
+        <v>1</v>
+      </c>
       <c r="S28" t="s">
         <v>132</v>
       </c>
       <c r="U28" s="6"/>
       <c r="W28" t="str" cm="1">
         <f t="array" ref="W28">_xlfn.TEXTJOIN("", TRUE, IF(C28:Q28="", "0", C28:Q28))</f>
-        <v>000000100000000</v>
+        <v>000000101000000</v>
       </c>
       <c r="X28" t="str">
         <f>DEC2BIN(VLOOKUP(表格2[[#This Row],[ALUOP]],$R$2:$S$17,2,FALSE),4)</f>
@@ -1584,7 +1581,7 @@
       </c>
       <c r="AB28" t="str">
         <f t="shared" si="1"/>
-        <v>0000001000000000100000</v>
+        <v>0000001010000000100000</v>
       </c>
     </row>
     <row r="29" spans="1:28" x14ac:dyDescent="0.3">
@@ -1597,13 +1594,16 @@
       <c r="I29">
         <v>1</v>
       </c>
+      <c r="K29">
+        <v>1</v>
+      </c>
       <c r="S29" t="s">
         <v>132</v>
       </c>
       <c r="U29" s="6"/>
       <c r="W29" t="str" cm="1">
         <f t="array" ref="W29">_xlfn.TEXTJOIN("", TRUE, IF(C29:Q29="", "0", C29:Q29))</f>
-        <v>000010100000000</v>
+        <v>000010101000000</v>
       </c>
       <c r="X29" t="str">
         <f>DEC2BIN(VLOOKUP(表格2[[#This Row],[ALUOP]],$R$2:$S$17,2,FALSE),4)</f>
@@ -1619,7 +1619,7 @@
       </c>
       <c r="AB29" t="str">
         <f t="shared" si="1"/>
-        <v>0000101000000000100000</v>
+        <v>0000101010000000100000</v>
       </c>
     </row>
     <row r="30" spans="1:28" x14ac:dyDescent="0.3">
@@ -1629,13 +1629,16 @@
       <c r="I30">
         <v>1</v>
       </c>
+      <c r="K30">
+        <v>1</v>
+      </c>
       <c r="S30" t="s">
         <v>142</v>
       </c>
       <c r="U30" s="6"/>
       <c r="W30" t="str" cm="1">
         <f t="array" ref="W30">_xlfn.TEXTJOIN("", TRUE, IF(C30:Q30="", "0", C30:Q30))</f>
-        <v>000000100000000</v>
+        <v>000000101000000</v>
       </c>
       <c r="X30" t="str">
         <f>DEC2BIN(VLOOKUP(表格2[[#This Row],[ALUOP]],$R$2:$S$17,2,FALSE),4)</f>
@@ -1651,7 +1654,7 @@
       </c>
       <c r="AB30" t="str">
         <f t="shared" si="1"/>
-        <v>0000001000000001000000</v>
+        <v>0000001010000001000000</v>
       </c>
     </row>
     <row r="31" spans="1:28" x14ac:dyDescent="0.3">
@@ -1664,13 +1667,16 @@
       <c r="I31">
         <v>1</v>
       </c>
+      <c r="K31">
+        <v>1</v>
+      </c>
       <c r="S31" t="s">
         <v>142</v>
       </c>
       <c r="U31" s="6"/>
       <c r="W31" t="str" cm="1">
         <f t="array" ref="W31">_xlfn.TEXTJOIN("", TRUE, IF(C31:Q31="", "0", C31:Q31))</f>
-        <v>000010100000000</v>
+        <v>000010101000000</v>
       </c>
       <c r="X31" t="str">
         <f>DEC2BIN(VLOOKUP(表格2[[#This Row],[ALUOP]],$R$2:$S$17,2,FALSE),4)</f>
@@ -1686,7 +1692,7 @@
       </c>
       <c r="AB31" t="str">
         <f t="shared" si="1"/>
-        <v>0000101000000001000000</v>
+        <v>0000101010000001000000</v>
       </c>
     </row>
     <row r="32" spans="1:28" x14ac:dyDescent="0.3">
@@ -1696,13 +1702,16 @@
       <c r="I32">
         <v>1</v>
       </c>
+      <c r="K32">
+        <v>1</v>
+      </c>
       <c r="S32" t="s">
         <v>126</v>
       </c>
       <c r="U32" s="6"/>
       <c r="W32" t="str" cm="1">
         <f t="array" ref="W32">_xlfn.TEXTJOIN("", TRUE, IF(C32:Q32="", "0", C32:Q32))</f>
-        <v>000000100000000</v>
+        <v>000000101000000</v>
       </c>
       <c r="X32" t="str">
         <f>DEC2BIN(VLOOKUP(表格2[[#This Row],[ALUOP]],$R$2:$S$17,2,FALSE),4)</f>
@@ -1718,7 +1727,7 @@
       </c>
       <c r="AB32" t="str">
         <f t="shared" si="1"/>
-        <v>0000001000000000000000</v>
+        <v>0000001010000000000000</v>
       </c>
     </row>
     <row r="33" spans="1:28" x14ac:dyDescent="0.3">
@@ -1728,13 +1737,16 @@
       <c r="I33">
         <v>1</v>
       </c>
+      <c r="K33">
+        <v>1</v>
+      </c>
       <c r="S33" t="s">
         <v>127</v>
       </c>
       <c r="U33" s="6"/>
       <c r="W33" t="str" cm="1">
         <f t="array" ref="W33">_xlfn.TEXTJOIN("", TRUE, IF(C33:Q33="", "0", C33:Q33))</f>
-        <v>000000100000000</v>
+        <v>000000101000000</v>
       </c>
       <c r="X33" t="str">
         <f>DEC2BIN(VLOOKUP(表格2[[#This Row],[ALUOP]],$R$2:$S$17,2,FALSE),4)</f>
@@ -1750,7 +1762,7 @@
       </c>
       <c r="AB33" t="str">
         <f t="shared" si="1"/>
-        <v>0000001000000000001000</v>
+        <v>0000001010000000001000</v>
       </c>
     </row>
     <row r="34" spans="1:28" x14ac:dyDescent="0.3">
@@ -1760,13 +1772,16 @@
       <c r="I34">
         <v>1</v>
       </c>
+      <c r="K34">
+        <v>1</v>
+      </c>
       <c r="S34" t="s">
         <v>128</v>
       </c>
       <c r="U34" s="6"/>
       <c r="W34" t="str" cm="1">
         <f t="array" ref="W34">_xlfn.TEXTJOIN("", TRUE, IF(C34:Q34="", "0", C34:Q34))</f>
-        <v>000000100000000</v>
+        <v>000000101000000</v>
       </c>
       <c r="X34" t="str">
         <f>DEC2BIN(VLOOKUP(表格2[[#This Row],[ALUOP]],$R$2:$S$17,2,FALSE),4)</f>
@@ -1782,7 +1797,7 @@
       </c>
       <c r="AB34" t="str">
         <f t="shared" si="1"/>
-        <v>0000001000000000010000</v>
+        <v>0000001010000000010000</v>
       </c>
     </row>
     <row r="35" spans="1:28" x14ac:dyDescent="0.3">
@@ -1792,17 +1807,20 @@
       <c r="I35">
         <v>1</v>
       </c>
+      <c r="K35">
+        <v>1</v>
+      </c>
       <c r="S35" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="U35" s="6"/>
       <c r="W35" t="str" cm="1">
         <f t="array" ref="W35">_xlfn.TEXTJOIN("", TRUE, IF(C35:Q35="", "0", C35:Q35))</f>
-        <v>000000100000000</v>
+        <v>000000101000000</v>
       </c>
       <c r="X35" t="str">
         <f>DEC2BIN(VLOOKUP(表格2[[#This Row],[ALUOP]],$R$2:$S$17,2,FALSE),4)</f>
-        <v>0100</v>
+        <v>0000</v>
       </c>
       <c r="Y35" t="str">
         <f>_xlfn.TEXTJOIN("", TRUE, IF(表格2[[#This Row],[SHIFT_V]]="", "0", 表格2[[#This Row],[SHIFT_V]]))</f>
@@ -1814,7 +1832,7 @@
       </c>
       <c r="AB35" t="str">
         <f t="shared" si="1"/>
-        <v>0000001000000000100000</v>
+        <v>0000001010000000000000</v>
       </c>
     </row>
     <row r="36" spans="1:28" x14ac:dyDescent="0.3">
@@ -2132,11 +2150,18 @@
     <row r="44" spans="1:28" x14ac:dyDescent="0.3">
       <c r="B44" s="4"/>
       <c r="U44" s="6"/>
+      <c r="AB44" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
     </row>
     <row r="45" spans="1:28" x14ac:dyDescent="0.3">
       <c r="B45" s="4" t="s">
         <v>60</v>
       </c>
+      <c r="I45">
+        <v>1</v>
+      </c>
       <c r="M45">
         <v>1</v>
       </c>
@@ -2148,7 +2173,7 @@
       </c>
       <c r="W45" t="str" cm="1">
         <f t="array" ref="W45">_xlfn.TEXTJOIN("", TRUE, IF(C45:Q45="", "0", C45:Q45))</f>
-        <v>000000000010000</v>
+        <v>000000100010000</v>
       </c>
       <c r="X45" t="str">
         <f>DEC2BIN(VLOOKUP(表格2[[#This Row],[ALUOP]],$R$2:$S$17,2,FALSE),4)</f>
@@ -2164,7 +2189,7 @@
       </c>
       <c r="AB45" t="str">
         <f t="shared" si="1"/>
-        <v>0000000000100000100010</v>
+        <v>0000001000100000100010</v>
       </c>
     </row>
     <row r="46" spans="1:28" x14ac:dyDescent="0.3">
@@ -2348,23 +2373,20 @@
       <c r="B54" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="I54">
-        <v>1</v>
-      </c>
       <c r="N54">
         <v>1</v>
       </c>
       <c r="S54" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="U54" s="6"/>
       <c r="W54" t="str" cm="1">
         <f t="array" ref="W54">_xlfn.TEXTJOIN("", TRUE, IF(C54:Q54="", "0", C54:Q54))</f>
-        <v>000000100001000</v>
+        <v>000000000001000</v>
       </c>
       <c r="X54" t="str">
         <f>DEC2BIN(VLOOKUP(表格2[[#This Row],[ALUOP]],$R$2:$S$17,2,FALSE),4)</f>
-        <v>1000</v>
+        <v>0101</v>
       </c>
       <c r="Y54" t="str">
         <f>_xlfn.TEXTJOIN("", TRUE, IF(表格2[[#This Row],[SHIFT_V]]="", "0", 表格2[[#This Row],[SHIFT_V]]))</f>
@@ -2376,7 +2398,7 @@
       </c>
       <c r="AB54" t="str">
         <f t="shared" si="1"/>
-        <v>0000001000010001000000</v>
+        <v>0000000000010000101000</v>
       </c>
     </row>
     <row r="55" spans="1:28" x14ac:dyDescent="0.3">
@@ -2640,9 +2662,6 @@
       <c r="B65" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="H65">
-        <v>1</v>
-      </c>
       <c r="O65">
         <v>1</v>
       </c>
@@ -2652,7 +2671,7 @@
       <c r="U65" s="6"/>
       <c r="W65" t="str" cm="1">
         <f t="array" ref="W65">_xlfn.TEXTJOIN("", TRUE, IF(C65:Q65="", "0", C65:Q65))</f>
-        <v>000001000000101</v>
+        <v>000000000000101</v>
       </c>
       <c r="X65" t="str">
         <f>DEC2BIN(0,4)</f>
@@ -2668,7 +2687,7 @@
       </c>
       <c r="AB65" t="str">
         <f t="shared" si="1"/>
-        <v>0000010000001010000000</v>
+        <v>0000000000001010000000</v>
       </c>
     </row>
     <row r="66" spans="1:28" x14ac:dyDescent="0.3">
@@ -2678,6 +2697,9 @@
       <c r="H66">
         <v>1</v>
       </c>
+      <c r="K66">
+        <v>1</v>
+      </c>
       <c r="O66">
         <v>1</v>
       </c>
@@ -2690,7 +2712,7 @@
       <c r="U66" s="6"/>
       <c r="W66" t="str" cm="1">
         <f t="array" ref="W66">_xlfn.TEXTJOIN("", TRUE, IF(C66:Q66="", "0", C66:Q66))</f>
-        <v>000001000000111</v>
+        <v>000001001000111</v>
       </c>
       <c r="X66" t="str">
         <f t="shared" ref="X66:X70" si="2">DEC2BIN(0,4)</f>
@@ -2706,7 +2728,7 @@
       </c>
       <c r="AB66" t="str">
         <f t="shared" si="1"/>
-        <v>0000010000001110000000</v>
+        <v>0000010010001110000000</v>
       </c>
     </row>
     <row r="67" spans="1:28" x14ac:dyDescent="0.3">
@@ -2754,13 +2776,10 @@
       <c r="C68">
         <v>1</v>
       </c>
-      <c r="K68">
-        <v>1</v>
-      </c>
       <c r="U68" s="6"/>
       <c r="W68" t="str" cm="1">
         <f t="array" ref="W68">_xlfn.TEXTJOIN("", TRUE, IF(C68:Q68="", "0", C68:Q68))</f>
-        <v>100000001000000</v>
+        <v>100000000000000</v>
       </c>
       <c r="X68" t="str">
         <f t="shared" si="2"/>
@@ -2776,7 +2795,7 @@
       </c>
       <c r="AB68" t="str">
         <f t="shared" si="1"/>
-        <v>1000000010000000000000</v>
+        <v>1000000000000000000000</v>
       </c>
     </row>
     <row r="69" spans="1:28" x14ac:dyDescent="0.3">
@@ -2821,13 +2840,10 @@
       <c r="E70">
         <v>1</v>
       </c>
-      <c r="K70">
-        <v>1</v>
-      </c>
       <c r="U70" s="6"/>
       <c r="W70" t="str" cm="1">
         <f t="array" ref="W70">_xlfn.TEXTJOIN("", TRUE, IF(C70:Q70="", "0", C70:Q70))</f>
-        <v>001000001000000</v>
+        <v>001000000000000</v>
       </c>
       <c r="X70" t="str">
         <f t="shared" si="2"/>
@@ -2843,7 +2859,7 @@
       </c>
       <c r="AB70" t="str">
         <f t="shared" si="1"/>
-        <v>0010000010000000000000</v>
+        <v>0010000000000000000000</v>
       </c>
     </row>
     <row r="71" spans="1:28" x14ac:dyDescent="0.3">
@@ -2862,16 +2878,13 @@
       <c r="H71">
         <v>1</v>
       </c>
-      <c r="K71">
-        <v>1</v>
-      </c>
       <c r="S71" t="s">
         <v>130</v>
       </c>
       <c r="U71" s="6"/>
       <c r="W71" t="str" cm="1">
         <f t="array" ref="W71">_xlfn.TEXTJOIN("", TRUE, IF(C71:Q71="", "0", C71:Q71))</f>
-        <v>101001001000000</v>
+        <v>101001000000000</v>
       </c>
       <c r="X71" t="str">
         <f>DEC2BIN(VLOOKUP(表格2[[#This Row],[ALUOP]],$R$2:$S$17,2,FALSE),4)</f>
@@ -2887,7 +2900,7 @@
       </c>
       <c r="AB71" t="str">
         <f t="shared" si="1"/>
-        <v>1010010010000001110000</v>
+        <v>1010010000000001110000</v>
       </c>
     </row>
     <row r="72" spans="1:28" x14ac:dyDescent="0.3">
@@ -2906,16 +2919,13 @@
       <c r="H72">
         <v>1</v>
       </c>
-      <c r="K72">
-        <v>1</v>
-      </c>
       <c r="S72" t="s">
         <v>130</v>
       </c>
       <c r="U72" s="6"/>
       <c r="W72" t="str" cm="1">
         <f t="array" ref="W72">_xlfn.TEXTJOIN("", TRUE, IF(C72:Q72="", "0", C72:Q72))</f>
-        <v>101011001000000</v>
+        <v>101011000000000</v>
       </c>
       <c r="X72" t="str">
         <f>DEC2BIN(VLOOKUP(表格2[[#This Row],[ALUOP]],$R$2:$S$17,2,FALSE),4)</f>
@@ -2931,7 +2941,7 @@
       </c>
       <c r="AB72" t="str">
         <f t="shared" si="1"/>
-        <v>1010110010000001110000</v>
+        <v>1010110000000001110000</v>
       </c>
     </row>
     <row r="73" spans="1:28" x14ac:dyDescent="0.3">
@@ -2947,16 +2957,13 @@
       <c r="H73">
         <v>1</v>
       </c>
-      <c r="K73">
-        <v>1</v>
-      </c>
       <c r="S73" t="s">
         <v>131</v>
       </c>
       <c r="U73" s="6"/>
       <c r="W73" t="str" cm="1">
         <f t="array" ref="W73">_xlfn.TEXTJOIN("", TRUE, IF(C73:Q73="", "0", C73:Q73))</f>
-        <v>101001001000000</v>
+        <v>101001000000000</v>
       </c>
       <c r="X73" t="str">
         <f>DEC2BIN(VLOOKUP(表格2[[#This Row],[ALUOP]],$R$2:$S$17,2,FALSE),4)</f>
@@ -2972,7 +2979,7 @@
       </c>
       <c r="AB73" t="str">
         <f t="shared" si="1"/>
-        <v>1010010010000001111000</v>
+        <v>1010010000000001111000</v>
       </c>
     </row>
     <row r="74" spans="1:28" x14ac:dyDescent="0.3">
@@ -2991,16 +2998,13 @@
       <c r="H74">
         <v>1</v>
       </c>
-      <c r="K74">
-        <v>1</v>
-      </c>
       <c r="S74" t="s">
         <v>131</v>
       </c>
       <c r="U74" s="6"/>
       <c r="W74" t="str" cm="1">
         <f t="array" ref="W74">_xlfn.TEXTJOIN("", TRUE, IF(C74:Q74="", "0", C74:Q74))</f>
-        <v>101011001000000</v>
+        <v>101011000000000</v>
       </c>
       <c r="X74" t="str">
         <f>DEC2BIN(VLOOKUP(表格2[[#This Row],[ALUOP]],$R$2:$S$17,2,FALSE),4)</f>
@@ -3016,7 +3020,7 @@
       </c>
       <c r="AB74" t="str">
         <f t="shared" si="1"/>
-        <v>1010110010000001111000</v>
+        <v>1010110000000001111000</v>
       </c>
     </row>
     <row r="75" spans="1:28" x14ac:dyDescent="0.3">

--- a/asm/mips32_all_control_signals_completed.xlsx
+++ b/asm/mips32_all_control_signals_completed.xlsx
@@ -8,13 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2025_summer\Mips_single_cycle_verilog\asm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84AC016B-8DF5-4A22-A4A1-35410D41FEBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DA8B2EE-7265-481F-8DEA-E5EAB4FD36A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="2" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -56,137 +55,42 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="149">
-  <si>
-    <t>HI_write</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="142">
   <si>
     <t>HI_READ</t>
   </si>
   <si>
-    <t>HI_READ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LO_write</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>LO_READ</t>
   </si>
   <si>
-    <t>LO_READ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>IFUNSIGNED</t>
   </si>
   <si>
-    <t>IFUNSIGNED</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>REGDST</t>
   </si>
   <si>
-    <t>REGDST</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ALUSRC</t>
   </si>
   <si>
-    <t>ALUSRC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">MEMTOREG </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>REGWRITE</t>
   </si>
   <si>
-    <t>REGWRITE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>MEMREAD</t>
   </si>
   <si>
-    <t>MEMREAD</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>MEMWRITE</t>
   </si>
   <si>
-    <t>MEMWRITE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>BRANCH</t>
   </si>
   <si>
-    <t>BRANCH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>JUMP</t>
   </si>
   <si>
-    <t>JUMP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ALUOP</t>
   </si>
   <si>
-    <t>ALUOP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>MEMTOREG</t>
-  </si>
-  <si>
-    <t>ALU_OR</t>
-  </si>
-  <si>
-    <t>ALU_XOR</t>
-  </si>
-  <si>
-    <t>ALU_ADD</t>
-  </si>
-  <si>
-    <t>ALU_SUB</t>
-  </si>
-  <si>
-    <t>ALU_GE</t>
-  </si>
-  <si>
-    <t>ALU_LE</t>
-  </si>
-  <si>
-    <t>ALU_SRL</t>
-  </si>
-  <si>
-    <t>ALU_SRA</t>
-  </si>
-  <si>
-    <t>ALU_SLL</t>
-  </si>
-  <si>
-    <t>ALU_NOR</t>
-  </si>
-  <si>
-    <t>ALU_EQ</t>
-  </si>
-  <si>
-    <t>ALU_MUL</t>
-  </si>
-  <si>
-    <t>ALU_DIV</t>
   </si>
   <si>
     <t>J</t>
@@ -456,13 +360,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ALU_EQ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ALU_AND</t>
-  </si>
-  <si>
     <t>ALU_AND</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -519,12 +416,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ALU_GT</t>
-  </si>
-  <si>
-    <t>ALU_LT</t>
-  </si>
-  <si>
     <t>ALU_LT</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -541,15 +432,103 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ALU_LE</t>
+    <t>z</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ALU_GT</t>
+    <t>ALU_NOP</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>z</t>
+    <t>ALU_NOP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BGEZ</t>
+  </si>
+  <si>
+    <t>BGEZ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BR_NONE</t>
+  </si>
+  <si>
+    <t>BR_BEQ</t>
+  </si>
+  <si>
+    <t>BR_BNE</t>
+  </si>
+  <si>
+    <t>BR_BLEZ</t>
+  </si>
+  <si>
+    <t>BR_BGTZ</t>
+  </si>
+  <si>
+    <t>BR_BLTZ</t>
+  </si>
+  <si>
+    <t>BR_BGEZ</t>
+  </si>
+  <si>
+    <t>ALU_OR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ALU_AND</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ALU_XOR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ALU_NOR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ALU_ADD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ALU_SUB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ALU_LT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ALU_SLL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ALU_SRL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ALU_SRA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ALU_MUL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ALU_DIV</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ALU_LUI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>`define</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>25'b</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -966,10 +945,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{500BC5D6-0FEA-43C3-9C8B-4F5A60F1D4E7}">
-  <dimension ref="A2:AB86"/>
+  <dimension ref="A2:AC153"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="U51" sqref="U51"/>
+    <sheetView tabSelected="1" topLeftCell="I73" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AB92" sqref="AB92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -997,12 +976,15 @@
     <col min="21" max="21" width="19.5" style="5" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="19.25" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="31.375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="11" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="29.375" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="34.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="R2" s="2" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="S2">
         <v>0</v>
@@ -1011,7 +993,7 @@
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.3">
       <c r="R3" s="2" t="s">
-        <v>26</v>
+        <v>127</v>
       </c>
       <c r="S3">
         <v>1</v>
@@ -1019,8 +1001,14 @@
       <c r="T3" s="2"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="N4" t="s">
+        <v>120</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
       <c r="R4" s="2" t="s">
-        <v>27</v>
+        <v>129</v>
       </c>
       <c r="S4">
         <v>2</v>
@@ -1028,8 +1016,14 @@
       <c r="T4" s="2"/>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="N5" t="s">
+        <v>121</v>
+      </c>
+      <c r="O5">
+        <v>1</v>
+      </c>
       <c r="R5" s="2" t="s">
-        <v>35</v>
+        <v>130</v>
       </c>
       <c r="S5">
         <v>3</v>
@@ -1037,8 +1031,14 @@
       <c r="T5" s="2"/>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="N6" t="s">
+        <v>122</v>
+      </c>
+      <c r="O6">
+        <v>2</v>
+      </c>
       <c r="R6" s="2" t="s">
-        <v>28</v>
+        <v>131</v>
       </c>
       <c r="S6">
         <v>4</v>
@@ -1046,8 +1046,14 @@
       <c r="T6" s="2"/>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="N7" t="s">
+        <v>123</v>
+      </c>
+      <c r="O7">
+        <v>3</v>
+      </c>
       <c r="R7" s="2" t="s">
-        <v>29</v>
+        <v>132</v>
       </c>
       <c r="S7">
         <v>5</v>
@@ -1055,8 +1061,14 @@
       <c r="T7" s="2"/>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="N8" t="s">
+        <v>124</v>
+      </c>
+      <c r="O8">
+        <v>4</v>
+      </c>
       <c r="R8" s="2" t="s">
-        <v>36</v>
+        <v>133</v>
       </c>
       <c r="S8">
         <v>6</v>
@@ -1064,8 +1076,14 @@
       <c r="T8" s="2"/>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="N9" t="s">
+        <v>125</v>
+      </c>
+      <c r="O9">
+        <v>5</v>
+      </c>
       <c r="R9" s="2" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="S9">
         <v>7</v>
@@ -1073,8 +1091,14 @@
       <c r="T9" s="2"/>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="N10" t="s">
+        <v>126</v>
+      </c>
+      <c r="O10">
+        <v>6</v>
+      </c>
       <c r="R10" s="2" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="S10">
         <v>8</v>
@@ -1083,154 +1107,148 @@
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.3">
       <c r="R11" s="2" t="s">
-        <v>30</v>
+        <v>136</v>
       </c>
       <c r="S11">
         <v>9</v>
       </c>
       <c r="T11" s="2"/>
       <c r="U11" s="5" t="s">
-        <v>103</v>
+        <v>76</v>
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.3">
       <c r="P12" t="s">
-        <v>96</v>
+        <v>69</v>
       </c>
       <c r="Q12" t="s">
-        <v>96</v>
+        <v>69</v>
       </c>
       <c r="R12" s="2" t="s">
-        <v>31</v>
+        <v>137</v>
       </c>
       <c r="S12">
         <v>10</v>
       </c>
       <c r="T12" s="2" t="s">
-        <v>138</v>
+        <v>109</v>
       </c>
       <c r="U12" s="5" t="s">
-        <v>104</v>
+        <v>77</v>
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
-        <v>105</v>
+        <v>78</v>
       </c>
       <c r="D13" t="s">
-        <v>105</v>
+        <v>78</v>
       </c>
       <c r="E13" t="s">
-        <v>105</v>
+        <v>78</v>
       </c>
       <c r="F13" t="s">
-        <v>105</v>
+        <v>78</v>
       </c>
       <c r="G13" t="s">
-        <v>105</v>
+        <v>78</v>
       </c>
       <c r="H13" t="s">
-        <v>106</v>
+        <v>79</v>
       </c>
       <c r="I13" t="s">
-        <v>107</v>
+        <v>80</v>
       </c>
       <c r="J13" t="s">
-        <v>108</v>
+        <v>81</v>
       </c>
       <c r="K13" t="s">
-        <v>105</v>
+        <v>78</v>
       </c>
       <c r="L13" t="s">
-        <v>105</v>
+        <v>78</v>
       </c>
       <c r="M13" t="s">
-        <v>105</v>
-      </c>
-      <c r="N13" t="s">
-        <v>105</v>
+        <v>78</v>
       </c>
       <c r="O13" t="s">
-        <v>105</v>
+        <v>78</v>
       </c>
       <c r="P13" t="s">
-        <v>105</v>
+        <v>78</v>
       </c>
       <c r="Q13" t="s">
-        <v>105</v>
+        <v>78</v>
       </c>
       <c r="R13" s="2" t="s">
-        <v>32</v>
+        <v>138</v>
       </c>
       <c r="S13">
         <v>11</v>
       </c>
       <c r="T13" s="2" t="s">
-        <v>135</v>
+        <v>106</v>
       </c>
       <c r="U13" s="5" t="s">
-        <v>109</v>
+        <v>82</v>
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="D14" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="E14" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="F14" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="G14" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="H14" t="s">
-        <v>111</v>
+        <v>84</v>
       </c>
       <c r="I14" t="s">
-        <v>112</v>
+        <v>85</v>
       </c>
       <c r="J14" t="s">
-        <v>113</v>
+        <v>86</v>
       </c>
       <c r="K14" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="L14" t="s">
-        <v>136</v>
+        <v>107</v>
       </c>
       <c r="M14" t="s">
-        <v>110</v>
-      </c>
-      <c r="N14" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="O14" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="P14" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="Q14" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="R14" s="2" t="s">
-        <v>33</v>
+        <v>139</v>
       </c>
       <c r="S14">
         <v>12</v>
       </c>
       <c r="T14" s="2" t="s">
-        <v>137</v>
+        <v>108</v>
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.3">
       <c r="R15" s="2" t="s">
-        <v>34</v>
+        <v>116</v>
       </c>
       <c r="S15">
         <v>13</v>
@@ -1239,319 +1257,374 @@
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>148</v>
+        <v>115</v>
       </c>
       <c r="B16" s="3">
         <f>COUNTA(B22:B86,"&lt;&gt;")</f>
-        <v>54</v>
-      </c>
-      <c r="R16" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="S16">
-        <v>14</v>
+        <v>55</v>
       </c>
       <c r="T16" s="2"/>
     </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="R17" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="S17">
-        <v>15</v>
-      </c>
+    <row r="17" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="R17" s="2"/>
       <c r="T17" s="2"/>
     </row>
-    <row r="19" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="AC18">
+        <f>LEN(AC22)</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>102</v>
+        <v>75</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>101</v>
+        <v>74</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>92</v>
+        <v>65</v>
       </c>
       <c r="D19" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E19" t="s">
-        <v>97</v>
+        <v>70</v>
       </c>
       <c r="F19" t="s">
+        <v>1</v>
+      </c>
+      <c r="G19" t="s">
+        <v>2</v>
+      </c>
+      <c r="H19" t="s">
+        <v>3</v>
+      </c>
+      <c r="I19" t="s">
         <v>4</v>
       </c>
-      <c r="G19" t="s">
+      <c r="J19" t="s">
+        <v>11</v>
+      </c>
+      <c r="K19" t="s">
+        <v>5</v>
+      </c>
+      <c r="L19" t="s">
         <v>6</v>
       </c>
-      <c r="H19" t="s">
+      <c r="M19" t="s">
+        <v>7</v>
+      </c>
+      <c r="N19" t="s">
         <v>8</v>
       </c>
-      <c r="I19" t="s">
+      <c r="O19" t="s">
+        <v>9</v>
+      </c>
+      <c r="P19" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>68</v>
+      </c>
+      <c r="R19" t="s">
+        <v>110</v>
+      </c>
+      <c r="S19" t="s">
         <v>10</v>
       </c>
-      <c r="J19" t="s">
-        <v>25</v>
-      </c>
-      <c r="K19" t="s">
-        <v>13</v>
-      </c>
-      <c r="L19" t="s">
-        <v>15</v>
-      </c>
-      <c r="M19" t="s">
-        <v>17</v>
-      </c>
-      <c r="N19" t="s">
-        <v>19</v>
-      </c>
-      <c r="O19" t="s">
-        <v>21</v>
-      </c>
-      <c r="P19" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q19" t="s">
-        <v>95</v>
-      </c>
-      <c r="R19" t="s">
-        <v>139</v>
-      </c>
-      <c r="S19" t="s">
-        <v>23</v>
-      </c>
       <c r="T19" t="s">
-        <v>134</v>
+        <v>105</v>
       </c>
       <c r="U19" s="5" t="s">
-        <v>93</v>
+        <v>66</v>
       </c>
       <c r="W19" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.3">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="20" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>98</v>
+        <v>71</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>100</v>
+        <v>73</v>
       </c>
       <c r="U20" s="6"/>
     </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>99</v>
+        <v>72</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>99</v>
+        <v>72</v>
       </c>
       <c r="U21" s="6"/>
     </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>114</v>
+        <v>87</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>39</v>
+        <v>12</v>
+      </c>
+      <c r="N22" t="s">
+        <v>120</v>
       </c>
       <c r="O22">
         <v>1</v>
+      </c>
+      <c r="S22" t="s">
+        <v>116</v>
       </c>
       <c r="U22" s="6"/>
       <c r="W22" t="str" cm="1">
-        <f t="array" ref="W22">_xlfn.TEXTJOIN("", TRUE, IF(C22:Q22="", "0", C22:Q22))</f>
-        <v>000000000000100</v>
+        <f t="array" ref="W22">_xlfn.TEXTJOIN("", TRUE, IF(C22:M22="", "0", C22:M22))</f>
+        <v>00000000000</v>
       </c>
       <c r="X22" t="str">
-        <f t="shared" ref="X22:X23" si="0">DEC2BIN(0,4)</f>
-        <v>0000</v>
-      </c>
-      <c r="Y22" t="str">
-        <f>_xlfn.TEXTJOIN("", TRUE, IF(表格2[[#This Row],[SHIFT_V]]="", "0", 表格2[[#This Row],[SHIFT_V]]))</f>
-        <v>0</v>
+        <f>DEC2BIN(VLOOKUP(表格2[[#This Row],[BRANCH]],$N$4:$O$10,2,FALSE),3)</f>
+        <v>000</v>
+      </c>
+      <c r="Y22" t="str" cm="1">
+        <f t="array" ref="Y22">_xlfn.TEXTJOIN("", TRUE, IF(表格2[[#This Row],[JUMP]:[return]]="", "0",表格2[[#This Row],[JUMP]:[return]]))</f>
+        <v>100</v>
       </c>
       <c r="Z22" t="str">
-        <f>_xlfn.TEXTJOIN("",TRUE,IF(表格2[[#This Row],[DATA_TYPE]]="","00",DEC2BIN(表格2[[#This Row],[DATA_TYPE]],2)))</f>
-        <v>00</v>
+        <f>DEC2BIN(VLOOKUP(表格2[[#This Row],[ALUOP]],$R$2:$S$15,2,FALSE),4)</f>
+        <v>1101</v>
+      </c>
+      <c r="AA22" t="str">
+        <f>_xlfn.TEXTJOIN("", TRUE, IF(表格2[[#This Row],[SHIFT_V]]="", "0",表格2[[#This Row],[SHIFT_V]] ))</f>
+        <v>0</v>
       </c>
       <c r="AB22" t="str">
-        <f t="shared" ref="AB22:AB84" si="1">_xlfn.TEXTJOIN("",TRUE,W22:Z22)</f>
-        <v>0000000000001000000000</v>
-      </c>
-    </row>
-    <row r="23" spans="1:28" x14ac:dyDescent="0.3">
+        <f>DEC2BIN(IF(表格2[[#This Row],[DATA_TYPE]]="",0,表格2[[#This Row],[DATA_TYPE]]),3)</f>
+        <v>000</v>
+      </c>
+      <c r="AC22" t="str">
+        <f>_xlfn.TEXTJOIN("",TRUE,W22,X22,Y22,Z22,AA22,AB22)</f>
+        <v>0000000000000010011010000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:29" x14ac:dyDescent="0.3">
       <c r="B23" s="4" t="s">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="K23">
         <v>1</v>
       </c>
+      <c r="N23" t="s">
+        <v>120</v>
+      </c>
       <c r="O23">
         <v>1</v>
       </c>
       <c r="P23">
         <v>1</v>
+      </c>
+      <c r="S23" t="s">
+        <v>116</v>
       </c>
       <c r="U23" s="6"/>
       <c r="W23" t="str" cm="1">
-        <f t="array" ref="W23">_xlfn.TEXTJOIN("", TRUE, IF(C23:Q23="", "0", C23:Q23))</f>
-        <v>000000001000110</v>
+        <f t="array" ref="W23">_xlfn.TEXTJOIN("", TRUE, IF(C23:M23="", "0", C23:M23))</f>
+        <v>00000000100</v>
       </c>
       <c r="X23" t="str">
-        <f t="shared" si="0"/>
-        <v>0000</v>
-      </c>
-      <c r="Y23" t="str">
-        <f>_xlfn.TEXTJOIN("", TRUE, IF(表格2[[#This Row],[SHIFT_V]]="", "0", 表格2[[#This Row],[SHIFT_V]]))</f>
-        <v>0</v>
+        <f>DEC2BIN(VLOOKUP(表格2[[#This Row],[BRANCH]],$N$4:$O$10,2,FALSE),3)</f>
+        <v>000</v>
+      </c>
+      <c r="Y23" t="str" cm="1">
+        <f t="array" ref="Y23">_xlfn.TEXTJOIN("", TRUE, IF(表格2[[#This Row],[JUMP]:[return]]="", "0",表格2[[#This Row],[JUMP]:[return]]))</f>
+        <v>110</v>
       </c>
       <c r="Z23" t="str">
-        <f>_xlfn.TEXTJOIN("",TRUE,IF(表格2[[#This Row],[DATA_TYPE]]="","00",DEC2BIN(表格2[[#This Row],[DATA_TYPE]],2)))</f>
-        <v>00</v>
+        <f>DEC2BIN(VLOOKUP(表格2[[#This Row],[ALUOP]],$R$2:$S$15,2,FALSE),4)</f>
+        <v>1101</v>
+      </c>
+      <c r="AA23" t="str">
+        <f>_xlfn.TEXTJOIN("", TRUE, IF(表格2[[#This Row],[SHIFT_V]]="", "0",表格2[[#This Row],[SHIFT_V]] ))</f>
+        <v>0</v>
       </c>
       <c r="AB23" t="str">
-        <f t="shared" si="1"/>
-        <v>0000000010001100000000</v>
-      </c>
-    </row>
-    <row r="24" spans="1:28" x14ac:dyDescent="0.3">
+        <f>DEC2BIN(IF(表格2[[#This Row],[DATA_TYPE]]="",0,表格2[[#This Row],[DATA_TYPE]]),3)</f>
+        <v>000</v>
+      </c>
+      <c r="AC23" t="str">
+        <f t="shared" ref="AC23:AC84" si="0">_xlfn.TEXTJOIN("",TRUE,W23,X23,Y23,Z23,AA23,AB23)</f>
+        <v>0000000010000011011010000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>115</v>
+        <v>88</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="N24">
-        <v>1</v>
+        <v>14</v>
+      </c>
+      <c r="N24" t="s">
+        <v>121</v>
       </c>
       <c r="S24" t="s">
-        <v>124</v>
+        <v>104</v>
       </c>
       <c r="U24" s="6"/>
       <c r="W24" t="str" cm="1">
-        <f t="array" ref="W24">_xlfn.TEXTJOIN("", TRUE, IF(C24:Q24="", "0", C24:Q24))</f>
-        <v>000000000001000</v>
+        <f t="array" ref="W24">_xlfn.TEXTJOIN("", TRUE, IF(C24:M24="", "0", C24:M24))</f>
+        <v>00000000000</v>
       </c>
       <c r="X24" t="str">
-        <f>DEC2BIN(VLOOKUP(表格2[[#This Row],[ALUOP]],$R$2:$S$17,2,FALSE),4)</f>
-        <v>0110</v>
-      </c>
-      <c r="Y24" t="str">
-        <f>_xlfn.TEXTJOIN("", TRUE, IF(表格2[[#This Row],[SHIFT_V]]="", "0", 表格2[[#This Row],[SHIFT_V]]))</f>
-        <v>0</v>
+        <f>DEC2BIN(VLOOKUP(表格2[[#This Row],[BRANCH]],$N$4:$O$10,2,FALSE),3)</f>
+        <v>001</v>
+      </c>
+      <c r="Y24" t="str" cm="1">
+        <f t="array" ref="Y24">_xlfn.TEXTJOIN("", TRUE, IF(表格2[[#This Row],[JUMP]:[return]]="", "0",表格2[[#This Row],[JUMP]:[return]]))</f>
+        <v>000</v>
       </c>
       <c r="Z24" t="str">
-        <f>_xlfn.TEXTJOIN("",TRUE,IF(表格2[[#This Row],[DATA_TYPE]]="","00",DEC2BIN(表格2[[#This Row],[DATA_TYPE]],2)))</f>
-        <v>00</v>
+        <f>DEC2BIN(VLOOKUP(表格2[[#This Row],[ALUOP]],$R$2:$S$15,2,FALSE),4)</f>
+        <v>0101</v>
+      </c>
+      <c r="AA24" t="str">
+        <f>_xlfn.TEXTJOIN("", TRUE, IF(表格2[[#This Row],[SHIFT_V]]="", "0",表格2[[#This Row],[SHIFT_V]] ))</f>
+        <v>0</v>
       </c>
       <c r="AB24" t="str">
-        <f t="shared" si="1"/>
-        <v>0000000000010000110000</v>
-      </c>
-    </row>
-    <row r="25" spans="1:28" x14ac:dyDescent="0.3">
+        <f>DEC2BIN(IF(表格2[[#This Row],[DATA_TYPE]]="",0,表格2[[#This Row],[DATA_TYPE]]),3)</f>
+        <v>000</v>
+      </c>
+      <c r="AC24" t="str">
+        <f t="shared" si="0"/>
+        <v>0000000000000100001010000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:29" x14ac:dyDescent="0.3">
       <c r="B25" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="N25">
-        <v>1</v>
+        <v>15</v>
+      </c>
+      <c r="N25" t="s">
+        <v>122</v>
       </c>
       <c r="S25" t="s">
-        <v>124</v>
+        <v>104</v>
       </c>
       <c r="U25" s="6"/>
       <c r="W25" t="str" cm="1">
-        <f t="array" ref="W25">_xlfn.TEXTJOIN("", TRUE, IF(C25:Q25="", "0", C25:Q25))</f>
-        <v>000000000001000</v>
+        <f t="array" ref="W25">_xlfn.TEXTJOIN("", TRUE, IF(C25:M25="", "0", C25:M25))</f>
+        <v>00000000000</v>
       </c>
       <c r="X25" t="str">
-        <f>DEC2BIN(VLOOKUP(表格2[[#This Row],[ALUOP]],$R$2:$S$17,2,FALSE),4)</f>
-        <v>0110</v>
-      </c>
-      <c r="Y25" t="str">
-        <f>_xlfn.TEXTJOIN("", TRUE, IF(表格2[[#This Row],[SHIFT_V]]="", "0", 表格2[[#This Row],[SHIFT_V]]))</f>
-        <v>0</v>
+        <f>DEC2BIN(VLOOKUP(表格2[[#This Row],[BRANCH]],$N$4:$O$10,2,FALSE),3)</f>
+        <v>010</v>
+      </c>
+      <c r="Y25" t="str" cm="1">
+        <f t="array" ref="Y25">_xlfn.TEXTJOIN("", TRUE, IF(表格2[[#This Row],[JUMP]:[return]]="", "0",表格2[[#This Row],[JUMP]:[return]]))</f>
+        <v>000</v>
       </c>
       <c r="Z25" t="str">
-        <f>_xlfn.TEXTJOIN("",TRUE,IF(表格2[[#This Row],[DATA_TYPE]]="","00",DEC2BIN(表格2[[#This Row],[DATA_TYPE]],2)))</f>
-        <v>00</v>
+        <f>DEC2BIN(VLOOKUP(表格2[[#This Row],[ALUOP]],$R$2:$S$15,2,FALSE),4)</f>
+        <v>0101</v>
+      </c>
+      <c r="AA25" t="str">
+        <f>_xlfn.TEXTJOIN("", TRUE, IF(表格2[[#This Row],[SHIFT_V]]="", "0",表格2[[#This Row],[SHIFT_V]] ))</f>
+        <v>0</v>
       </c>
       <c r="AB25" t="str">
-        <f t="shared" si="1"/>
-        <v>0000000000010000110000</v>
-      </c>
-    </row>
-    <row r="26" spans="1:28" x14ac:dyDescent="0.3">
+        <f>DEC2BIN(IF(表格2[[#This Row],[DATA_TYPE]]="",0,表格2[[#This Row],[DATA_TYPE]]),3)</f>
+        <v>000</v>
+      </c>
+      <c r="AC25" t="str">
+        <f t="shared" si="0"/>
+        <v>0000000000001000001010000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:29" x14ac:dyDescent="0.3">
       <c r="B26" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="N26">
-        <v>1</v>
+        <v>16</v>
+      </c>
+      <c r="N26" t="s">
+        <v>123</v>
       </c>
       <c r="S26" t="s">
-        <v>146</v>
+        <v>117</v>
       </c>
       <c r="U26" s="6"/>
       <c r="W26" t="str" cm="1">
-        <f t="array" ref="W26">_xlfn.TEXTJOIN("", TRUE, IF(C26:Q26="", "0", C26:Q26))</f>
-        <v>000000000001000</v>
+        <f t="array" ref="W26">_xlfn.TEXTJOIN("", TRUE, IF(C26:M26="", "0", C26:M26))</f>
+        <v>00000000000</v>
       </c>
       <c r="X26" t="str">
-        <f>DEC2BIN(VLOOKUP(表格2[[#This Row],[ALUOP]],$R$2:$S$17,2,FALSE),4)</f>
-        <v>1010</v>
-      </c>
-      <c r="Y26" t="str">
-        <f>_xlfn.TEXTJOIN("", TRUE, IF(表格2[[#This Row],[SHIFT_V]]="", "0", 表格2[[#This Row],[SHIFT_V]]))</f>
-        <v>0</v>
+        <f>DEC2BIN(VLOOKUP(表格2[[#This Row],[BRANCH]],$N$4:$O$10,2,FALSE),3)</f>
+        <v>011</v>
+      </c>
+      <c r="Y26" t="str" cm="1">
+        <f t="array" ref="Y26">_xlfn.TEXTJOIN("", TRUE, IF(表格2[[#This Row],[JUMP]:[return]]="", "0",表格2[[#This Row],[JUMP]:[return]]))</f>
+        <v>000</v>
       </c>
       <c r="Z26" t="str">
-        <f>_xlfn.TEXTJOIN("",TRUE,IF(表格2[[#This Row],[DATA_TYPE]]="","00",DEC2BIN(表格2[[#This Row],[DATA_TYPE]],2)))</f>
-        <v>00</v>
+        <f>DEC2BIN(VLOOKUP(表格2[[#This Row],[ALUOP]],$R$2:$S$15,2,FALSE),4)</f>
+        <v>1101</v>
+      </c>
+      <c r="AA26" t="str">
+        <f>_xlfn.TEXTJOIN("", TRUE, IF(表格2[[#This Row],[SHIFT_V]]="", "0",表格2[[#This Row],[SHIFT_V]] ))</f>
+        <v>0</v>
       </c>
       <c r="AB26" t="str">
-        <f t="shared" si="1"/>
-        <v>0000000000010001010000</v>
-      </c>
-    </row>
-    <row r="27" spans="1:28" x14ac:dyDescent="0.3">
+        <f>DEC2BIN(IF(表格2[[#This Row],[DATA_TYPE]]="",0,表格2[[#This Row],[DATA_TYPE]]),3)</f>
+        <v>000</v>
+      </c>
+      <c r="AC26" t="str">
+        <f t="shared" si="0"/>
+        <v>0000000000001100011010000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:29" x14ac:dyDescent="0.3">
       <c r="B27" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="N27">
-        <v>1</v>
+        <v>17</v>
+      </c>
+      <c r="N27" t="s">
+        <v>124</v>
       </c>
       <c r="S27" t="s">
-        <v>147</v>
+        <v>117</v>
       </c>
       <c r="U27" s="6"/>
       <c r="W27" t="str" cm="1">
-        <f t="array" ref="W27">_xlfn.TEXTJOIN("", TRUE, IF(C27:Q27="", "0", C27:Q27))</f>
-        <v>000000000001000</v>
+        <f t="array" ref="W27">_xlfn.TEXTJOIN("", TRUE, IF(C27:M27="", "0", C27:M27))</f>
+        <v>00000000000</v>
       </c>
       <c r="X27" t="str">
-        <f>DEC2BIN(VLOOKUP(表格2[[#This Row],[ALUOP]],$R$2:$S$17,2,FALSE),4)</f>
-        <v>0111</v>
-      </c>
-      <c r="Y27" t="str">
-        <f>_xlfn.TEXTJOIN("", TRUE, IF(表格2[[#This Row],[SHIFT_V]]="", "0", 表格2[[#This Row],[SHIFT_V]]))</f>
-        <v>0</v>
+        <f>DEC2BIN(VLOOKUP(表格2[[#This Row],[BRANCH]],$N$4:$O$10,2,FALSE),3)</f>
+        <v>100</v>
+      </c>
+      <c r="Y27" t="str" cm="1">
+        <f t="array" ref="Y27">_xlfn.TEXTJOIN("", TRUE, IF(表格2[[#This Row],[JUMP]:[return]]="", "0",表格2[[#This Row],[JUMP]:[return]]))</f>
+        <v>000</v>
       </c>
       <c r="Z27" t="str">
-        <f>_xlfn.TEXTJOIN("",TRUE,IF(表格2[[#This Row],[DATA_TYPE]]="","00",DEC2BIN(表格2[[#This Row],[DATA_TYPE]],2)))</f>
-        <v>00</v>
+        <f>DEC2BIN(VLOOKUP(表格2[[#This Row],[ALUOP]],$R$2:$S$15,2,FALSE),4)</f>
+        <v>1101</v>
+      </c>
+      <c r="AA27" t="str">
+        <f>_xlfn.TEXTJOIN("", TRUE, IF(表格2[[#This Row],[SHIFT_V]]="", "0",表格2[[#This Row],[SHIFT_V]] ))</f>
+        <v>0</v>
       </c>
       <c r="AB27" t="str">
-        <f t="shared" si="1"/>
-        <v>0000000000010000111000</v>
-      </c>
-    </row>
-    <row r="28" spans="1:28" x14ac:dyDescent="0.3">
+        <f>DEC2BIN(IF(表格2[[#This Row],[DATA_TYPE]]="",0,表格2[[#This Row],[DATA_TYPE]]),3)</f>
+        <v>000</v>
+      </c>
+      <c r="AC27" t="str">
+        <f t="shared" si="0"/>
+        <v>0000000000010000011010000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>116</v>
+        <v>89</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="I28">
         <v>1</v>
@@ -1559,34 +1632,45 @@
       <c r="K28">
         <v>1</v>
       </c>
+      <c r="N28" t="s">
+        <v>120</v>
+      </c>
       <c r="S28" t="s">
-        <v>132</v>
+        <v>103</v>
       </c>
       <c r="U28" s="6"/>
       <c r="W28" t="str" cm="1">
-        <f t="array" ref="W28">_xlfn.TEXTJOIN("", TRUE, IF(C28:Q28="", "0", C28:Q28))</f>
-        <v>000000101000000</v>
+        <f t="array" ref="W28">_xlfn.TEXTJOIN("", TRUE, IF(C28:M28="", "0", C28:M28))</f>
+        <v>00000010100</v>
       </c>
       <c r="X28" t="str">
-        <f>DEC2BIN(VLOOKUP(表格2[[#This Row],[ALUOP]],$R$2:$S$17,2,FALSE),4)</f>
+        <f>DEC2BIN(VLOOKUP(表格2[[#This Row],[BRANCH]],$N$4:$O$10,2,FALSE),3)</f>
+        <v>000</v>
+      </c>
+      <c r="Y28" t="str" cm="1">
+        <f t="array" ref="Y28">_xlfn.TEXTJOIN("", TRUE, IF(表格2[[#This Row],[JUMP]:[return]]="", "0",表格2[[#This Row],[JUMP]:[return]]))</f>
+        <v>000</v>
+      </c>
+      <c r="Z28" t="str">
+        <f>DEC2BIN(VLOOKUP(表格2[[#This Row],[ALUOP]],$R$2:$S$15,2,FALSE),4)</f>
         <v>0100</v>
       </c>
-      <c r="Y28" t="str">
-        <f>_xlfn.TEXTJOIN("", TRUE, IF(表格2[[#This Row],[SHIFT_V]]="", "0", 表格2[[#This Row],[SHIFT_V]]))</f>
-        <v>0</v>
-      </c>
-      <c r="Z28" t="str">
-        <f>_xlfn.TEXTJOIN("",TRUE,IF(表格2[[#This Row],[DATA_TYPE]]="","00",DEC2BIN(表格2[[#This Row],[DATA_TYPE]],2)))</f>
-        <v>00</v>
+      <c r="AA28" t="str">
+        <f>_xlfn.TEXTJOIN("", TRUE, IF(表格2[[#This Row],[SHIFT_V]]="", "0",表格2[[#This Row],[SHIFT_V]] ))</f>
+        <v>0</v>
       </c>
       <c r="AB28" t="str">
-        <f t="shared" si="1"/>
-        <v>0000001010000000100000</v>
-      </c>
-    </row>
-    <row r="29" spans="1:28" x14ac:dyDescent="0.3">
+        <f>DEC2BIN(IF(表格2[[#This Row],[DATA_TYPE]]="",0,表格2[[#This Row],[DATA_TYPE]]),3)</f>
+        <v>000</v>
+      </c>
+      <c r="AC28" t="str">
+        <f t="shared" si="0"/>
+        <v>0000001010000000001000000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:29" x14ac:dyDescent="0.3">
       <c r="B29" s="4" t="s">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="G29">
         <v>1</v>
@@ -1597,34 +1681,45 @@
       <c r="K29">
         <v>1</v>
       </c>
+      <c r="N29" t="s">
+        <v>120</v>
+      </c>
       <c r="S29" t="s">
-        <v>132</v>
+        <v>103</v>
       </c>
       <c r="U29" s="6"/>
       <c r="W29" t="str" cm="1">
-        <f t="array" ref="W29">_xlfn.TEXTJOIN("", TRUE, IF(C29:Q29="", "0", C29:Q29))</f>
-        <v>000010101000000</v>
+        <f t="array" ref="W29">_xlfn.TEXTJOIN("", TRUE, IF(C29:M29="", "0", C29:M29))</f>
+        <v>00001010100</v>
       </c>
       <c r="X29" t="str">
-        <f>DEC2BIN(VLOOKUP(表格2[[#This Row],[ALUOP]],$R$2:$S$17,2,FALSE),4)</f>
+        <f>DEC2BIN(VLOOKUP(表格2[[#This Row],[BRANCH]],$N$4:$O$10,2,FALSE),3)</f>
+        <v>000</v>
+      </c>
+      <c r="Y29" t="str" cm="1">
+        <f t="array" ref="Y29">_xlfn.TEXTJOIN("", TRUE, IF(表格2[[#This Row],[JUMP]:[return]]="", "0",表格2[[#This Row],[JUMP]:[return]]))</f>
+        <v>000</v>
+      </c>
+      <c r="Z29" t="str">
+        <f>DEC2BIN(VLOOKUP(表格2[[#This Row],[ALUOP]],$R$2:$S$15,2,FALSE),4)</f>
         <v>0100</v>
       </c>
-      <c r="Y29" t="str">
-        <f>_xlfn.TEXTJOIN("", TRUE, IF(表格2[[#This Row],[SHIFT_V]]="", "0", 表格2[[#This Row],[SHIFT_V]]))</f>
-        <v>0</v>
-      </c>
-      <c r="Z29" t="str">
-        <f>_xlfn.TEXTJOIN("",TRUE,IF(表格2[[#This Row],[DATA_TYPE]]="","00",DEC2BIN(表格2[[#This Row],[DATA_TYPE]],2)))</f>
-        <v>00</v>
+      <c r="AA29" t="str">
+        <f>_xlfn.TEXTJOIN("", TRUE, IF(表格2[[#This Row],[SHIFT_V]]="", "0",表格2[[#This Row],[SHIFT_V]] ))</f>
+        <v>0</v>
       </c>
       <c r="AB29" t="str">
-        <f t="shared" si="1"/>
-        <v>0000101010000000100000</v>
-      </c>
-    </row>
-    <row r="30" spans="1:28" x14ac:dyDescent="0.3">
+        <f>DEC2BIN(IF(表格2[[#This Row],[DATA_TYPE]]="",0,表格2[[#This Row],[DATA_TYPE]]),3)</f>
+        <v>000</v>
+      </c>
+      <c r="AC29" t="str">
+        <f t="shared" si="0"/>
+        <v>0000101010000000001000000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:29" x14ac:dyDescent="0.3">
       <c r="B30" s="4" t="s">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="I30">
         <v>1</v>
@@ -1632,34 +1727,45 @@
       <c r="K30">
         <v>1</v>
       </c>
+      <c r="N30" t="s">
+        <v>120</v>
+      </c>
       <c r="S30" t="s">
-        <v>142</v>
+        <v>111</v>
       </c>
       <c r="U30" s="6"/>
       <c r="W30" t="str" cm="1">
-        <f t="array" ref="W30">_xlfn.TEXTJOIN("", TRUE, IF(C30:Q30="", "0", C30:Q30))</f>
-        <v>000000101000000</v>
+        <f t="array" ref="W30">_xlfn.TEXTJOIN("", TRUE, IF(C30:M30="", "0", C30:M30))</f>
+        <v>00000010100</v>
       </c>
       <c r="X30" t="str">
-        <f>DEC2BIN(VLOOKUP(表格2[[#This Row],[ALUOP]],$R$2:$S$17,2,FALSE),4)</f>
-        <v>1000</v>
-      </c>
-      <c r="Y30" t="str">
-        <f>_xlfn.TEXTJOIN("", TRUE, IF(表格2[[#This Row],[SHIFT_V]]="", "0", 表格2[[#This Row],[SHIFT_V]]))</f>
-        <v>0</v>
+        <f>DEC2BIN(VLOOKUP(表格2[[#This Row],[BRANCH]],$N$4:$O$10,2,FALSE),3)</f>
+        <v>000</v>
+      </c>
+      <c r="Y30" t="str" cm="1">
+        <f t="array" ref="Y30">_xlfn.TEXTJOIN("", TRUE, IF(表格2[[#This Row],[JUMP]:[return]]="", "0",表格2[[#This Row],[JUMP]:[return]]))</f>
+        <v>000</v>
       </c>
       <c r="Z30" t="str">
-        <f>_xlfn.TEXTJOIN("",TRUE,IF(表格2[[#This Row],[DATA_TYPE]]="","00",DEC2BIN(表格2[[#This Row],[DATA_TYPE]],2)))</f>
-        <v>00</v>
+        <f>DEC2BIN(VLOOKUP(表格2[[#This Row],[ALUOP]],$R$2:$S$15,2,FALSE),4)</f>
+        <v>0110</v>
+      </c>
+      <c r="AA30" t="str">
+        <f>_xlfn.TEXTJOIN("", TRUE, IF(表格2[[#This Row],[SHIFT_V]]="", "0",表格2[[#This Row],[SHIFT_V]] ))</f>
+        <v>0</v>
       </c>
       <c r="AB30" t="str">
-        <f t="shared" si="1"/>
-        <v>0000001010000001000000</v>
-      </c>
-    </row>
-    <row r="31" spans="1:28" x14ac:dyDescent="0.3">
+        <f>DEC2BIN(IF(表格2[[#This Row],[DATA_TYPE]]="",0,表格2[[#This Row],[DATA_TYPE]]),3)</f>
+        <v>000</v>
+      </c>
+      <c r="AC30" t="str">
+        <f t="shared" si="0"/>
+        <v>0000001010000000001100000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:29" x14ac:dyDescent="0.3">
       <c r="B31" s="4" t="s">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="G31">
         <v>1</v>
@@ -1670,34 +1776,45 @@
       <c r="K31">
         <v>1</v>
       </c>
+      <c r="N31" t="s">
+        <v>120</v>
+      </c>
       <c r="S31" t="s">
-        <v>142</v>
+        <v>111</v>
       </c>
       <c r="U31" s="6"/>
       <c r="W31" t="str" cm="1">
-        <f t="array" ref="W31">_xlfn.TEXTJOIN("", TRUE, IF(C31:Q31="", "0", C31:Q31))</f>
-        <v>000010101000000</v>
+        <f t="array" ref="W31">_xlfn.TEXTJOIN("", TRUE, IF(C31:M31="", "0", C31:M31))</f>
+        <v>00001010100</v>
       </c>
       <c r="X31" t="str">
-        <f>DEC2BIN(VLOOKUP(表格2[[#This Row],[ALUOP]],$R$2:$S$17,2,FALSE),4)</f>
-        <v>1000</v>
-      </c>
-      <c r="Y31" t="str">
-        <f>_xlfn.TEXTJOIN("", TRUE, IF(表格2[[#This Row],[SHIFT_V]]="", "0", 表格2[[#This Row],[SHIFT_V]]))</f>
-        <v>0</v>
+        <f>DEC2BIN(VLOOKUP(表格2[[#This Row],[BRANCH]],$N$4:$O$10,2,FALSE),3)</f>
+        <v>000</v>
+      </c>
+      <c r="Y31" t="str" cm="1">
+        <f t="array" ref="Y31">_xlfn.TEXTJOIN("", TRUE, IF(表格2[[#This Row],[JUMP]:[return]]="", "0",表格2[[#This Row],[JUMP]:[return]]))</f>
+        <v>000</v>
       </c>
       <c r="Z31" t="str">
-        <f>_xlfn.TEXTJOIN("",TRUE,IF(表格2[[#This Row],[DATA_TYPE]]="","00",DEC2BIN(表格2[[#This Row],[DATA_TYPE]],2)))</f>
-        <v>00</v>
+        <f>DEC2BIN(VLOOKUP(表格2[[#This Row],[ALUOP]],$R$2:$S$15,2,FALSE),4)</f>
+        <v>0110</v>
+      </c>
+      <c r="AA31" t="str">
+        <f>_xlfn.TEXTJOIN("", TRUE, IF(表格2[[#This Row],[SHIFT_V]]="", "0",表格2[[#This Row],[SHIFT_V]] ))</f>
+        <v>0</v>
       </c>
       <c r="AB31" t="str">
-        <f t="shared" si="1"/>
-        <v>0000101010000001000000</v>
-      </c>
-    </row>
-    <row r="32" spans="1:28" x14ac:dyDescent="0.3">
+        <f>DEC2BIN(IF(表格2[[#This Row],[DATA_TYPE]]="",0,表格2[[#This Row],[DATA_TYPE]]),3)</f>
+        <v>000</v>
+      </c>
+      <c r="AC31" t="str">
+        <f t="shared" si="0"/>
+        <v>0000101010000000001100000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:29" x14ac:dyDescent="0.3">
       <c r="B32" s="4" t="s">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="I32">
         <v>1</v>
@@ -1705,34 +1822,45 @@
       <c r="K32">
         <v>1</v>
       </c>
+      <c r="N32" t="s">
+        <v>120</v>
+      </c>
       <c r="S32" t="s">
-        <v>126</v>
+        <v>97</v>
       </c>
       <c r="U32" s="6"/>
       <c r="W32" t="str" cm="1">
-        <f t="array" ref="W32">_xlfn.TEXTJOIN("", TRUE, IF(C32:Q32="", "0", C32:Q32))</f>
-        <v>000000101000000</v>
+        <f t="array" ref="W32">_xlfn.TEXTJOIN("", TRUE, IF(C32:M32="", "0", C32:M32))</f>
+        <v>00000010100</v>
       </c>
       <c r="X32" t="str">
-        <f>DEC2BIN(VLOOKUP(表格2[[#This Row],[ALUOP]],$R$2:$S$17,2,FALSE),4)</f>
+        <f>DEC2BIN(VLOOKUP(表格2[[#This Row],[BRANCH]],$N$4:$O$10,2,FALSE),3)</f>
+        <v>000</v>
+      </c>
+      <c r="Y32" t="str" cm="1">
+        <f t="array" ref="Y32">_xlfn.TEXTJOIN("", TRUE, IF(表格2[[#This Row],[JUMP]:[return]]="", "0",表格2[[#This Row],[JUMP]:[return]]))</f>
+        <v>000</v>
+      </c>
+      <c r="Z32" t="str">
+        <f>DEC2BIN(VLOOKUP(表格2[[#This Row],[ALUOP]],$R$2:$S$15,2,FALSE),4)</f>
         <v>0000</v>
       </c>
-      <c r="Y32" t="str">
-        <f>_xlfn.TEXTJOIN("", TRUE, IF(表格2[[#This Row],[SHIFT_V]]="", "0", 表格2[[#This Row],[SHIFT_V]]))</f>
-        <v>0</v>
-      </c>
-      <c r="Z32" t="str">
-        <f>_xlfn.TEXTJOIN("",TRUE,IF(表格2[[#This Row],[DATA_TYPE]]="","00",DEC2BIN(表格2[[#This Row],[DATA_TYPE]],2)))</f>
-        <v>00</v>
+      <c r="AA32" t="str">
+        <f>_xlfn.TEXTJOIN("", TRUE, IF(表格2[[#This Row],[SHIFT_V]]="", "0",表格2[[#This Row],[SHIFT_V]] ))</f>
+        <v>0</v>
       </c>
       <c r="AB32" t="str">
-        <f t="shared" si="1"/>
-        <v>0000001010000000000000</v>
-      </c>
-    </row>
-    <row r="33" spans="1:28" x14ac:dyDescent="0.3">
+        <f>DEC2BIN(IF(表格2[[#This Row],[DATA_TYPE]]="",0,表格2[[#This Row],[DATA_TYPE]]),3)</f>
+        <v>000</v>
+      </c>
+      <c r="AC32" t="str">
+        <f t="shared" si="0"/>
+        <v>0000001010000000000000000</v>
+      </c>
+    </row>
+    <row r="33" spans="1:29" x14ac:dyDescent="0.3">
       <c r="B33" s="4" t="s">
-        <v>50</v>
+        <v>23</v>
       </c>
       <c r="I33">
         <v>1</v>
@@ -1740,34 +1868,45 @@
       <c r="K33">
         <v>1</v>
       </c>
+      <c r="N33" t="s">
+        <v>120</v>
+      </c>
       <c r="S33" t="s">
-        <v>127</v>
+        <v>98</v>
       </c>
       <c r="U33" s="6"/>
       <c r="W33" t="str" cm="1">
-        <f t="array" ref="W33">_xlfn.TEXTJOIN("", TRUE, IF(C33:Q33="", "0", C33:Q33))</f>
-        <v>000000101000000</v>
+        <f t="array" ref="W33">_xlfn.TEXTJOIN("", TRUE, IF(C33:M33="", "0", C33:M33))</f>
+        <v>00000010100</v>
       </c>
       <c r="X33" t="str">
-        <f>DEC2BIN(VLOOKUP(表格2[[#This Row],[ALUOP]],$R$2:$S$17,2,FALSE),4)</f>
+        <f>DEC2BIN(VLOOKUP(表格2[[#This Row],[BRANCH]],$N$4:$O$10,2,FALSE),3)</f>
+        <v>000</v>
+      </c>
+      <c r="Y33" t="str" cm="1">
+        <f t="array" ref="Y33">_xlfn.TEXTJOIN("", TRUE, IF(表格2[[#This Row],[JUMP]:[return]]="", "0",表格2[[#This Row],[JUMP]:[return]]))</f>
+        <v>000</v>
+      </c>
+      <c r="Z33" t="str">
+        <f>DEC2BIN(VLOOKUP(表格2[[#This Row],[ALUOP]],$R$2:$S$15,2,FALSE),4)</f>
         <v>0001</v>
       </c>
-      <c r="Y33" t="str">
-        <f>_xlfn.TEXTJOIN("", TRUE, IF(表格2[[#This Row],[SHIFT_V]]="", "0", 表格2[[#This Row],[SHIFT_V]]))</f>
-        <v>0</v>
-      </c>
-      <c r="Z33" t="str">
-        <f>_xlfn.TEXTJOIN("",TRUE,IF(表格2[[#This Row],[DATA_TYPE]]="","00",DEC2BIN(表格2[[#This Row],[DATA_TYPE]],2)))</f>
-        <v>00</v>
+      <c r="AA33" t="str">
+        <f>_xlfn.TEXTJOIN("", TRUE, IF(表格2[[#This Row],[SHIFT_V]]="", "0",表格2[[#This Row],[SHIFT_V]] ))</f>
+        <v>0</v>
       </c>
       <c r="AB33" t="str">
-        <f t="shared" si="1"/>
-        <v>0000001010000000001000</v>
-      </c>
-    </row>
-    <row r="34" spans="1:28" x14ac:dyDescent="0.3">
+        <f>DEC2BIN(IF(表格2[[#This Row],[DATA_TYPE]]="",0,表格2[[#This Row],[DATA_TYPE]]),3)</f>
+        <v>000</v>
+      </c>
+      <c r="AC33" t="str">
+        <f t="shared" si="0"/>
+        <v>0000001010000000000010000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:29" x14ac:dyDescent="0.3">
       <c r="B34" s="4" t="s">
-        <v>51</v>
+        <v>24</v>
       </c>
       <c r="I34">
         <v>1</v>
@@ -1775,34 +1914,45 @@
       <c r="K34">
         <v>1</v>
       </c>
+      <c r="N34" t="s">
+        <v>120</v>
+      </c>
       <c r="S34" t="s">
-        <v>128</v>
+        <v>99</v>
       </c>
       <c r="U34" s="6"/>
       <c r="W34" t="str" cm="1">
-        <f t="array" ref="W34">_xlfn.TEXTJOIN("", TRUE, IF(C34:Q34="", "0", C34:Q34))</f>
-        <v>000000101000000</v>
+        <f t="array" ref="W34">_xlfn.TEXTJOIN("", TRUE, IF(C34:M34="", "0", C34:M34))</f>
+        <v>00000010100</v>
       </c>
       <c r="X34" t="str">
-        <f>DEC2BIN(VLOOKUP(表格2[[#This Row],[ALUOP]],$R$2:$S$17,2,FALSE),4)</f>
+        <f>DEC2BIN(VLOOKUP(表格2[[#This Row],[BRANCH]],$N$4:$O$10,2,FALSE),3)</f>
+        <v>000</v>
+      </c>
+      <c r="Y34" t="str" cm="1">
+        <f t="array" ref="Y34">_xlfn.TEXTJOIN("", TRUE, IF(表格2[[#This Row],[JUMP]:[return]]="", "0",表格2[[#This Row],[JUMP]:[return]]))</f>
+        <v>000</v>
+      </c>
+      <c r="Z34" t="str">
+        <f>DEC2BIN(VLOOKUP(表格2[[#This Row],[ALUOP]],$R$2:$S$15,2,FALSE),4)</f>
         <v>0010</v>
       </c>
-      <c r="Y34" t="str">
-        <f>_xlfn.TEXTJOIN("", TRUE, IF(表格2[[#This Row],[SHIFT_V]]="", "0", 表格2[[#This Row],[SHIFT_V]]))</f>
-        <v>0</v>
-      </c>
-      <c r="Z34" t="str">
-        <f>_xlfn.TEXTJOIN("",TRUE,IF(表格2[[#This Row],[DATA_TYPE]]="","00",DEC2BIN(表格2[[#This Row],[DATA_TYPE]],2)))</f>
-        <v>00</v>
+      <c r="AA34" t="str">
+        <f>_xlfn.TEXTJOIN("", TRUE, IF(表格2[[#This Row],[SHIFT_V]]="", "0",表格2[[#This Row],[SHIFT_V]] ))</f>
+        <v>0</v>
       </c>
       <c r="AB34" t="str">
-        <f t="shared" si="1"/>
-        <v>0000001010000000010000</v>
-      </c>
-    </row>
-    <row r="35" spans="1:28" x14ac:dyDescent="0.3">
+        <f>DEC2BIN(IF(表格2[[#This Row],[DATA_TYPE]]="",0,表格2[[#This Row],[DATA_TYPE]]),3)</f>
+        <v>000</v>
+      </c>
+      <c r="AC34" t="str">
+        <f t="shared" si="0"/>
+        <v>0000001010000000000100000</v>
+      </c>
+    </row>
+    <row r="35" spans="1:29" x14ac:dyDescent="0.3">
       <c r="B35" s="4" t="s">
-        <v>52</v>
+        <v>25</v>
       </c>
       <c r="I35">
         <v>1</v>
@@ -1810,45 +1960,56 @@
       <c r="K35">
         <v>1</v>
       </c>
+      <c r="N35" t="s">
+        <v>120</v>
+      </c>
       <c r="S35" t="s">
-        <v>126</v>
+        <v>97</v>
       </c>
       <c r="U35" s="6"/>
       <c r="W35" t="str" cm="1">
-        <f t="array" ref="W35">_xlfn.TEXTJOIN("", TRUE, IF(C35:Q35="", "0", C35:Q35))</f>
-        <v>000000101000000</v>
+        <f t="array" ref="W35">_xlfn.TEXTJOIN("", TRUE, IF(C35:M35="", "0", C35:M35))</f>
+        <v>00000010100</v>
       </c>
       <c r="X35" t="str">
-        <f>DEC2BIN(VLOOKUP(表格2[[#This Row],[ALUOP]],$R$2:$S$17,2,FALSE),4)</f>
+        <f>DEC2BIN(VLOOKUP(表格2[[#This Row],[BRANCH]],$N$4:$O$10,2,FALSE),3)</f>
+        <v>000</v>
+      </c>
+      <c r="Y35" t="str" cm="1">
+        <f t="array" ref="Y35">_xlfn.TEXTJOIN("", TRUE, IF(表格2[[#This Row],[JUMP]:[return]]="", "0",表格2[[#This Row],[JUMP]:[return]]))</f>
+        <v>000</v>
+      </c>
+      <c r="Z35" t="str">
+        <f>DEC2BIN(VLOOKUP(表格2[[#This Row],[ALUOP]],$R$2:$S$15,2,FALSE),4)</f>
         <v>0000</v>
       </c>
-      <c r="Y35" t="str">
-        <f>_xlfn.TEXTJOIN("", TRUE, IF(表格2[[#This Row],[SHIFT_V]]="", "0", 表格2[[#This Row],[SHIFT_V]]))</f>
-        <v>0</v>
-      </c>
-      <c r="Z35" t="str">
-        <f>_xlfn.TEXTJOIN("",TRUE,IF(表格2[[#This Row],[DATA_TYPE]]="","00",DEC2BIN(表格2[[#This Row],[DATA_TYPE]],2)))</f>
-        <v>00</v>
+      <c r="AA35" t="str">
+        <f>_xlfn.TEXTJOIN("", TRUE, IF(表格2[[#This Row],[SHIFT_V]]="", "0",表格2[[#This Row],[SHIFT_V]] ))</f>
+        <v>0</v>
       </c>
       <c r="AB35" t="str">
-        <f t="shared" si="1"/>
-        <v>0000001010000000000000</v>
-      </c>
-    </row>
-    <row r="36" spans="1:28" x14ac:dyDescent="0.3">
+        <f>DEC2BIN(IF(表格2[[#This Row],[DATA_TYPE]]="",0,表格2[[#This Row],[DATA_TYPE]]),3)</f>
+        <v>000</v>
+      </c>
+      <c r="AC35" t="str">
+        <f t="shared" si="0"/>
+        <v>0000001010000000000000000</v>
+      </c>
+    </row>
+    <row r="36" spans="1:29" x14ac:dyDescent="0.3">
       <c r="B36" s="4"/>
       <c r="U36" s="6"/>
-      <c r="AB36" t="str">
-        <f t="shared" si="1"/>
+      <c r="AC36" t="str">
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="37" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>117</v>
+        <v>90</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>53</v>
+        <v>26</v>
       </c>
       <c r="I37">
         <v>1</v>
@@ -1862,36 +2023,47 @@
       <c r="L37">
         <v>1</v>
       </c>
+      <c r="N37" t="s">
+        <v>120</v>
+      </c>
       <c r="S37" t="s">
-        <v>132</v>
+        <v>103</v>
       </c>
       <c r="U37" s="6">
         <v>2</v>
       </c>
       <c r="W37" t="str" cm="1">
-        <f t="array" ref="W37">_xlfn.TEXTJOIN("", TRUE, IF(C37:Q37="", "0", C37:Q37))</f>
-        <v>000000111100000</v>
+        <f t="array" ref="W37">_xlfn.TEXTJOIN("", TRUE, IF(C37:M37="", "0", C37:M37))</f>
+        <v>00000011110</v>
       </c>
       <c r="X37" t="str">
-        <f>DEC2BIN(VLOOKUP(表格2[[#This Row],[ALUOP]],$R$2:$S$17,2,FALSE),4)</f>
+        <f>DEC2BIN(VLOOKUP(表格2[[#This Row],[BRANCH]],$N$4:$O$10,2,FALSE),3)</f>
+        <v>000</v>
+      </c>
+      <c r="Y37" t="str" cm="1">
+        <f t="array" ref="Y37">_xlfn.TEXTJOIN("", TRUE, IF(表格2[[#This Row],[JUMP]:[return]]="", "0",表格2[[#This Row],[JUMP]:[return]]))</f>
+        <v>000</v>
+      </c>
+      <c r="Z37" t="str">
+        <f>DEC2BIN(VLOOKUP(表格2[[#This Row],[ALUOP]],$R$2:$S$15,2,FALSE),4)</f>
         <v>0100</v>
       </c>
-      <c r="Y37" t="str">
-        <f>_xlfn.TEXTJOIN("", TRUE, IF(表格2[[#This Row],[SHIFT_V]]="", "0", 表格2[[#This Row],[SHIFT_V]]))</f>
-        <v>0</v>
-      </c>
-      <c r="Z37" t="str">
-        <f>_xlfn.TEXTJOIN("",TRUE,IF(表格2[[#This Row],[DATA_TYPE]]="","00",DEC2BIN(表格2[[#This Row],[DATA_TYPE]],2)))</f>
-        <v>10</v>
+      <c r="AA37" t="str">
+        <f>_xlfn.TEXTJOIN("", TRUE, IF(表格2[[#This Row],[SHIFT_V]]="", "0",表格2[[#This Row],[SHIFT_V]] ))</f>
+        <v>0</v>
       </c>
       <c r="AB37" t="str">
-        <f t="shared" si="1"/>
-        <v>0000001111000000100010</v>
-      </c>
-    </row>
-    <row r="38" spans="1:28" x14ac:dyDescent="0.3">
+        <f>DEC2BIN(IF(表格2[[#This Row],[DATA_TYPE]]="",0,表格2[[#This Row],[DATA_TYPE]]),3)</f>
+        <v>010</v>
+      </c>
+      <c r="AC37" t="str">
+        <f t="shared" si="0"/>
+        <v>0000001111000000001000010</v>
+      </c>
+    </row>
+    <row r="38" spans="1:29" x14ac:dyDescent="0.3">
       <c r="B38" s="4" t="s">
-        <v>54</v>
+        <v>27</v>
       </c>
       <c r="I38">
         <v>1</v>
@@ -1905,36 +2077,47 @@
       <c r="L38">
         <v>1</v>
       </c>
+      <c r="N38" t="s">
+        <v>120</v>
+      </c>
       <c r="S38" t="s">
-        <v>132</v>
+        <v>103</v>
       </c>
       <c r="U38" s="6">
         <v>1</v>
       </c>
       <c r="W38" t="str" cm="1">
-        <f t="array" ref="W38">_xlfn.TEXTJOIN("", TRUE, IF(C38:Q38="", "0", C38:Q38))</f>
-        <v>000000111100000</v>
+        <f t="array" ref="W38">_xlfn.TEXTJOIN("", TRUE, IF(C38:M38="", "0", C38:M38))</f>
+        <v>00000011110</v>
       </c>
       <c r="X38" t="str">
-        <f>DEC2BIN(VLOOKUP(表格2[[#This Row],[ALUOP]],$R$2:$S$17,2,FALSE),4)</f>
+        <f>DEC2BIN(VLOOKUP(表格2[[#This Row],[BRANCH]],$N$4:$O$10,2,FALSE),3)</f>
+        <v>000</v>
+      </c>
+      <c r="Y38" t="str" cm="1">
+        <f t="array" ref="Y38">_xlfn.TEXTJOIN("", TRUE, IF(表格2[[#This Row],[JUMP]:[return]]="", "0",表格2[[#This Row],[JUMP]:[return]]))</f>
+        <v>000</v>
+      </c>
+      <c r="Z38" t="str">
+        <f>DEC2BIN(VLOOKUP(表格2[[#This Row],[ALUOP]],$R$2:$S$15,2,FALSE),4)</f>
         <v>0100</v>
       </c>
-      <c r="Y38" t="str">
-        <f>_xlfn.TEXTJOIN("", TRUE, IF(表格2[[#This Row],[SHIFT_V]]="", "0", 表格2[[#This Row],[SHIFT_V]]))</f>
-        <v>0</v>
-      </c>
-      <c r="Z38" t="str">
-        <f>_xlfn.TEXTJOIN("",TRUE,IF(表格2[[#This Row],[DATA_TYPE]]="","00",DEC2BIN(表格2[[#This Row],[DATA_TYPE]],2)))</f>
-        <v>01</v>
+      <c r="AA38" t="str">
+        <f>_xlfn.TEXTJOIN("", TRUE, IF(表格2[[#This Row],[SHIFT_V]]="", "0",表格2[[#This Row],[SHIFT_V]] ))</f>
+        <v>0</v>
       </c>
       <c r="AB38" t="str">
-        <f t="shared" si="1"/>
-        <v>0000001111000000100001</v>
-      </c>
-    </row>
-    <row r="39" spans="1:28" x14ac:dyDescent="0.3">
+        <f>DEC2BIN(IF(表格2[[#This Row],[DATA_TYPE]]="",0,表格2[[#This Row],[DATA_TYPE]]),3)</f>
+        <v>001</v>
+      </c>
+      <c r="AC38" t="str">
+        <f t="shared" si="0"/>
+        <v>0000001111000000001000001</v>
+      </c>
+    </row>
+    <row r="39" spans="1:29" x14ac:dyDescent="0.3">
       <c r="B39" s="4" t="s">
-        <v>58</v>
+        <v>31</v>
       </c>
       <c r="I39">
         <v>1</v>
@@ -1948,34 +2131,45 @@
       <c r="L39">
         <v>1</v>
       </c>
+      <c r="N39" t="s">
+        <v>120</v>
+      </c>
       <c r="S39" t="s">
-        <v>132</v>
+        <v>103</v>
       </c>
       <c r="U39" s="6"/>
       <c r="W39" t="str" cm="1">
-        <f t="array" ref="W39">_xlfn.TEXTJOIN("", TRUE, IF(C39:Q39="", "0", C39:Q39))</f>
-        <v>000000111100000</v>
+        <f t="array" ref="W39">_xlfn.TEXTJOIN("", TRUE, IF(C39:M39="", "0", C39:M39))</f>
+        <v>00000011110</v>
       </c>
       <c r="X39" t="str">
-        <f>DEC2BIN(VLOOKUP(表格2[[#This Row],[ALUOP]],$R$2:$S$17,2,FALSE),4)</f>
+        <f>DEC2BIN(VLOOKUP(表格2[[#This Row],[BRANCH]],$N$4:$O$10,2,FALSE),3)</f>
+        <v>000</v>
+      </c>
+      <c r="Y39" t="str" cm="1">
+        <f t="array" ref="Y39">_xlfn.TEXTJOIN("", TRUE, IF(表格2[[#This Row],[JUMP]:[return]]="", "0",表格2[[#This Row],[JUMP]:[return]]))</f>
+        <v>000</v>
+      </c>
+      <c r="Z39" t="str">
+        <f>DEC2BIN(VLOOKUP(表格2[[#This Row],[ALUOP]],$R$2:$S$15,2,FALSE),4)</f>
         <v>0100</v>
       </c>
-      <c r="Y39" t="str">
-        <f>_xlfn.TEXTJOIN("", TRUE, IF(表格2[[#This Row],[SHIFT_V]]="", "0", 表格2[[#This Row],[SHIFT_V]]))</f>
-        <v>0</v>
-      </c>
-      <c r="Z39" t="str">
-        <f>_xlfn.TEXTJOIN("",TRUE,IF(表格2[[#This Row],[DATA_TYPE]]="","00",DEC2BIN(表格2[[#This Row],[DATA_TYPE]],2)))</f>
-        <v>00</v>
+      <c r="AA39" t="str">
+        <f>_xlfn.TEXTJOIN("", TRUE, IF(表格2[[#This Row],[SHIFT_V]]="", "0",表格2[[#This Row],[SHIFT_V]] ))</f>
+        <v>0</v>
       </c>
       <c r="AB39" t="str">
-        <f t="shared" si="1"/>
-        <v>0000001111000000100000</v>
-      </c>
-    </row>
-    <row r="40" spans="1:28" x14ac:dyDescent="0.3">
+        <f>DEC2BIN(IF(表格2[[#This Row],[DATA_TYPE]]="",0,表格2[[#This Row],[DATA_TYPE]]),3)</f>
+        <v>000</v>
+      </c>
+      <c r="AC39" t="str">
+        <f t="shared" si="0"/>
+        <v>0000001111000000001000000</v>
+      </c>
+    </row>
+    <row r="40" spans="1:29" x14ac:dyDescent="0.3">
       <c r="B40" s="4" t="s">
-        <v>55</v>
+        <v>28</v>
       </c>
       <c r="I40">
         <v>1</v>
@@ -1989,34 +2183,45 @@
       <c r="L40">
         <v>1</v>
       </c>
+      <c r="N40" t="s">
+        <v>120</v>
+      </c>
       <c r="S40" t="s">
-        <v>132</v>
+        <v>103</v>
       </c>
       <c r="U40" s="6"/>
       <c r="W40" t="str" cm="1">
-        <f t="array" ref="W40">_xlfn.TEXTJOIN("", TRUE, IF(C40:Q40="", "0", C40:Q40))</f>
-        <v>000000111100000</v>
+        <f t="array" ref="W40">_xlfn.TEXTJOIN("", TRUE, IF(C40:M40="", "0", C40:M40))</f>
+        <v>00000011110</v>
       </c>
       <c r="X40" t="str">
-        <f>DEC2BIN(VLOOKUP(表格2[[#This Row],[ALUOP]],$R$2:$S$17,2,FALSE),4)</f>
+        <f>DEC2BIN(VLOOKUP(表格2[[#This Row],[BRANCH]],$N$4:$O$10,2,FALSE),3)</f>
+        <v>000</v>
+      </c>
+      <c r="Y40" t="str" cm="1">
+        <f t="array" ref="Y40">_xlfn.TEXTJOIN("", TRUE, IF(表格2[[#This Row],[JUMP]:[return]]="", "0",表格2[[#This Row],[JUMP]:[return]]))</f>
+        <v>000</v>
+      </c>
+      <c r="Z40" t="str">
+        <f>DEC2BIN(VLOOKUP(表格2[[#This Row],[ALUOP]],$R$2:$S$15,2,FALSE),4)</f>
         <v>0100</v>
       </c>
-      <c r="Y40" t="str">
-        <f>_xlfn.TEXTJOIN("", TRUE, IF(表格2[[#This Row],[SHIFT_V]]="", "0", 表格2[[#This Row],[SHIFT_V]]))</f>
-        <v>0</v>
-      </c>
-      <c r="Z40" t="str">
-        <f>_xlfn.TEXTJOIN("",TRUE,IF(表格2[[#This Row],[DATA_TYPE]]="","00",DEC2BIN(表格2[[#This Row],[DATA_TYPE]],2)))</f>
-        <v>00</v>
+      <c r="AA40" t="str">
+        <f>_xlfn.TEXTJOIN("", TRUE, IF(表格2[[#This Row],[SHIFT_V]]="", "0",表格2[[#This Row],[SHIFT_V]] ))</f>
+        <v>0</v>
       </c>
       <c r="AB40" t="str">
-        <f t="shared" si="1"/>
-        <v>0000001111000000100000</v>
-      </c>
-    </row>
-    <row r="41" spans="1:28" x14ac:dyDescent="0.3">
+        <f>DEC2BIN(IF(表格2[[#This Row],[DATA_TYPE]]="",0,表格2[[#This Row],[DATA_TYPE]]),3)</f>
+        <v>000</v>
+      </c>
+      <c r="AC40" t="str">
+        <f t="shared" si="0"/>
+        <v>0000001111000000001000000</v>
+      </c>
+    </row>
+    <row r="41" spans="1:29" x14ac:dyDescent="0.3">
       <c r="B41" s="4" t="s">
-        <v>56</v>
+        <v>29</v>
       </c>
       <c r="G41">
         <v>1</v>
@@ -2033,36 +2238,47 @@
       <c r="L41">
         <v>1</v>
       </c>
+      <c r="N41" t="s">
+        <v>120</v>
+      </c>
       <c r="S41" t="s">
-        <v>132</v>
+        <v>103</v>
       </c>
       <c r="U41" s="6">
         <v>2</v>
       </c>
       <c r="W41" t="str" cm="1">
-        <f t="array" ref="W41">_xlfn.TEXTJOIN("", TRUE, IF(C41:Q41="", "0", C41:Q41))</f>
-        <v>000010111100000</v>
+        <f t="array" ref="W41">_xlfn.TEXTJOIN("", TRUE, IF(C41:M41="", "0", C41:M41))</f>
+        <v>00001011110</v>
       </c>
       <c r="X41" t="str">
-        <f>DEC2BIN(VLOOKUP(表格2[[#This Row],[ALUOP]],$R$2:$S$17,2,FALSE),4)</f>
+        <f>DEC2BIN(VLOOKUP(表格2[[#This Row],[BRANCH]],$N$4:$O$10,2,FALSE),3)</f>
+        <v>000</v>
+      </c>
+      <c r="Y41" t="str" cm="1">
+        <f t="array" ref="Y41">_xlfn.TEXTJOIN("", TRUE, IF(表格2[[#This Row],[JUMP]:[return]]="", "0",表格2[[#This Row],[JUMP]:[return]]))</f>
+        <v>000</v>
+      </c>
+      <c r="Z41" t="str">
+        <f>DEC2BIN(VLOOKUP(表格2[[#This Row],[ALUOP]],$R$2:$S$15,2,FALSE),4)</f>
         <v>0100</v>
       </c>
-      <c r="Y41" t="str">
-        <f>_xlfn.TEXTJOIN("", TRUE, IF(表格2[[#This Row],[SHIFT_V]]="", "0", 表格2[[#This Row],[SHIFT_V]]))</f>
-        <v>0</v>
-      </c>
-      <c r="Z41" t="str">
-        <f>_xlfn.TEXTJOIN("",TRUE,IF(表格2[[#This Row],[DATA_TYPE]]="","00",DEC2BIN(表格2[[#This Row],[DATA_TYPE]],2)))</f>
-        <v>10</v>
+      <c r="AA41" t="str">
+        <f>_xlfn.TEXTJOIN("", TRUE, IF(表格2[[#This Row],[SHIFT_V]]="", "0",表格2[[#This Row],[SHIFT_V]] ))</f>
+        <v>0</v>
       </c>
       <c r="AB41" t="str">
-        <f t="shared" si="1"/>
-        <v>0000101111000000100010</v>
-      </c>
-    </row>
-    <row r="42" spans="1:28" x14ac:dyDescent="0.3">
+        <f>DEC2BIN(IF(表格2[[#This Row],[DATA_TYPE]]="",0,表格2[[#This Row],[DATA_TYPE]]),3)</f>
+        <v>010</v>
+      </c>
+      <c r="AC41" t="str">
+        <f t="shared" si="0"/>
+        <v>0000101111000000001000010</v>
+      </c>
+    </row>
+    <row r="42" spans="1:29" x14ac:dyDescent="0.3">
       <c r="B42" s="4" t="s">
-        <v>57</v>
+        <v>30</v>
       </c>
       <c r="G42">
         <v>1</v>
@@ -2079,36 +2295,47 @@
       <c r="L42">
         <v>1</v>
       </c>
+      <c r="N42" t="s">
+        <v>120</v>
+      </c>
       <c r="S42" t="s">
-        <v>132</v>
+        <v>103</v>
       </c>
       <c r="U42" s="6">
         <v>1</v>
       </c>
       <c r="W42" t="str" cm="1">
-        <f t="array" ref="W42">_xlfn.TEXTJOIN("", TRUE, IF(C42:Q42="", "0", C42:Q42))</f>
-        <v>000010111100000</v>
+        <f t="array" ref="W42">_xlfn.TEXTJOIN("", TRUE, IF(C42:M42="", "0", C42:M42))</f>
+        <v>00001011110</v>
       </c>
       <c r="X42" t="str">
-        <f>DEC2BIN(VLOOKUP(表格2[[#This Row],[ALUOP]],$R$2:$S$17,2,FALSE),4)</f>
+        <f>DEC2BIN(VLOOKUP(表格2[[#This Row],[BRANCH]],$N$4:$O$10,2,FALSE),3)</f>
+        <v>000</v>
+      </c>
+      <c r="Y42" t="str" cm="1">
+        <f t="array" ref="Y42">_xlfn.TEXTJOIN("", TRUE, IF(表格2[[#This Row],[JUMP]:[return]]="", "0",表格2[[#This Row],[JUMP]:[return]]))</f>
+        <v>000</v>
+      </c>
+      <c r="Z42" t="str">
+        <f>DEC2BIN(VLOOKUP(表格2[[#This Row],[ALUOP]],$R$2:$S$15,2,FALSE),4)</f>
         <v>0100</v>
       </c>
-      <c r="Y42" t="str">
-        <f>_xlfn.TEXTJOIN("", TRUE, IF(表格2[[#This Row],[SHIFT_V]]="", "0", 表格2[[#This Row],[SHIFT_V]]))</f>
-        <v>0</v>
-      </c>
-      <c r="Z42" t="str">
-        <f>_xlfn.TEXTJOIN("",TRUE,IF(表格2[[#This Row],[DATA_TYPE]]="","00",DEC2BIN(表格2[[#This Row],[DATA_TYPE]],2)))</f>
-        <v>01</v>
+      <c r="AA42" t="str">
+        <f>_xlfn.TEXTJOIN("", TRUE, IF(表格2[[#This Row],[SHIFT_V]]="", "0",表格2[[#This Row],[SHIFT_V]] ))</f>
+        <v>0</v>
       </c>
       <c r="AB42" t="str">
-        <f t="shared" si="1"/>
-        <v>0000101111000000100001</v>
-      </c>
-    </row>
-    <row r="43" spans="1:28" x14ac:dyDescent="0.3">
+        <f>DEC2BIN(IF(表格2[[#This Row],[DATA_TYPE]]="",0,表格2[[#This Row],[DATA_TYPE]]),3)</f>
+        <v>001</v>
+      </c>
+      <c r="AC42" t="str">
+        <f t="shared" si="0"/>
+        <v>0000101111000000001000001</v>
+      </c>
+    </row>
+    <row r="43" spans="1:29" x14ac:dyDescent="0.3">
       <c r="B43" s="4" t="s">
-        <v>59</v>
+        <v>32</v>
       </c>
       <c r="I43">
         <v>1</v>
@@ -2122,42 +2349,53 @@
       <c r="L43">
         <v>1</v>
       </c>
+      <c r="N43" t="s">
+        <v>120</v>
+      </c>
       <c r="S43" t="s">
-        <v>132</v>
+        <v>103</v>
       </c>
       <c r="U43" s="6"/>
       <c r="W43" t="str" cm="1">
-        <f t="array" ref="W43">_xlfn.TEXTJOIN("", TRUE, IF(C43:Q43="", "0", C43:Q43))</f>
-        <v>000000111100000</v>
+        <f t="array" ref="W43">_xlfn.TEXTJOIN("", TRUE, IF(C43:M43="", "0", C43:M43))</f>
+        <v>00000011110</v>
       </c>
       <c r="X43" t="str">
-        <f>DEC2BIN(VLOOKUP(表格2[[#This Row],[ALUOP]],$R$2:$S$17,2,FALSE),4)</f>
+        <f>DEC2BIN(VLOOKUP(表格2[[#This Row],[BRANCH]],$N$4:$O$10,2,FALSE),3)</f>
+        <v>000</v>
+      </c>
+      <c r="Y43" t="str" cm="1">
+        <f t="array" ref="Y43">_xlfn.TEXTJOIN("", TRUE, IF(表格2[[#This Row],[JUMP]:[return]]="", "0",表格2[[#This Row],[JUMP]:[return]]))</f>
+        <v>000</v>
+      </c>
+      <c r="Z43" t="str">
+        <f>DEC2BIN(VLOOKUP(表格2[[#This Row],[ALUOP]],$R$2:$S$15,2,FALSE),4)</f>
         <v>0100</v>
       </c>
-      <c r="Y43" t="str">
-        <f>_xlfn.TEXTJOIN("", TRUE, IF(表格2[[#This Row],[SHIFT_V]]="", "0", 表格2[[#This Row],[SHIFT_V]]))</f>
-        <v>0</v>
-      </c>
-      <c r="Z43" t="str">
-        <f>_xlfn.TEXTJOIN("",TRUE,IF(表格2[[#This Row],[DATA_TYPE]]="","00",DEC2BIN(表格2[[#This Row],[DATA_TYPE]],2)))</f>
-        <v>00</v>
+      <c r="AA43" t="str">
+        <f>_xlfn.TEXTJOIN("", TRUE, IF(表格2[[#This Row],[SHIFT_V]]="", "0",表格2[[#This Row],[SHIFT_V]] ))</f>
+        <v>0</v>
       </c>
       <c r="AB43" t="str">
-        <f t="shared" si="1"/>
-        <v>0000001111000000100000</v>
-      </c>
-    </row>
-    <row r="44" spans="1:28" x14ac:dyDescent="0.3">
+        <f>DEC2BIN(IF(表格2[[#This Row],[DATA_TYPE]]="",0,表格2[[#This Row],[DATA_TYPE]]),3)</f>
+        <v>000</v>
+      </c>
+      <c r="AC43" t="str">
+        <f t="shared" si="0"/>
+        <v>0000001111000000001000000</v>
+      </c>
+    </row>
+    <row r="44" spans="1:29" x14ac:dyDescent="0.3">
       <c r="B44" s="4"/>
       <c r="U44" s="6"/>
-      <c r="AB44" t="str">
-        <f t="shared" si="1"/>
+      <c r="AC44" t="str">
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="45" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:29" x14ac:dyDescent="0.3">
       <c r="B45" s="4" t="s">
-        <v>60</v>
+        <v>33</v>
       </c>
       <c r="I45">
         <v>1</v>
@@ -2165,36 +2403,47 @@
       <c r="M45">
         <v>1</v>
       </c>
+      <c r="N45" t="s">
+        <v>120</v>
+      </c>
       <c r="S45" t="s">
-        <v>132</v>
+        <v>103</v>
       </c>
       <c r="U45" s="6">
         <v>2</v>
       </c>
       <c r="W45" t="str" cm="1">
-        <f t="array" ref="W45">_xlfn.TEXTJOIN("", TRUE, IF(C45:Q45="", "0", C45:Q45))</f>
-        <v>000000100010000</v>
+        <f t="array" ref="W45">_xlfn.TEXTJOIN("", TRUE, IF(C45:M45="", "0", C45:M45))</f>
+        <v>00000010001</v>
       </c>
       <c r="X45" t="str">
-        <f>DEC2BIN(VLOOKUP(表格2[[#This Row],[ALUOP]],$R$2:$S$17,2,FALSE),4)</f>
+        <f>DEC2BIN(VLOOKUP(表格2[[#This Row],[BRANCH]],$N$4:$O$10,2,FALSE),3)</f>
+        <v>000</v>
+      </c>
+      <c r="Y45" t="str" cm="1">
+        <f t="array" ref="Y45">_xlfn.TEXTJOIN("", TRUE, IF(表格2[[#This Row],[JUMP]:[return]]="", "0",表格2[[#This Row],[JUMP]:[return]]))</f>
+        <v>000</v>
+      </c>
+      <c r="Z45" t="str">
+        <f>DEC2BIN(VLOOKUP(表格2[[#This Row],[ALUOP]],$R$2:$S$15,2,FALSE),4)</f>
         <v>0100</v>
       </c>
-      <c r="Y45" t="str">
-        <f>_xlfn.TEXTJOIN("", TRUE, IF(表格2[[#This Row],[SHIFT_V]]="", "0", 表格2[[#This Row],[SHIFT_V]]))</f>
-        <v>0</v>
-      </c>
-      <c r="Z45" t="str">
-        <f>_xlfn.TEXTJOIN("",TRUE,IF(表格2[[#This Row],[DATA_TYPE]]="","00",DEC2BIN(表格2[[#This Row],[DATA_TYPE]],2)))</f>
-        <v>10</v>
+      <c r="AA45" t="str">
+        <f>_xlfn.TEXTJOIN("", TRUE, IF(表格2[[#This Row],[SHIFT_V]]="", "0",表格2[[#This Row],[SHIFT_V]] ))</f>
+        <v>0</v>
       </c>
       <c r="AB45" t="str">
-        <f t="shared" si="1"/>
-        <v>0000001000100000100010</v>
-      </c>
-    </row>
-    <row r="46" spans="1:28" x14ac:dyDescent="0.3">
+        <f>DEC2BIN(IF(表格2[[#This Row],[DATA_TYPE]]="",0,表格2[[#This Row],[DATA_TYPE]]),3)</f>
+        <v>010</v>
+      </c>
+      <c r="AC45" t="str">
+        <f t="shared" si="0"/>
+        <v>0000001000100000001000010</v>
+      </c>
+    </row>
+    <row r="46" spans="1:29" x14ac:dyDescent="0.3">
       <c r="B46" s="4" t="s">
-        <v>61</v>
+        <v>34</v>
       </c>
       <c r="I46">
         <v>1</v>
@@ -2202,36 +2451,47 @@
       <c r="M46">
         <v>1</v>
       </c>
+      <c r="N46" t="s">
+        <v>120</v>
+      </c>
       <c r="S46" t="s">
-        <v>132</v>
+        <v>103</v>
       </c>
       <c r="U46" s="6">
         <v>1</v>
       </c>
       <c r="W46" t="str" cm="1">
-        <f t="array" ref="W46">_xlfn.TEXTJOIN("", TRUE, IF(C46:Q46="", "0", C46:Q46))</f>
-        <v>000000100010000</v>
+        <f t="array" ref="W46">_xlfn.TEXTJOIN("", TRUE, IF(C46:M46="", "0", C46:M46))</f>
+        <v>00000010001</v>
       </c>
       <c r="X46" t="str">
-        <f>DEC2BIN(VLOOKUP(表格2[[#This Row],[ALUOP]],$R$2:$S$17,2,FALSE),4)</f>
+        <f>DEC2BIN(VLOOKUP(表格2[[#This Row],[BRANCH]],$N$4:$O$10,2,FALSE),3)</f>
+        <v>000</v>
+      </c>
+      <c r="Y46" t="str" cm="1">
+        <f t="array" ref="Y46">_xlfn.TEXTJOIN("", TRUE, IF(表格2[[#This Row],[JUMP]:[return]]="", "0",表格2[[#This Row],[JUMP]:[return]]))</f>
+        <v>000</v>
+      </c>
+      <c r="Z46" t="str">
+        <f>DEC2BIN(VLOOKUP(表格2[[#This Row],[ALUOP]],$R$2:$S$15,2,FALSE),4)</f>
         <v>0100</v>
       </c>
-      <c r="Y46" t="str">
-        <f>_xlfn.TEXTJOIN("", TRUE, IF(表格2[[#This Row],[SHIFT_V]]="", "0", 表格2[[#This Row],[SHIFT_V]]))</f>
-        <v>0</v>
-      </c>
-      <c r="Z46" t="str">
-        <f>_xlfn.TEXTJOIN("",TRUE,IF(表格2[[#This Row],[DATA_TYPE]]="","00",DEC2BIN(表格2[[#This Row],[DATA_TYPE]],2)))</f>
-        <v>01</v>
+      <c r="AA46" t="str">
+        <f>_xlfn.TEXTJOIN("", TRUE, IF(表格2[[#This Row],[SHIFT_V]]="", "0",表格2[[#This Row],[SHIFT_V]] ))</f>
+        <v>0</v>
       </c>
       <c r="AB46" t="str">
-        <f t="shared" si="1"/>
-        <v>0000001000100000100001</v>
-      </c>
-    </row>
-    <row r="47" spans="1:28" x14ac:dyDescent="0.3">
+        <f>DEC2BIN(IF(表格2[[#This Row],[DATA_TYPE]]="",0,表格2[[#This Row],[DATA_TYPE]]),3)</f>
+        <v>001</v>
+      </c>
+      <c r="AC46" t="str">
+        <f t="shared" si="0"/>
+        <v>0000001000100000001000001</v>
+      </c>
+    </row>
+    <row r="47" spans="1:29" x14ac:dyDescent="0.3">
       <c r="B47" s="4" t="s">
-        <v>63</v>
+        <v>36</v>
       </c>
       <c r="I47">
         <v>1</v>
@@ -2239,34 +2499,45 @@
       <c r="M47">
         <v>1</v>
       </c>
+      <c r="N47" t="s">
+        <v>120</v>
+      </c>
       <c r="S47" t="s">
-        <v>132</v>
+        <v>103</v>
       </c>
       <c r="U47" s="6"/>
       <c r="W47" t="str" cm="1">
-        <f t="array" ref="W47">_xlfn.TEXTJOIN("", TRUE, IF(C47:Q47="", "0", C47:Q47))</f>
-        <v>000000100010000</v>
+        <f t="array" ref="W47">_xlfn.TEXTJOIN("", TRUE, IF(C47:M47="", "0", C47:M47))</f>
+        <v>00000010001</v>
       </c>
       <c r="X47" t="str">
-        <f>DEC2BIN(VLOOKUP(表格2[[#This Row],[ALUOP]],$R$2:$S$17,2,FALSE),4)</f>
+        <f>DEC2BIN(VLOOKUP(表格2[[#This Row],[BRANCH]],$N$4:$O$10,2,FALSE),3)</f>
+        <v>000</v>
+      </c>
+      <c r="Y47" t="str" cm="1">
+        <f t="array" ref="Y47">_xlfn.TEXTJOIN("", TRUE, IF(表格2[[#This Row],[JUMP]:[return]]="", "0",表格2[[#This Row],[JUMP]:[return]]))</f>
+        <v>000</v>
+      </c>
+      <c r="Z47" t="str">
+        <f>DEC2BIN(VLOOKUP(表格2[[#This Row],[ALUOP]],$R$2:$S$15,2,FALSE),4)</f>
         <v>0100</v>
       </c>
-      <c r="Y47" t="str">
-        <f>_xlfn.TEXTJOIN("", TRUE, IF(表格2[[#This Row],[SHIFT_V]]="", "0", 表格2[[#This Row],[SHIFT_V]]))</f>
-        <v>0</v>
-      </c>
-      <c r="Z47" t="str">
-        <f>_xlfn.TEXTJOIN("",TRUE,IF(表格2[[#This Row],[DATA_TYPE]]="","00",DEC2BIN(表格2[[#This Row],[DATA_TYPE]],2)))</f>
-        <v>00</v>
+      <c r="AA47" t="str">
+        <f>_xlfn.TEXTJOIN("", TRUE, IF(表格2[[#This Row],[SHIFT_V]]="", "0",表格2[[#This Row],[SHIFT_V]] ))</f>
+        <v>0</v>
       </c>
       <c r="AB47" t="str">
-        <f t="shared" si="1"/>
-        <v>0000001000100000100000</v>
-      </c>
-    </row>
-    <row r="48" spans="1:28" x14ac:dyDescent="0.3">
+        <f>DEC2BIN(IF(表格2[[#This Row],[DATA_TYPE]]="",0,表格2[[#This Row],[DATA_TYPE]]),3)</f>
+        <v>000</v>
+      </c>
+      <c r="AC47" t="str">
+        <f t="shared" si="0"/>
+        <v>0000001000100000001000000</v>
+      </c>
+    </row>
+    <row r="48" spans="1:29" x14ac:dyDescent="0.3">
       <c r="B48" s="4" t="s">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="I48">
         <v>1</v>
@@ -2274,34 +2545,45 @@
       <c r="M48">
         <v>1</v>
       </c>
+      <c r="N48" t="s">
+        <v>120</v>
+      </c>
       <c r="S48" t="s">
-        <v>132</v>
+        <v>103</v>
       </c>
       <c r="U48" s="6"/>
       <c r="W48" t="str" cm="1">
-        <f t="array" ref="W48">_xlfn.TEXTJOIN("", TRUE, IF(C48:Q48="", "0", C48:Q48))</f>
-        <v>000000100010000</v>
+        <f t="array" ref="W48">_xlfn.TEXTJOIN("", TRUE, IF(C48:M48="", "0", C48:M48))</f>
+        <v>00000010001</v>
       </c>
       <c r="X48" t="str">
-        <f>DEC2BIN(VLOOKUP(表格2[[#This Row],[ALUOP]],$R$2:$S$17,2,FALSE),4)</f>
+        <f>DEC2BIN(VLOOKUP(表格2[[#This Row],[BRANCH]],$N$4:$O$10,2,FALSE),3)</f>
+        <v>000</v>
+      </c>
+      <c r="Y48" t="str" cm="1">
+        <f t="array" ref="Y48">_xlfn.TEXTJOIN("", TRUE, IF(表格2[[#This Row],[JUMP]:[return]]="", "0",表格2[[#This Row],[JUMP]:[return]]))</f>
+        <v>000</v>
+      </c>
+      <c r="Z48" t="str">
+        <f>DEC2BIN(VLOOKUP(表格2[[#This Row],[ALUOP]],$R$2:$S$15,2,FALSE),4)</f>
         <v>0100</v>
       </c>
-      <c r="Y48" t="str">
-        <f>_xlfn.TEXTJOIN("", TRUE, IF(表格2[[#This Row],[SHIFT_V]]="", "0", 表格2[[#This Row],[SHIFT_V]]))</f>
-        <v>0</v>
-      </c>
-      <c r="Z48" t="str">
-        <f>_xlfn.TEXTJOIN("",TRUE,IF(表格2[[#This Row],[DATA_TYPE]]="","00",DEC2BIN(表格2[[#This Row],[DATA_TYPE]],2)))</f>
-        <v>00</v>
+      <c r="AA48" t="str">
+        <f>_xlfn.TEXTJOIN("", TRUE, IF(表格2[[#This Row],[SHIFT_V]]="", "0",表格2[[#This Row],[SHIFT_V]] ))</f>
+        <v>0</v>
       </c>
       <c r="AB48" t="str">
-        <f t="shared" si="1"/>
-        <v>0000001000100000100000</v>
-      </c>
-    </row>
-    <row r="49" spans="1:28" x14ac:dyDescent="0.3">
+        <f>DEC2BIN(IF(表格2[[#This Row],[DATA_TYPE]]="",0,表格2[[#This Row],[DATA_TYPE]]),3)</f>
+        <v>000</v>
+      </c>
+      <c r="AC48" t="str">
+        <f t="shared" si="0"/>
+        <v>0000001000100000001000000</v>
+      </c>
+    </row>
+    <row r="49" spans="1:29" x14ac:dyDescent="0.3">
       <c r="B49" s="4" t="s">
-        <v>64</v>
+        <v>37</v>
       </c>
       <c r="I49">
         <v>1</v>
@@ -2309,136 +2591,187 @@
       <c r="M49">
         <v>1</v>
       </c>
+      <c r="N49" t="s">
+        <v>120</v>
+      </c>
       <c r="S49" t="s">
-        <v>132</v>
+        <v>103</v>
       </c>
       <c r="U49" s="6"/>
       <c r="W49" t="str" cm="1">
-        <f t="array" ref="W49">_xlfn.TEXTJOIN("", TRUE, IF(C49:Q49="", "0", C49:Q49))</f>
-        <v>000000100010000</v>
+        <f t="array" ref="W49">_xlfn.TEXTJOIN("", TRUE, IF(C49:M49="", "0", C49:M49))</f>
+        <v>00000010001</v>
       </c>
       <c r="X49" t="str">
-        <f>DEC2BIN(VLOOKUP(表格2[[#This Row],[ALUOP]],$R$2:$S$17,2,FALSE),4)</f>
+        <f>DEC2BIN(VLOOKUP(表格2[[#This Row],[BRANCH]],$N$4:$O$10,2,FALSE),3)</f>
+        <v>000</v>
+      </c>
+      <c r="Y49" t="str" cm="1">
+        <f t="array" ref="Y49">_xlfn.TEXTJOIN("", TRUE, IF(表格2[[#This Row],[JUMP]:[return]]="", "0",表格2[[#This Row],[JUMP]:[return]]))</f>
+        <v>000</v>
+      </c>
+      <c r="Z49" t="str">
+        <f>DEC2BIN(VLOOKUP(表格2[[#This Row],[ALUOP]],$R$2:$S$15,2,FALSE),4)</f>
         <v>0100</v>
       </c>
-      <c r="Y49" t="str">
-        <f>_xlfn.TEXTJOIN("", TRUE, IF(表格2[[#This Row],[SHIFT_V]]="", "0", 表格2[[#This Row],[SHIFT_V]]))</f>
-        <v>0</v>
-      </c>
-      <c r="Z49" t="str">
-        <f>_xlfn.TEXTJOIN("",TRUE,IF(表格2[[#This Row],[DATA_TYPE]]="","00",DEC2BIN(表格2[[#This Row],[DATA_TYPE]],2)))</f>
-        <v>00</v>
+      <c r="AA49" t="str">
+        <f>_xlfn.TEXTJOIN("", TRUE, IF(表格2[[#This Row],[SHIFT_V]]="", "0",表格2[[#This Row],[SHIFT_V]] ))</f>
+        <v>0</v>
       </c>
       <c r="AB49" t="str">
-        <f t="shared" si="1"/>
-        <v>0000001000100000100000</v>
-      </c>
-    </row>
-    <row r="50" spans="1:28" x14ac:dyDescent="0.3">
+        <f>DEC2BIN(IF(表格2[[#This Row],[DATA_TYPE]]="",0,表格2[[#This Row],[DATA_TYPE]]),3)</f>
+        <v>000</v>
+      </c>
+      <c r="AC49" t="str">
+        <f t="shared" si="0"/>
+        <v>0000001000100000001000000</v>
+      </c>
+    </row>
+    <row r="50" spans="1:29" x14ac:dyDescent="0.3">
       <c r="B50" s="4"/>
       <c r="U50" s="6"/>
-      <c r="AB50" t="str">
-        <f t="shared" si="1"/>
+      <c r="AC50" t="str">
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="51" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:29" x14ac:dyDescent="0.3">
       <c r="B51" s="4"/>
       <c r="U51" s="6"/>
-      <c r="AB51" t="str">
-        <f t="shared" si="1"/>
+      <c r="AC51" t="str">
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="52" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:29" x14ac:dyDescent="0.3">
       <c r="B52" s="4"/>
       <c r="U52" s="6"/>
-      <c r="AB52" t="str">
-        <f t="shared" si="1"/>
+      <c r="AC52" t="str">
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="53" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:29" x14ac:dyDescent="0.3">
       <c r="B53" s="4"/>
       <c r="U53" s="6"/>
-      <c r="AB53" t="str">
-        <f t="shared" si="1"/>
+      <c r="AC53" t="str">
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="54" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>99</v>
+        <v>72</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="N54">
-        <v>1</v>
+        <v>38</v>
+      </c>
+      <c r="N54" t="s">
+        <v>125</v>
       </c>
       <c r="S54" t="s">
-        <v>133</v>
+        <v>117</v>
       </c>
       <c r="U54" s="6"/>
       <c r="W54" t="str" cm="1">
-        <f t="array" ref="W54">_xlfn.TEXTJOIN("", TRUE, IF(C54:Q54="", "0", C54:Q54))</f>
-        <v>000000000001000</v>
+        <f t="array" ref="W54">_xlfn.TEXTJOIN("", TRUE, IF(C54:M54="", "0", C54:M54))</f>
+        <v>00000000000</v>
       </c>
       <c r="X54" t="str">
-        <f>DEC2BIN(VLOOKUP(表格2[[#This Row],[ALUOP]],$R$2:$S$17,2,FALSE),4)</f>
-        <v>0101</v>
-      </c>
-      <c r="Y54" t="str">
-        <f>_xlfn.TEXTJOIN("", TRUE, IF(表格2[[#This Row],[SHIFT_V]]="", "0", 表格2[[#This Row],[SHIFT_V]]))</f>
-        <v>0</v>
+        <f>DEC2BIN(VLOOKUP(表格2[[#This Row],[BRANCH]],$N$4:$O$10,2,FALSE),3)</f>
+        <v>101</v>
+      </c>
+      <c r="Y54" t="str" cm="1">
+        <f t="array" ref="Y54">_xlfn.TEXTJOIN("", TRUE, IF(表格2[[#This Row],[JUMP]:[return]]="", "0",表格2[[#This Row],[JUMP]:[return]]))</f>
+        <v>000</v>
       </c>
       <c r="Z54" t="str">
-        <f>_xlfn.TEXTJOIN("",TRUE,IF(表格2[[#This Row],[DATA_TYPE]]="","00",DEC2BIN(表格2[[#This Row],[DATA_TYPE]],2)))</f>
-        <v>00</v>
+        <f>DEC2BIN(VLOOKUP(表格2[[#This Row],[ALUOP]],$R$2:$S$15,2,FALSE),4)</f>
+        <v>1101</v>
+      </c>
+      <c r="AA54" t="str">
+        <f>_xlfn.TEXTJOIN("", TRUE, IF(表格2[[#This Row],[SHIFT_V]]="", "0",表格2[[#This Row],[SHIFT_V]] ))</f>
+        <v>0</v>
       </c>
       <c r="AB54" t="str">
-        <f t="shared" si="1"/>
-        <v>0000000000010000101000</v>
-      </c>
-    </row>
-    <row r="55" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="B55" s="4"/>
+        <f>DEC2BIN(IF(表格2[[#This Row],[DATA_TYPE]]="",0,表格2[[#This Row],[DATA_TYPE]]),3)</f>
+        <v>000</v>
+      </c>
+      <c r="AC54" t="str">
+        <f t="shared" si="0"/>
+        <v>0000000000010100011010000</v>
+      </c>
+    </row>
+    <row r="55" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="B55" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="N55" t="s">
+        <v>126</v>
+      </c>
+      <c r="S55" t="s">
+        <v>117</v>
+      </c>
       <c r="U55" s="6"/>
+      <c r="W55" t="str" cm="1">
+        <f t="array" ref="W55">_xlfn.TEXTJOIN("", TRUE, IF(C55:M55="", "0", C55:M55))</f>
+        <v>00000000000</v>
+      </c>
+      <c r="X55" t="str">
+        <f>DEC2BIN(VLOOKUP(表格2[[#This Row],[BRANCH]],$N$4:$O$10,2,FALSE),3)</f>
+        <v>110</v>
+      </c>
+      <c r="Y55" t="str" cm="1">
+        <f t="array" ref="Y55">_xlfn.TEXTJOIN("", TRUE, IF(表格2[[#This Row],[JUMP]:[return]]="", "0",表格2[[#This Row],[JUMP]:[return]]))</f>
+        <v>000</v>
+      </c>
+      <c r="Z55" t="str">
+        <f>DEC2BIN(VLOOKUP(表格2[[#This Row],[ALUOP]],$R$2:$S$15,2,FALSE),4)</f>
+        <v>1101</v>
+      </c>
+      <c r="AA55" t="str">
+        <f>_xlfn.TEXTJOIN("", TRUE, IF(表格2[[#This Row],[SHIFT_V]]="", "0",表格2[[#This Row],[SHIFT_V]] ))</f>
+        <v>0</v>
+      </c>
       <c r="AB55" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="56" spans="1:28" x14ac:dyDescent="0.3">
+        <f>DEC2BIN(IF(表格2[[#This Row],[DATA_TYPE]]="",0,表格2[[#This Row],[DATA_TYPE]]),3)</f>
+        <v>000</v>
+      </c>
+      <c r="AC55" t="str">
+        <f t="shared" si="0"/>
+        <v>0000000000011000011010000</v>
+      </c>
+    </row>
+    <row r="56" spans="1:29" x14ac:dyDescent="0.3">
       <c r="B56" s="4"/>
       <c r="U56" s="6"/>
-      <c r="AB56" t="str">
-        <f t="shared" si="1"/>
+      <c r="AC56" t="str">
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="57" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:29" x14ac:dyDescent="0.3">
       <c r="B57" s="4"/>
       <c r="U57" s="6"/>
-      <c r="AB57" t="str">
-        <f t="shared" si="1"/>
+      <c r="AC57" t="str">
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="58" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:29" x14ac:dyDescent="0.3">
       <c r="B58" s="4"/>
       <c r="U58" s="6"/>
-      <c r="AB58" t="str">
-        <f t="shared" si="1"/>
+      <c r="AC58" t="str">
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="59" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>118</v>
+        <v>91</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>66</v>
+        <v>39</v>
       </c>
       <c r="H59">
         <v>1</v>
@@ -2446,34 +2779,45 @@
       <c r="K59">
         <v>1</v>
       </c>
+      <c r="N59" t="s">
+        <v>120</v>
+      </c>
       <c r="S59" t="s">
-        <v>145</v>
+        <v>114</v>
       </c>
       <c r="U59" s="6"/>
       <c r="W59" t="str" cm="1">
-        <f t="array" ref="W59">_xlfn.TEXTJOIN("", TRUE, IF(C59:Q59="", "0", C59:Q59))</f>
-        <v>000001001000000</v>
+        <f t="array" ref="W59">_xlfn.TEXTJOIN("", TRUE, IF(C59:M59="", "0", C59:M59))</f>
+        <v>00000100100</v>
       </c>
       <c r="X59" t="str">
-        <f>DEC2BIN(VLOOKUP(表格2[[#This Row],[ALUOP]],$R$2:$S$17,2,FALSE),4)</f>
-        <v>1101</v>
-      </c>
-      <c r="Y59" t="str">
-        <f>_xlfn.TEXTJOIN("", TRUE, IF(表格2[[#This Row],[SHIFT_V]]="", "0", 表格2[[#This Row],[SHIFT_V]]))</f>
-        <v>0</v>
+        <f>DEC2BIN(VLOOKUP(表格2[[#This Row],[BRANCH]],$N$4:$O$10,2,FALSE),3)</f>
+        <v>000</v>
+      </c>
+      <c r="Y59" t="str" cm="1">
+        <f t="array" ref="Y59">_xlfn.TEXTJOIN("", TRUE, IF(表格2[[#This Row],[JUMP]:[return]]="", "0",表格2[[#This Row],[JUMP]:[return]]))</f>
+        <v>000</v>
       </c>
       <c r="Z59" t="str">
-        <f>_xlfn.TEXTJOIN("",TRUE,IF(表格2[[#This Row],[DATA_TYPE]]="","00",DEC2BIN(表格2[[#This Row],[DATA_TYPE]],2)))</f>
-        <v>00</v>
+        <f>DEC2BIN(VLOOKUP(表格2[[#This Row],[ALUOP]],$R$2:$S$15,2,FALSE),4)</f>
+        <v>0111</v>
+      </c>
+      <c r="AA59" t="str">
+        <f>_xlfn.TEXTJOIN("", TRUE, IF(表格2[[#This Row],[SHIFT_V]]="", "0",表格2[[#This Row],[SHIFT_V]] ))</f>
+        <v>0</v>
       </c>
       <c r="AB59" t="str">
-        <f t="shared" si="1"/>
-        <v>0000010010000001101000</v>
-      </c>
-    </row>
-    <row r="60" spans="1:28" x14ac:dyDescent="0.3">
+        <f>DEC2BIN(IF(表格2[[#This Row],[DATA_TYPE]]="",0,表格2[[#This Row],[DATA_TYPE]]),3)</f>
+        <v>000</v>
+      </c>
+      <c r="AC59" t="str">
+        <f t="shared" si="0"/>
+        <v>0000010010000000001110000</v>
+      </c>
+    </row>
+    <row r="60" spans="1:29" x14ac:dyDescent="0.3">
       <c r="B60" s="4" t="s">
-        <v>67</v>
+        <v>40</v>
       </c>
       <c r="H60">
         <v>1</v>
@@ -2481,34 +2825,45 @@
       <c r="K60">
         <v>1</v>
       </c>
+      <c r="N60" t="s">
+        <v>120</v>
+      </c>
       <c r="S60" t="s">
-        <v>144</v>
+        <v>113</v>
       </c>
       <c r="U60" s="6"/>
       <c r="W60" t="str" cm="1">
-        <f t="array" ref="W60">_xlfn.TEXTJOIN("", TRUE, IF(C60:Q60="", "0", C60:Q60))</f>
-        <v>000001001000000</v>
+        <f t="array" ref="W60">_xlfn.TEXTJOIN("", TRUE, IF(C60:M60="", "0", C60:M60))</f>
+        <v>00000100100</v>
       </c>
       <c r="X60" t="str">
-        <f>DEC2BIN(VLOOKUP(表格2[[#This Row],[ALUOP]],$R$2:$S$17,2,FALSE),4)</f>
-        <v>1011</v>
-      </c>
-      <c r="Y60" t="str">
-        <f>_xlfn.TEXTJOIN("", TRUE, IF(表格2[[#This Row],[SHIFT_V]]="", "0", 表格2[[#This Row],[SHIFT_V]]))</f>
-        <v>0</v>
+        <f>DEC2BIN(VLOOKUP(表格2[[#This Row],[BRANCH]],$N$4:$O$10,2,FALSE),3)</f>
+        <v>000</v>
+      </c>
+      <c r="Y60" t="str" cm="1">
+        <f t="array" ref="Y60">_xlfn.TEXTJOIN("", TRUE, IF(表格2[[#This Row],[JUMP]:[return]]="", "0",表格2[[#This Row],[JUMP]:[return]]))</f>
+        <v>000</v>
       </c>
       <c r="Z60" t="str">
-        <f>_xlfn.TEXTJOIN("",TRUE,IF(表格2[[#This Row],[DATA_TYPE]]="","00",DEC2BIN(表格2[[#This Row],[DATA_TYPE]],2)))</f>
-        <v>00</v>
+        <f>DEC2BIN(VLOOKUP(表格2[[#This Row],[ALUOP]],$R$2:$S$15,2,FALSE),4)</f>
+        <v>1000</v>
+      </c>
+      <c r="AA60" t="str">
+        <f>_xlfn.TEXTJOIN("", TRUE, IF(表格2[[#This Row],[SHIFT_V]]="", "0",表格2[[#This Row],[SHIFT_V]] ))</f>
+        <v>0</v>
       </c>
       <c r="AB60" t="str">
-        <f t="shared" si="1"/>
-        <v>0000010010000001011000</v>
-      </c>
-    </row>
-    <row r="61" spans="1:28" x14ac:dyDescent="0.3">
+        <f>DEC2BIN(IF(表格2[[#This Row],[DATA_TYPE]]="",0,表格2[[#This Row],[DATA_TYPE]]),3)</f>
+        <v>000</v>
+      </c>
+      <c r="AC60" t="str">
+        <f t="shared" si="0"/>
+        <v>0000010010000000010000000</v>
+      </c>
+    </row>
+    <row r="61" spans="1:29" x14ac:dyDescent="0.3">
       <c r="B61" s="4" t="s">
-        <v>68</v>
+        <v>41</v>
       </c>
       <c r="H61">
         <v>1</v>
@@ -2516,34 +2871,45 @@
       <c r="K61">
         <v>1</v>
       </c>
+      <c r="N61" t="s">
+        <v>120</v>
+      </c>
       <c r="S61" t="s">
-        <v>143</v>
+        <v>112</v>
       </c>
       <c r="U61" s="6"/>
       <c r="W61" t="str" cm="1">
-        <f t="array" ref="W61">_xlfn.TEXTJOIN("", TRUE, IF(C61:Q61="", "0", C61:Q61))</f>
-        <v>000001001000000</v>
+        <f t="array" ref="W61">_xlfn.TEXTJOIN("", TRUE, IF(C61:M61="", "0", C61:M61))</f>
+        <v>00000100100</v>
       </c>
       <c r="X61" t="str">
-        <f>DEC2BIN(VLOOKUP(表格2[[#This Row],[ALUOP]],$R$2:$S$17,2,FALSE),4)</f>
-        <v>1100</v>
-      </c>
-      <c r="Y61" t="str">
-        <f>_xlfn.TEXTJOIN("", TRUE, IF(表格2[[#This Row],[SHIFT_V]]="", "0", 表格2[[#This Row],[SHIFT_V]]))</f>
-        <v>0</v>
+        <f>DEC2BIN(VLOOKUP(表格2[[#This Row],[BRANCH]],$N$4:$O$10,2,FALSE),3)</f>
+        <v>000</v>
+      </c>
+      <c r="Y61" t="str" cm="1">
+        <f t="array" ref="Y61">_xlfn.TEXTJOIN("", TRUE, IF(表格2[[#This Row],[JUMP]:[return]]="", "0",表格2[[#This Row],[JUMP]:[return]]))</f>
+        <v>000</v>
       </c>
       <c r="Z61" t="str">
-        <f>_xlfn.TEXTJOIN("",TRUE,IF(表格2[[#This Row],[DATA_TYPE]]="","00",DEC2BIN(表格2[[#This Row],[DATA_TYPE]],2)))</f>
-        <v>00</v>
+        <f>DEC2BIN(VLOOKUP(表格2[[#This Row],[ALUOP]],$R$2:$S$15,2,FALSE),4)</f>
+        <v>1001</v>
+      </c>
+      <c r="AA61" t="str">
+        <f>_xlfn.TEXTJOIN("", TRUE, IF(表格2[[#This Row],[SHIFT_V]]="", "0",表格2[[#This Row],[SHIFT_V]] ))</f>
+        <v>0</v>
       </c>
       <c r="AB61" t="str">
-        <f t="shared" si="1"/>
-        <v>0000010010000001100000</v>
-      </c>
-    </row>
-    <row r="62" spans="1:28" x14ac:dyDescent="0.3">
+        <f>DEC2BIN(IF(表格2[[#This Row],[DATA_TYPE]]="",0,表格2[[#This Row],[DATA_TYPE]]),3)</f>
+        <v>000</v>
+      </c>
+      <c r="AC61" t="str">
+        <f t="shared" si="0"/>
+        <v>0000010010000000010010000</v>
+      </c>
+    </row>
+    <row r="62" spans="1:29" x14ac:dyDescent="0.3">
       <c r="B62" s="4" t="s">
-        <v>69</v>
+        <v>42</v>
       </c>
       <c r="H62">
         <v>1</v>
@@ -2551,37 +2917,48 @@
       <c r="K62">
         <v>1</v>
       </c>
+      <c r="N62" t="s">
+        <v>120</v>
+      </c>
       <c r="S62" t="s">
-        <v>145</v>
+        <v>114</v>
       </c>
       <c r="T62">
         <v>1</v>
       </c>
       <c r="U62" s="6"/>
       <c r="W62" t="str" cm="1">
-        <f t="array" ref="W62">_xlfn.TEXTJOIN("", TRUE, IF(C62:Q62="", "0", C62:Q62))</f>
-        <v>000001001000000</v>
+        <f t="array" ref="W62">_xlfn.TEXTJOIN("", TRUE, IF(C62:M62="", "0", C62:M62))</f>
+        <v>00000100100</v>
       </c>
       <c r="X62" t="str">
-        <f>DEC2BIN(VLOOKUP(表格2[[#This Row],[ALUOP]],$R$2:$S$17,2,FALSE),4)</f>
-        <v>1101</v>
-      </c>
-      <c r="Y62" t="str">
-        <f>_xlfn.TEXTJOIN("", TRUE, IF(表格2[[#This Row],[SHIFT_V]]="", "0", 表格2[[#This Row],[SHIFT_V]]))</f>
-        <v>1</v>
+        <f>DEC2BIN(VLOOKUP(表格2[[#This Row],[BRANCH]],$N$4:$O$10,2,FALSE),3)</f>
+        <v>000</v>
+      </c>
+      <c r="Y62" t="str" cm="1">
+        <f t="array" ref="Y62">_xlfn.TEXTJOIN("", TRUE, IF(表格2[[#This Row],[JUMP]:[return]]="", "0",表格2[[#This Row],[JUMP]:[return]]))</f>
+        <v>000</v>
       </c>
       <c r="Z62" t="str">
-        <f>_xlfn.TEXTJOIN("",TRUE,IF(表格2[[#This Row],[DATA_TYPE]]="","00",DEC2BIN(表格2[[#This Row],[DATA_TYPE]],2)))</f>
-        <v>00</v>
+        <f>DEC2BIN(VLOOKUP(表格2[[#This Row],[ALUOP]],$R$2:$S$15,2,FALSE),4)</f>
+        <v>0111</v>
+      </c>
+      <c r="AA62" t="str">
+        <f>_xlfn.TEXTJOIN("", TRUE, IF(表格2[[#This Row],[SHIFT_V]]="", "0",表格2[[#This Row],[SHIFT_V]] ))</f>
+        <v>1</v>
       </c>
       <c r="AB62" t="str">
-        <f t="shared" si="1"/>
-        <v>0000010010000001101100</v>
-      </c>
-    </row>
-    <row r="63" spans="1:28" x14ac:dyDescent="0.3">
+        <f>DEC2BIN(IF(表格2[[#This Row],[DATA_TYPE]]="",0,表格2[[#This Row],[DATA_TYPE]]),3)</f>
+        <v>000</v>
+      </c>
+      <c r="AC62" t="str">
+        <f t="shared" si="0"/>
+        <v>0000010010000000001111000</v>
+      </c>
+    </row>
+    <row r="63" spans="1:29" x14ac:dyDescent="0.3">
       <c r="B63" s="4" t="s">
-        <v>70</v>
+        <v>43</v>
       </c>
       <c r="H63">
         <v>1</v>
@@ -2589,37 +2966,48 @@
       <c r="K63">
         <v>1</v>
       </c>
+      <c r="N63" t="s">
+        <v>120</v>
+      </c>
       <c r="S63" t="s">
-        <v>144</v>
+        <v>113</v>
       </c>
       <c r="T63">
         <v>1</v>
       </c>
       <c r="U63" s="6"/>
       <c r="W63" t="str" cm="1">
-        <f t="array" ref="W63">_xlfn.TEXTJOIN("", TRUE, IF(C63:Q63="", "0", C63:Q63))</f>
-        <v>000001001000000</v>
+        <f t="array" ref="W63">_xlfn.TEXTJOIN("", TRUE, IF(C63:M63="", "0", C63:M63))</f>
+        <v>00000100100</v>
       </c>
       <c r="X63" t="str">
-        <f>DEC2BIN(VLOOKUP(表格2[[#This Row],[ALUOP]],$R$2:$S$17,2,FALSE),4)</f>
-        <v>1011</v>
-      </c>
-      <c r="Y63" t="str">
-        <f>_xlfn.TEXTJOIN("", TRUE, IF(表格2[[#This Row],[SHIFT_V]]="", "0", 表格2[[#This Row],[SHIFT_V]]))</f>
-        <v>1</v>
+        <f>DEC2BIN(VLOOKUP(表格2[[#This Row],[BRANCH]],$N$4:$O$10,2,FALSE),3)</f>
+        <v>000</v>
+      </c>
+      <c r="Y63" t="str" cm="1">
+        <f t="array" ref="Y63">_xlfn.TEXTJOIN("", TRUE, IF(表格2[[#This Row],[JUMP]:[return]]="", "0",表格2[[#This Row],[JUMP]:[return]]))</f>
+        <v>000</v>
       </c>
       <c r="Z63" t="str">
-        <f>_xlfn.TEXTJOIN("",TRUE,IF(表格2[[#This Row],[DATA_TYPE]]="","00",DEC2BIN(表格2[[#This Row],[DATA_TYPE]],2)))</f>
-        <v>00</v>
+        <f>DEC2BIN(VLOOKUP(表格2[[#This Row],[ALUOP]],$R$2:$S$15,2,FALSE),4)</f>
+        <v>1000</v>
+      </c>
+      <c r="AA63" t="str">
+        <f>_xlfn.TEXTJOIN("", TRUE, IF(表格2[[#This Row],[SHIFT_V]]="", "0",表格2[[#This Row],[SHIFT_V]] ))</f>
+        <v>1</v>
       </c>
       <c r="AB63" t="str">
-        <f t="shared" si="1"/>
-        <v>0000010010000001011100</v>
-      </c>
-    </row>
-    <row r="64" spans="1:28" x14ac:dyDescent="0.3">
+        <f>DEC2BIN(IF(表格2[[#This Row],[DATA_TYPE]]="",0,表格2[[#This Row],[DATA_TYPE]]),3)</f>
+        <v>000</v>
+      </c>
+      <c r="AC63" t="str">
+        <f t="shared" si="0"/>
+        <v>0000010010000000010001000</v>
+      </c>
+    </row>
+    <row r="64" spans="1:29" x14ac:dyDescent="0.3">
       <c r="B64" s="4" t="s">
-        <v>71</v>
+        <v>44</v>
       </c>
       <c r="H64">
         <v>1</v>
@@ -2627,72 +3015,97 @@
       <c r="K64">
         <v>1</v>
       </c>
+      <c r="N64" t="s">
+        <v>120</v>
+      </c>
       <c r="S64" t="s">
-        <v>143</v>
+        <v>112</v>
       </c>
       <c r="T64">
         <v>1</v>
       </c>
       <c r="U64" s="6"/>
       <c r="W64" t="str" cm="1">
-        <f t="array" ref="W64">_xlfn.TEXTJOIN("", TRUE, IF(C64:Q64="", "0", C64:Q64))</f>
-        <v>000001001000000</v>
+        <f t="array" ref="W64">_xlfn.TEXTJOIN("", TRUE, IF(C64:M64="", "0", C64:M64))</f>
+        <v>00000100100</v>
       </c>
       <c r="X64" t="str">
-        <f>DEC2BIN(VLOOKUP(表格2[[#This Row],[ALUOP]],$R$2:$S$17,2,FALSE),4)</f>
-        <v>1100</v>
-      </c>
-      <c r="Y64" t="str">
-        <f>_xlfn.TEXTJOIN("", TRUE, IF(表格2[[#This Row],[SHIFT_V]]="", "0", 表格2[[#This Row],[SHIFT_V]]))</f>
-        <v>1</v>
+        <f>DEC2BIN(VLOOKUP(表格2[[#This Row],[BRANCH]],$N$4:$O$10,2,FALSE),3)</f>
+        <v>000</v>
+      </c>
+      <c r="Y64" t="str" cm="1">
+        <f t="array" ref="Y64">_xlfn.TEXTJOIN("", TRUE, IF(表格2[[#This Row],[JUMP]:[return]]="", "0",表格2[[#This Row],[JUMP]:[return]]))</f>
+        <v>000</v>
       </c>
       <c r="Z64" t="str">
-        <f>_xlfn.TEXTJOIN("",TRUE,IF(表格2[[#This Row],[DATA_TYPE]]="","00",DEC2BIN(表格2[[#This Row],[DATA_TYPE]],2)))</f>
-        <v>00</v>
+        <f>DEC2BIN(VLOOKUP(表格2[[#This Row],[ALUOP]],$R$2:$S$15,2,FALSE),4)</f>
+        <v>1001</v>
+      </c>
+      <c r="AA64" t="str">
+        <f>_xlfn.TEXTJOIN("", TRUE, IF(表格2[[#This Row],[SHIFT_V]]="", "0",表格2[[#This Row],[SHIFT_V]] ))</f>
+        <v>1</v>
       </c>
       <c r="AB64" t="str">
-        <f t="shared" si="1"/>
-        <v>0000010010000001100100</v>
-      </c>
-    </row>
-    <row r="65" spans="1:28" x14ac:dyDescent="0.3">
+        <f>DEC2BIN(IF(表格2[[#This Row],[DATA_TYPE]]="",0,表格2[[#This Row],[DATA_TYPE]]),3)</f>
+        <v>000</v>
+      </c>
+      <c r="AC64" t="str">
+        <f t="shared" si="0"/>
+        <v>0000010010000000010011000</v>
+      </c>
+    </row>
+    <row r="65" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>119</v>
+        <v>92</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>72</v>
+        <v>45</v>
+      </c>
+      <c r="N65" t="s">
+        <v>120</v>
       </c>
       <c r="O65">
         <v>1</v>
       </c>
       <c r="Q65">
         <v>1</v>
+      </c>
+      <c r="S65" t="s">
+        <v>116</v>
       </c>
       <c r="U65" s="6"/>
       <c r="W65" t="str" cm="1">
-        <f t="array" ref="W65">_xlfn.TEXTJOIN("", TRUE, IF(C65:Q65="", "0", C65:Q65))</f>
-        <v>000000000000101</v>
+        <f t="array" ref="W65">_xlfn.TEXTJOIN("", TRUE, IF(C65:M65="", "0", C65:M65))</f>
+        <v>00000000000</v>
       </c>
       <c r="X65" t="str">
-        <f>DEC2BIN(0,4)</f>
-        <v>0000</v>
-      </c>
-      <c r="Y65" t="str">
-        <f>_xlfn.TEXTJOIN("", TRUE, IF(表格2[[#This Row],[SHIFT_V]]="", "0", 表格2[[#This Row],[SHIFT_V]]))</f>
-        <v>0</v>
+        <f>DEC2BIN(VLOOKUP(表格2[[#This Row],[BRANCH]],$N$4:$O$10,2,FALSE),3)</f>
+        <v>000</v>
+      </c>
+      <c r="Y65" t="str" cm="1">
+        <f t="array" ref="Y65">_xlfn.TEXTJOIN("", TRUE, IF(表格2[[#This Row],[JUMP]:[return]]="", "0",表格2[[#This Row],[JUMP]:[return]]))</f>
+        <v>101</v>
       </c>
       <c r="Z65" t="str">
-        <f>_xlfn.TEXTJOIN("",TRUE,IF(表格2[[#This Row],[DATA_TYPE]]="","00",DEC2BIN(表格2[[#This Row],[DATA_TYPE]],2)))</f>
-        <v>00</v>
+        <f>DEC2BIN(VLOOKUP(表格2[[#This Row],[ALUOP]],$R$2:$S$15,2,FALSE),4)</f>
+        <v>1101</v>
+      </c>
+      <c r="AA65" t="str">
+        <f>_xlfn.TEXTJOIN("", TRUE, IF(表格2[[#This Row],[SHIFT_V]]="", "0",表格2[[#This Row],[SHIFT_V]] ))</f>
+        <v>0</v>
       </c>
       <c r="AB65" t="str">
-        <f t="shared" si="1"/>
-        <v>0000000000001010000000</v>
-      </c>
-    </row>
-    <row r="66" spans="1:28" x14ac:dyDescent="0.3">
+        <f>DEC2BIN(IF(表格2[[#This Row],[DATA_TYPE]]="",0,表格2[[#This Row],[DATA_TYPE]]),3)</f>
+        <v>000</v>
+      </c>
+      <c r="AC65" t="str">
+        <f t="shared" si="0"/>
+        <v>0000000000000010111010000</v>
+      </c>
+    </row>
+    <row r="66" spans="1:29" x14ac:dyDescent="0.3">
       <c r="B66" s="4" t="s">
-        <v>73</v>
+        <v>46</v>
       </c>
       <c r="H66">
         <v>1</v>
@@ -2700,6 +3113,9 @@
       <c r="K66">
         <v>1</v>
       </c>
+      <c r="N66" t="s">
+        <v>120</v>
+      </c>
       <c r="O66">
         <v>1</v>
       </c>
@@ -2708,99 +3124,138 @@
       </c>
       <c r="Q66">
         <v>1</v>
+      </c>
+      <c r="S66" t="s">
+        <v>116</v>
       </c>
       <c r="U66" s="6"/>
       <c r="W66" t="str" cm="1">
-        <f t="array" ref="W66">_xlfn.TEXTJOIN("", TRUE, IF(C66:Q66="", "0", C66:Q66))</f>
-        <v>000001001000111</v>
+        <f t="array" ref="W66">_xlfn.TEXTJOIN("", TRUE, IF(C66:M66="", "0", C66:M66))</f>
+        <v>00000100100</v>
       </c>
       <c r="X66" t="str">
-        <f t="shared" ref="X66:X70" si="2">DEC2BIN(0,4)</f>
-        <v>0000</v>
-      </c>
-      <c r="Y66" t="str">
-        <f>_xlfn.TEXTJOIN("", TRUE, IF(表格2[[#This Row],[SHIFT_V]]="", "0", 表格2[[#This Row],[SHIFT_V]]))</f>
-        <v>0</v>
+        <f>DEC2BIN(VLOOKUP(表格2[[#This Row],[BRANCH]],$N$4:$O$10,2,FALSE),3)</f>
+        <v>000</v>
+      </c>
+      <c r="Y66" t="str" cm="1">
+        <f t="array" ref="Y66">_xlfn.TEXTJOIN("", TRUE, IF(表格2[[#This Row],[JUMP]:[return]]="", "0",表格2[[#This Row],[JUMP]:[return]]))</f>
+        <v>111</v>
       </c>
       <c r="Z66" t="str">
-        <f>_xlfn.TEXTJOIN("",TRUE,IF(表格2[[#This Row],[DATA_TYPE]]="","00",DEC2BIN(表格2[[#This Row],[DATA_TYPE]],2)))</f>
-        <v>00</v>
+        <f>DEC2BIN(VLOOKUP(表格2[[#This Row],[ALUOP]],$R$2:$S$15,2,FALSE),4)</f>
+        <v>1101</v>
+      </c>
+      <c r="AA66" t="str">
+        <f>_xlfn.TEXTJOIN("", TRUE, IF(表格2[[#This Row],[SHIFT_V]]="", "0",表格2[[#This Row],[SHIFT_V]] ))</f>
+        <v>0</v>
       </c>
       <c r="AB66" t="str">
-        <f t="shared" si="1"/>
-        <v>0000010010001110000000</v>
-      </c>
-    </row>
-    <row r="67" spans="1:28" x14ac:dyDescent="0.3">
+        <f>DEC2BIN(IF(表格2[[#This Row],[DATA_TYPE]]="",0,表格2[[#This Row],[DATA_TYPE]]),3)</f>
+        <v>000</v>
+      </c>
+      <c r="AC66" t="str">
+        <f t="shared" si="0"/>
+        <v>0000010010000011111010000</v>
+      </c>
+    </row>
+    <row r="67" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
+        <v>93</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D67">
+        <v>1</v>
+      </c>
+      <c r="H67">
+        <v>1</v>
+      </c>
+      <c r="K67">
+        <v>1</v>
+      </c>
+      <c r="N67" t="s">
         <v>120</v>
       </c>
-      <c r="B67" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="D67">
-        <v>1</v>
-      </c>
-      <c r="H67">
-        <v>1</v>
-      </c>
-      <c r="K67">
-        <v>1</v>
+      <c r="S67" t="s">
+        <v>116</v>
       </c>
       <c r="U67" s="6"/>
       <c r="W67" t="str" cm="1">
-        <f t="array" ref="W67">_xlfn.TEXTJOIN("", TRUE, IF(C67:Q67="", "0", C67:Q67))</f>
-        <v>010001001000000</v>
+        <f t="array" ref="W67">_xlfn.TEXTJOIN("", TRUE, IF(C67:M67="", "0", C67:M67))</f>
+        <v>01000100100</v>
       </c>
       <c r="X67" t="str">
-        <f t="shared" si="2"/>
-        <v>0000</v>
-      </c>
-      <c r="Y67" t="str">
-        <f>_xlfn.TEXTJOIN("", TRUE, IF(表格2[[#This Row],[SHIFT_V]]="", "0", 表格2[[#This Row],[SHIFT_V]]))</f>
-        <v>0</v>
+        <f>DEC2BIN(VLOOKUP(表格2[[#This Row],[BRANCH]],$N$4:$O$10,2,FALSE),3)</f>
+        <v>000</v>
+      </c>
+      <c r="Y67" t="str" cm="1">
+        <f t="array" ref="Y67">_xlfn.TEXTJOIN("", TRUE, IF(表格2[[#This Row],[JUMP]:[return]]="", "0",表格2[[#This Row],[JUMP]:[return]]))</f>
+        <v>000</v>
       </c>
       <c r="Z67" t="str">
-        <f>_xlfn.TEXTJOIN("",TRUE,IF(表格2[[#This Row],[DATA_TYPE]]="","00",DEC2BIN(表格2[[#This Row],[DATA_TYPE]],2)))</f>
-        <v>00</v>
+        <f>DEC2BIN(VLOOKUP(表格2[[#This Row],[ALUOP]],$R$2:$S$15,2,FALSE),4)</f>
+        <v>1101</v>
+      </c>
+      <c r="AA67" t="str">
+        <f>_xlfn.TEXTJOIN("", TRUE, IF(表格2[[#This Row],[SHIFT_V]]="", "0",表格2[[#This Row],[SHIFT_V]] ))</f>
+        <v>0</v>
       </c>
       <c r="AB67" t="str">
-        <f t="shared" si="1"/>
-        <v>0100010010000000000000</v>
-      </c>
-    </row>
-    <row r="68" spans="1:28" x14ac:dyDescent="0.3">
+        <f>DEC2BIN(IF(表格2[[#This Row],[DATA_TYPE]]="",0,表格2[[#This Row],[DATA_TYPE]]),3)</f>
+        <v>000</v>
+      </c>
+      <c r="AC67" t="str">
+        <f t="shared" si="0"/>
+        <v>0100010010000000011010000</v>
+      </c>
+    </row>
+    <row r="68" spans="1:29" x14ac:dyDescent="0.3">
       <c r="B68" s="4" t="s">
-        <v>75</v>
+        <v>48</v>
       </c>
       <c r="C68">
         <v>1</v>
+      </c>
+      <c r="N68" t="s">
+        <v>120</v>
+      </c>
+      <c r="S68" t="s">
+        <v>116</v>
       </c>
       <c r="U68" s="6"/>
       <c r="W68" t="str" cm="1">
-        <f t="array" ref="W68">_xlfn.TEXTJOIN("", TRUE, IF(C68:Q68="", "0", C68:Q68))</f>
-        <v>100000000000000</v>
+        <f t="array" ref="W68">_xlfn.TEXTJOIN("", TRUE, IF(C68:M68="", "0", C68:M68))</f>
+        <v>10000000000</v>
       </c>
       <c r="X68" t="str">
-        <f t="shared" si="2"/>
-        <v>0000</v>
-      </c>
-      <c r="Y68" t="str">
-        <f>_xlfn.TEXTJOIN("", TRUE, IF(表格2[[#This Row],[SHIFT_V]]="", "0", 表格2[[#This Row],[SHIFT_V]]))</f>
-        <v>0</v>
+        <f>DEC2BIN(VLOOKUP(表格2[[#This Row],[BRANCH]],$N$4:$O$10,2,FALSE),3)</f>
+        <v>000</v>
+      </c>
+      <c r="Y68" t="str" cm="1">
+        <f t="array" ref="Y68">_xlfn.TEXTJOIN("", TRUE, IF(表格2[[#This Row],[JUMP]:[return]]="", "0",表格2[[#This Row],[JUMP]:[return]]))</f>
+        <v>000</v>
       </c>
       <c r="Z68" t="str">
-        <f>_xlfn.TEXTJOIN("",TRUE,IF(表格2[[#This Row],[DATA_TYPE]]="","00",DEC2BIN(表格2[[#This Row],[DATA_TYPE]],2)))</f>
-        <v>00</v>
+        <f>DEC2BIN(VLOOKUP(表格2[[#This Row],[ALUOP]],$R$2:$S$15,2,FALSE),4)</f>
+        <v>1101</v>
+      </c>
+      <c r="AA68" t="str">
+        <f>_xlfn.TEXTJOIN("", TRUE, IF(表格2[[#This Row],[SHIFT_V]]="", "0",表格2[[#This Row],[SHIFT_V]] ))</f>
+        <v>0</v>
       </c>
       <c r="AB68" t="str">
-        <f t="shared" si="1"/>
-        <v>1000000000000000000000</v>
-      </c>
-    </row>
-    <row r="69" spans="1:28" x14ac:dyDescent="0.3">
+        <f>DEC2BIN(IF(表格2[[#This Row],[DATA_TYPE]]="",0,表格2[[#This Row],[DATA_TYPE]]),3)</f>
+        <v>000</v>
+      </c>
+      <c r="AC68" t="str">
+        <f t="shared" si="0"/>
+        <v>1000000000000000011010000</v>
+      </c>
+    </row>
+    <row r="69" spans="1:29" x14ac:dyDescent="0.3">
       <c r="B69" s="4" t="s">
-        <v>76</v>
+        <v>49</v>
       </c>
       <c r="F69">
         <v>1</v>
@@ -2810,64 +3265,92 @@
       </c>
       <c r="K69">
         <v>1</v>
+      </c>
+      <c r="N69" t="s">
+        <v>120</v>
+      </c>
+      <c r="S69" t="s">
+        <v>116</v>
       </c>
       <c r="U69" s="6"/>
       <c r="W69" t="str" cm="1">
-        <f t="array" ref="W69">_xlfn.TEXTJOIN("", TRUE, IF(C69:Q69="", "0", C69:Q69))</f>
-        <v>000101001000000</v>
+        <f t="array" ref="W69">_xlfn.TEXTJOIN("", TRUE, IF(C69:M69="", "0", C69:M69))</f>
+        <v>00010100100</v>
       </c>
       <c r="X69" t="str">
-        <f t="shared" si="2"/>
-        <v>0000</v>
-      </c>
-      <c r="Y69" t="str">
-        <f>_xlfn.TEXTJOIN("", TRUE, IF(表格2[[#This Row],[SHIFT_V]]="", "0", 表格2[[#This Row],[SHIFT_V]]))</f>
-        <v>0</v>
+        <f>DEC2BIN(VLOOKUP(表格2[[#This Row],[BRANCH]],$N$4:$O$10,2,FALSE),3)</f>
+        <v>000</v>
+      </c>
+      <c r="Y69" t="str" cm="1">
+        <f t="array" ref="Y69">_xlfn.TEXTJOIN("", TRUE, IF(表格2[[#This Row],[JUMP]:[return]]="", "0",表格2[[#This Row],[JUMP]:[return]]))</f>
+        <v>000</v>
       </c>
       <c r="Z69" t="str">
-        <f>_xlfn.TEXTJOIN("",TRUE,IF(表格2[[#This Row],[DATA_TYPE]]="","00",DEC2BIN(表格2[[#This Row],[DATA_TYPE]],2)))</f>
-        <v>00</v>
+        <f>DEC2BIN(VLOOKUP(表格2[[#This Row],[ALUOP]],$R$2:$S$15,2,FALSE),4)</f>
+        <v>1101</v>
+      </c>
+      <c r="AA69" t="str">
+        <f>_xlfn.TEXTJOIN("", TRUE, IF(表格2[[#This Row],[SHIFT_V]]="", "0",表格2[[#This Row],[SHIFT_V]] ))</f>
+        <v>0</v>
       </c>
       <c r="AB69" t="str">
-        <f t="shared" si="1"/>
-        <v>0001010010000000000000</v>
-      </c>
-    </row>
-    <row r="70" spans="1:28" x14ac:dyDescent="0.3">
+        <f>DEC2BIN(IF(表格2[[#This Row],[DATA_TYPE]]="",0,表格2[[#This Row],[DATA_TYPE]]),3)</f>
+        <v>000</v>
+      </c>
+      <c r="AC69" t="str">
+        <f t="shared" si="0"/>
+        <v>0001010010000000011010000</v>
+      </c>
+    </row>
+    <row r="70" spans="1:29" x14ac:dyDescent="0.3">
       <c r="B70" s="4" t="s">
-        <v>77</v>
+        <v>50</v>
       </c>
       <c r="E70">
         <v>1</v>
+      </c>
+      <c r="N70" t="s">
+        <v>120</v>
+      </c>
+      <c r="S70" t="s">
+        <v>116</v>
       </c>
       <c r="U70" s="6"/>
       <c r="W70" t="str" cm="1">
-        <f t="array" ref="W70">_xlfn.TEXTJOIN("", TRUE, IF(C70:Q70="", "0", C70:Q70))</f>
-        <v>001000000000000</v>
+        <f t="array" ref="W70">_xlfn.TEXTJOIN("", TRUE, IF(C70:M70="", "0", C70:M70))</f>
+        <v>00100000000</v>
       </c>
       <c r="X70" t="str">
-        <f t="shared" si="2"/>
-        <v>0000</v>
-      </c>
-      <c r="Y70" t="str">
-        <f>_xlfn.TEXTJOIN("", TRUE, IF(表格2[[#This Row],[SHIFT_V]]="", "0", 表格2[[#This Row],[SHIFT_V]]))</f>
-        <v>0</v>
+        <f>DEC2BIN(VLOOKUP(表格2[[#This Row],[BRANCH]],$N$4:$O$10,2,FALSE),3)</f>
+        <v>000</v>
+      </c>
+      <c r="Y70" t="str" cm="1">
+        <f t="array" ref="Y70">_xlfn.TEXTJOIN("", TRUE, IF(表格2[[#This Row],[JUMP]:[return]]="", "0",表格2[[#This Row],[JUMP]:[return]]))</f>
+        <v>000</v>
       </c>
       <c r="Z70" t="str">
-        <f>_xlfn.TEXTJOIN("",TRUE,IF(表格2[[#This Row],[DATA_TYPE]]="","00",DEC2BIN(表格2[[#This Row],[DATA_TYPE]],2)))</f>
-        <v>00</v>
+        <f>DEC2BIN(VLOOKUP(表格2[[#This Row],[ALUOP]],$R$2:$S$15,2,FALSE),4)</f>
+        <v>1101</v>
+      </c>
+      <c r="AA70" t="str">
+        <f>_xlfn.TEXTJOIN("", TRUE, IF(表格2[[#This Row],[SHIFT_V]]="", "0",表格2[[#This Row],[SHIFT_V]] ))</f>
+        <v>0</v>
       </c>
       <c r="AB70" t="str">
-        <f t="shared" si="1"/>
-        <v>0010000000000000000000</v>
-      </c>
-    </row>
-    <row r="71" spans="1:28" x14ac:dyDescent="0.3">
+        <f>DEC2BIN(IF(表格2[[#This Row],[DATA_TYPE]]="",0,表格2[[#This Row],[DATA_TYPE]]),3)</f>
+        <v>000</v>
+      </c>
+      <c r="AC70" t="str">
+        <f t="shared" si="0"/>
+        <v>0010000000000000011010000</v>
+      </c>
+    </row>
+    <row r="71" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>121</v>
+        <v>94</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>78</v>
+        <v>51</v>
       </c>
       <c r="C71">
         <v>1</v>
@@ -2878,34 +3361,45 @@
       <c r="H71">
         <v>1</v>
       </c>
+      <c r="N71" t="s">
+        <v>120</v>
+      </c>
       <c r="S71" t="s">
-        <v>130</v>
+        <v>101</v>
       </c>
       <c r="U71" s="6"/>
       <c r="W71" t="str" cm="1">
-        <f t="array" ref="W71">_xlfn.TEXTJOIN("", TRUE, IF(C71:Q71="", "0", C71:Q71))</f>
-        <v>101001000000000</v>
+        <f t="array" ref="W71">_xlfn.TEXTJOIN("", TRUE, IF(C71:M71="", "0", C71:M71))</f>
+        <v>10100100000</v>
       </c>
       <c r="X71" t="str">
-        <f>DEC2BIN(VLOOKUP(表格2[[#This Row],[ALUOP]],$R$2:$S$17,2,FALSE),4)</f>
-        <v>1110</v>
-      </c>
-      <c r="Y71" t="str">
-        <f>_xlfn.TEXTJOIN("", TRUE, IF(表格2[[#This Row],[SHIFT_V]]="", "0", 表格2[[#This Row],[SHIFT_V]]))</f>
-        <v>0</v>
+        <f>DEC2BIN(VLOOKUP(表格2[[#This Row],[BRANCH]],$N$4:$O$10,2,FALSE),3)</f>
+        <v>000</v>
+      </c>
+      <c r="Y71" t="str" cm="1">
+        <f t="array" ref="Y71">_xlfn.TEXTJOIN("", TRUE, IF(表格2[[#This Row],[JUMP]:[return]]="", "0",表格2[[#This Row],[JUMP]:[return]]))</f>
+        <v>000</v>
       </c>
       <c r="Z71" t="str">
-        <f>_xlfn.TEXTJOIN("",TRUE,IF(表格2[[#This Row],[DATA_TYPE]]="","00",DEC2BIN(表格2[[#This Row],[DATA_TYPE]],2)))</f>
-        <v>00</v>
+        <f>DEC2BIN(VLOOKUP(表格2[[#This Row],[ALUOP]],$R$2:$S$15,2,FALSE),4)</f>
+        <v>1010</v>
+      </c>
+      <c r="AA71" t="str">
+        <f>_xlfn.TEXTJOIN("", TRUE, IF(表格2[[#This Row],[SHIFT_V]]="", "0",表格2[[#This Row],[SHIFT_V]] ))</f>
+        <v>0</v>
       </c>
       <c r="AB71" t="str">
-        <f t="shared" si="1"/>
-        <v>1010010000000001110000</v>
-      </c>
-    </row>
-    <row r="72" spans="1:28" x14ac:dyDescent="0.3">
+        <f>DEC2BIN(IF(表格2[[#This Row],[DATA_TYPE]]="",0,表格2[[#This Row],[DATA_TYPE]]),3)</f>
+        <v>000</v>
+      </c>
+      <c r="AC71" t="str">
+        <f t="shared" si="0"/>
+        <v>1010010000000000010100000</v>
+      </c>
+    </row>
+    <row r="72" spans="1:29" x14ac:dyDescent="0.3">
       <c r="B72" s="4" t="s">
-        <v>79</v>
+        <v>52</v>
       </c>
       <c r="C72">
         <v>1</v>
@@ -2919,34 +3413,45 @@
       <c r="H72">
         <v>1</v>
       </c>
+      <c r="N72" t="s">
+        <v>120</v>
+      </c>
       <c r="S72" t="s">
-        <v>130</v>
+        <v>101</v>
       </c>
       <c r="U72" s="6"/>
       <c r="W72" t="str" cm="1">
-        <f t="array" ref="W72">_xlfn.TEXTJOIN("", TRUE, IF(C72:Q72="", "0", C72:Q72))</f>
-        <v>101011000000000</v>
+        <f t="array" ref="W72">_xlfn.TEXTJOIN("", TRUE, IF(C72:M72="", "0", C72:M72))</f>
+        <v>10101100000</v>
       </c>
       <c r="X72" t="str">
-        <f>DEC2BIN(VLOOKUP(表格2[[#This Row],[ALUOP]],$R$2:$S$17,2,FALSE),4)</f>
-        <v>1110</v>
-      </c>
-      <c r="Y72" t="str">
-        <f>_xlfn.TEXTJOIN("", TRUE, IF(表格2[[#This Row],[SHIFT_V]]="", "0", 表格2[[#This Row],[SHIFT_V]]))</f>
-        <v>0</v>
+        <f>DEC2BIN(VLOOKUP(表格2[[#This Row],[BRANCH]],$N$4:$O$10,2,FALSE),3)</f>
+        <v>000</v>
+      </c>
+      <c r="Y72" t="str" cm="1">
+        <f t="array" ref="Y72">_xlfn.TEXTJOIN("", TRUE, IF(表格2[[#This Row],[JUMP]:[return]]="", "0",表格2[[#This Row],[JUMP]:[return]]))</f>
+        <v>000</v>
       </c>
       <c r="Z72" t="str">
-        <f>_xlfn.TEXTJOIN("",TRUE,IF(表格2[[#This Row],[DATA_TYPE]]="","00",DEC2BIN(表格2[[#This Row],[DATA_TYPE]],2)))</f>
-        <v>00</v>
+        <f>DEC2BIN(VLOOKUP(表格2[[#This Row],[ALUOP]],$R$2:$S$15,2,FALSE),4)</f>
+        <v>1010</v>
+      </c>
+      <c r="AA72" t="str">
+        <f>_xlfn.TEXTJOIN("", TRUE, IF(表格2[[#This Row],[SHIFT_V]]="", "0",表格2[[#This Row],[SHIFT_V]] ))</f>
+        <v>0</v>
       </c>
       <c r="AB72" t="str">
-        <f t="shared" si="1"/>
-        <v>1010110000000001110000</v>
-      </c>
-    </row>
-    <row r="73" spans="1:28" x14ac:dyDescent="0.3">
+        <f>DEC2BIN(IF(表格2[[#This Row],[DATA_TYPE]]="",0,表格2[[#This Row],[DATA_TYPE]]),3)</f>
+        <v>000</v>
+      </c>
+      <c r="AC72" t="str">
+        <f t="shared" si="0"/>
+        <v>1010110000000000010100000</v>
+      </c>
+    </row>
+    <row r="73" spans="1:29" x14ac:dyDescent="0.3">
       <c r="B73" s="4" t="s">
-        <v>80</v>
+        <v>53</v>
       </c>
       <c r="C73">
         <v>1</v>
@@ -2957,34 +3462,45 @@
       <c r="H73">
         <v>1</v>
       </c>
+      <c r="N73" t="s">
+        <v>120</v>
+      </c>
       <c r="S73" t="s">
-        <v>131</v>
+        <v>102</v>
       </c>
       <c r="U73" s="6"/>
       <c r="W73" t="str" cm="1">
-        <f t="array" ref="W73">_xlfn.TEXTJOIN("", TRUE, IF(C73:Q73="", "0", C73:Q73))</f>
-        <v>101001000000000</v>
+        <f t="array" ref="W73">_xlfn.TEXTJOIN("", TRUE, IF(C73:M73="", "0", C73:M73))</f>
+        <v>10100100000</v>
       </c>
       <c r="X73" t="str">
-        <f>DEC2BIN(VLOOKUP(表格2[[#This Row],[ALUOP]],$R$2:$S$17,2,FALSE),4)</f>
-        <v>1111</v>
-      </c>
-      <c r="Y73" t="str">
-        <f>_xlfn.TEXTJOIN("", TRUE, IF(表格2[[#This Row],[SHIFT_V]]="", "0", 表格2[[#This Row],[SHIFT_V]]))</f>
-        <v>0</v>
+        <f>DEC2BIN(VLOOKUP(表格2[[#This Row],[BRANCH]],$N$4:$O$10,2,FALSE),3)</f>
+        <v>000</v>
+      </c>
+      <c r="Y73" t="str" cm="1">
+        <f t="array" ref="Y73">_xlfn.TEXTJOIN("", TRUE, IF(表格2[[#This Row],[JUMP]:[return]]="", "0",表格2[[#This Row],[JUMP]:[return]]))</f>
+        <v>000</v>
       </c>
       <c r="Z73" t="str">
-        <f>_xlfn.TEXTJOIN("",TRUE,IF(表格2[[#This Row],[DATA_TYPE]]="","00",DEC2BIN(表格2[[#This Row],[DATA_TYPE]],2)))</f>
-        <v>00</v>
+        <f>DEC2BIN(VLOOKUP(表格2[[#This Row],[ALUOP]],$R$2:$S$15,2,FALSE),4)</f>
+        <v>1011</v>
+      </c>
+      <c r="AA73" t="str">
+        <f>_xlfn.TEXTJOIN("", TRUE, IF(表格2[[#This Row],[SHIFT_V]]="", "0",表格2[[#This Row],[SHIFT_V]] ))</f>
+        <v>0</v>
       </c>
       <c r="AB73" t="str">
-        <f t="shared" si="1"/>
-        <v>1010010000000001111000</v>
-      </c>
-    </row>
-    <row r="74" spans="1:28" x14ac:dyDescent="0.3">
+        <f>DEC2BIN(IF(表格2[[#This Row],[DATA_TYPE]]="",0,表格2[[#This Row],[DATA_TYPE]]),3)</f>
+        <v>000</v>
+      </c>
+      <c r="AC73" t="str">
+        <f t="shared" si="0"/>
+        <v>1010010000000000010110000</v>
+      </c>
+    </row>
+    <row r="74" spans="1:29" x14ac:dyDescent="0.3">
       <c r="B74" s="4" t="s">
-        <v>81</v>
+        <v>54</v>
       </c>
       <c r="C74">
         <v>1</v>
@@ -2998,34 +3514,45 @@
       <c r="H74">
         <v>1</v>
       </c>
+      <c r="N74" t="s">
+        <v>120</v>
+      </c>
       <c r="S74" t="s">
-        <v>131</v>
+        <v>102</v>
       </c>
       <c r="U74" s="6"/>
       <c r="W74" t="str" cm="1">
-        <f t="array" ref="W74">_xlfn.TEXTJOIN("", TRUE, IF(C74:Q74="", "0", C74:Q74))</f>
-        <v>101011000000000</v>
+        <f t="array" ref="W74">_xlfn.TEXTJOIN("", TRUE, IF(C74:M74="", "0", C74:M74))</f>
+        <v>10101100000</v>
       </c>
       <c r="X74" t="str">
-        <f>DEC2BIN(VLOOKUP(表格2[[#This Row],[ALUOP]],$R$2:$S$17,2,FALSE),4)</f>
-        <v>1111</v>
-      </c>
-      <c r="Y74" t="str">
-        <f>_xlfn.TEXTJOIN("", TRUE, IF(表格2[[#This Row],[SHIFT_V]]="", "0", 表格2[[#This Row],[SHIFT_V]]))</f>
-        <v>0</v>
+        <f>DEC2BIN(VLOOKUP(表格2[[#This Row],[BRANCH]],$N$4:$O$10,2,FALSE),3)</f>
+        <v>000</v>
+      </c>
+      <c r="Y74" t="str" cm="1">
+        <f t="array" ref="Y74">_xlfn.TEXTJOIN("", TRUE, IF(表格2[[#This Row],[JUMP]:[return]]="", "0",表格2[[#This Row],[JUMP]:[return]]))</f>
+        <v>000</v>
       </c>
       <c r="Z74" t="str">
-        <f>_xlfn.TEXTJOIN("",TRUE,IF(表格2[[#This Row],[DATA_TYPE]]="","00",DEC2BIN(表格2[[#This Row],[DATA_TYPE]],2)))</f>
-        <v>00</v>
+        <f>DEC2BIN(VLOOKUP(表格2[[#This Row],[ALUOP]],$R$2:$S$15,2,FALSE),4)</f>
+        <v>1011</v>
+      </c>
+      <c r="AA74" t="str">
+        <f>_xlfn.TEXTJOIN("", TRUE, IF(表格2[[#This Row],[SHIFT_V]]="", "0",表格2[[#This Row],[SHIFT_V]] ))</f>
+        <v>0</v>
       </c>
       <c r="AB74" t="str">
-        <f t="shared" si="1"/>
-        <v>1010110000000001111000</v>
-      </c>
-    </row>
-    <row r="75" spans="1:28" x14ac:dyDescent="0.3">
+        <f>DEC2BIN(IF(表格2[[#This Row],[DATA_TYPE]]="",0,表格2[[#This Row],[DATA_TYPE]]),3)</f>
+        <v>000</v>
+      </c>
+      <c r="AC74" t="str">
+        <f t="shared" si="0"/>
+        <v>1010110000000000010110000</v>
+      </c>
+    </row>
+    <row r="75" spans="1:29" x14ac:dyDescent="0.3">
       <c r="B75" s="4" t="s">
-        <v>82</v>
+        <v>55</v>
       </c>
       <c r="H75">
         <v>1</v>
@@ -3033,34 +3560,45 @@
       <c r="K75">
         <v>1</v>
       </c>
+      <c r="N75" t="s">
+        <v>120</v>
+      </c>
       <c r="S75" t="s">
-        <v>132</v>
+        <v>103</v>
       </c>
       <c r="U75" s="6"/>
       <c r="W75" t="str" cm="1">
-        <f t="array" ref="W75">_xlfn.TEXTJOIN("", TRUE, IF(C75:Q75="", "0", C75:Q75))</f>
-        <v>000001001000000</v>
+        <f t="array" ref="W75">_xlfn.TEXTJOIN("", TRUE, IF(C75:M75="", "0", C75:M75))</f>
+        <v>00000100100</v>
       </c>
       <c r="X75" t="str">
-        <f>DEC2BIN(VLOOKUP(表格2[[#This Row],[ALUOP]],$R$2:$S$17,2,FALSE),4)</f>
+        <f>DEC2BIN(VLOOKUP(表格2[[#This Row],[BRANCH]],$N$4:$O$10,2,FALSE),3)</f>
+        <v>000</v>
+      </c>
+      <c r="Y75" t="str" cm="1">
+        <f t="array" ref="Y75">_xlfn.TEXTJOIN("", TRUE, IF(表格2[[#This Row],[JUMP]:[return]]="", "0",表格2[[#This Row],[JUMP]:[return]]))</f>
+        <v>000</v>
+      </c>
+      <c r="Z75" t="str">
+        <f>DEC2BIN(VLOOKUP(表格2[[#This Row],[ALUOP]],$R$2:$S$15,2,FALSE),4)</f>
         <v>0100</v>
       </c>
-      <c r="Y75" t="str">
-        <f>_xlfn.TEXTJOIN("", TRUE, IF(表格2[[#This Row],[SHIFT_V]]="", "0", 表格2[[#This Row],[SHIFT_V]]))</f>
-        <v>0</v>
-      </c>
-      <c r="Z75" t="str">
-        <f>_xlfn.TEXTJOIN("",TRUE,IF(表格2[[#This Row],[DATA_TYPE]]="","00",DEC2BIN(表格2[[#This Row],[DATA_TYPE]],2)))</f>
-        <v>00</v>
+      <c r="AA75" t="str">
+        <f>_xlfn.TEXTJOIN("", TRUE, IF(表格2[[#This Row],[SHIFT_V]]="", "0",表格2[[#This Row],[SHIFT_V]] ))</f>
+        <v>0</v>
       </c>
       <c r="AB75" t="str">
-        <f t="shared" si="1"/>
-        <v>0000010010000000100000</v>
-      </c>
-    </row>
-    <row r="76" spans="1:28" x14ac:dyDescent="0.3">
+        <f>DEC2BIN(IF(表格2[[#This Row],[DATA_TYPE]]="",0,表格2[[#This Row],[DATA_TYPE]]),3)</f>
+        <v>000</v>
+      </c>
+      <c r="AC75" t="str">
+        <f t="shared" si="0"/>
+        <v>0000010010000000001000000</v>
+      </c>
+    </row>
+    <row r="76" spans="1:29" x14ac:dyDescent="0.3">
       <c r="B76" s="4" t="s">
-        <v>83</v>
+        <v>56</v>
       </c>
       <c r="G76">
         <v>1</v>
@@ -3071,34 +3609,45 @@
       <c r="K76">
         <v>1</v>
       </c>
+      <c r="N76" t="s">
+        <v>120</v>
+      </c>
       <c r="S76" t="s">
-        <v>132</v>
+        <v>103</v>
       </c>
       <c r="U76" s="6"/>
       <c r="W76" t="str" cm="1">
-        <f t="array" ref="W76">_xlfn.TEXTJOIN("", TRUE, IF(C76:Q76="", "0", C76:Q76))</f>
-        <v>000011001000000</v>
+        <f t="array" ref="W76">_xlfn.TEXTJOIN("", TRUE, IF(C76:M76="", "0", C76:M76))</f>
+        <v>00001100100</v>
       </c>
       <c r="X76" t="str">
-        <f>DEC2BIN(VLOOKUP(表格2[[#This Row],[ALUOP]],$R$2:$S$17,2,FALSE),4)</f>
+        <f>DEC2BIN(VLOOKUP(表格2[[#This Row],[BRANCH]],$N$4:$O$10,2,FALSE),3)</f>
+        <v>000</v>
+      </c>
+      <c r="Y76" t="str" cm="1">
+        <f t="array" ref="Y76">_xlfn.TEXTJOIN("", TRUE, IF(表格2[[#This Row],[JUMP]:[return]]="", "0",表格2[[#This Row],[JUMP]:[return]]))</f>
+        <v>000</v>
+      </c>
+      <c r="Z76" t="str">
+        <f>DEC2BIN(VLOOKUP(表格2[[#This Row],[ALUOP]],$R$2:$S$15,2,FALSE),4)</f>
         <v>0100</v>
       </c>
-      <c r="Y76" t="str">
-        <f>_xlfn.TEXTJOIN("", TRUE, IF(表格2[[#This Row],[SHIFT_V]]="", "0", 表格2[[#This Row],[SHIFT_V]]))</f>
-        <v>0</v>
-      </c>
-      <c r="Z76" t="str">
-        <f>_xlfn.TEXTJOIN("",TRUE,IF(表格2[[#This Row],[DATA_TYPE]]="","00",DEC2BIN(表格2[[#This Row],[DATA_TYPE]],2)))</f>
-        <v>00</v>
+      <c r="AA76" t="str">
+        <f>_xlfn.TEXTJOIN("", TRUE, IF(表格2[[#This Row],[SHIFT_V]]="", "0",表格2[[#This Row],[SHIFT_V]] ))</f>
+        <v>0</v>
       </c>
       <c r="AB76" t="str">
-        <f t="shared" si="1"/>
-        <v>0000110010000000100000</v>
-      </c>
-    </row>
-    <row r="77" spans="1:28" x14ac:dyDescent="0.3">
+        <f>DEC2BIN(IF(表格2[[#This Row],[DATA_TYPE]]="",0,表格2[[#This Row],[DATA_TYPE]]),3)</f>
+        <v>000</v>
+      </c>
+      <c r="AC76" t="str">
+        <f t="shared" si="0"/>
+        <v>0000110010000000001000000</v>
+      </c>
+    </row>
+    <row r="77" spans="1:29" x14ac:dyDescent="0.3">
       <c r="B77" s="4" t="s">
-        <v>84</v>
+        <v>57</v>
       </c>
       <c r="H77">
         <v>1</v>
@@ -3106,34 +3655,45 @@
       <c r="K77">
         <v>1</v>
       </c>
+      <c r="N77" t="s">
+        <v>120</v>
+      </c>
       <c r="S77" t="s">
-        <v>133</v>
+        <v>104</v>
       </c>
       <c r="U77" s="6"/>
       <c r="W77" t="str" cm="1">
-        <f t="array" ref="W77">_xlfn.TEXTJOIN("", TRUE, IF(C77:Q77="", "0", C77:Q77))</f>
-        <v>000001001000000</v>
+        <f t="array" ref="W77">_xlfn.TEXTJOIN("", TRUE, IF(C77:M77="", "0", C77:M77))</f>
+        <v>00000100100</v>
       </c>
       <c r="X77" t="str">
-        <f>DEC2BIN(VLOOKUP(表格2[[#This Row],[ALUOP]],$R$2:$S$17,2,FALSE),4)</f>
+        <f>DEC2BIN(VLOOKUP(表格2[[#This Row],[BRANCH]],$N$4:$O$10,2,FALSE),3)</f>
+        <v>000</v>
+      </c>
+      <c r="Y77" t="str" cm="1">
+        <f t="array" ref="Y77">_xlfn.TEXTJOIN("", TRUE, IF(表格2[[#This Row],[JUMP]:[return]]="", "0",表格2[[#This Row],[JUMP]:[return]]))</f>
+        <v>000</v>
+      </c>
+      <c r="Z77" t="str">
+        <f>DEC2BIN(VLOOKUP(表格2[[#This Row],[ALUOP]],$R$2:$S$15,2,FALSE),4)</f>
         <v>0101</v>
       </c>
-      <c r="Y77" t="str">
-        <f>_xlfn.TEXTJOIN("", TRUE, IF(表格2[[#This Row],[SHIFT_V]]="", "0", 表格2[[#This Row],[SHIFT_V]]))</f>
-        <v>0</v>
-      </c>
-      <c r="Z77" t="str">
-        <f>_xlfn.TEXTJOIN("",TRUE,IF(表格2[[#This Row],[DATA_TYPE]]="","00",DEC2BIN(表格2[[#This Row],[DATA_TYPE]],2)))</f>
-        <v>00</v>
+      <c r="AA77" t="str">
+        <f>_xlfn.TEXTJOIN("", TRUE, IF(表格2[[#This Row],[SHIFT_V]]="", "0",表格2[[#This Row],[SHIFT_V]] ))</f>
+        <v>0</v>
       </c>
       <c r="AB77" t="str">
-        <f t="shared" si="1"/>
-        <v>0000010010000000101000</v>
-      </c>
-    </row>
-    <row r="78" spans="1:28" x14ac:dyDescent="0.3">
+        <f>DEC2BIN(IF(表格2[[#This Row],[DATA_TYPE]]="",0,表格2[[#This Row],[DATA_TYPE]]),3)</f>
+        <v>000</v>
+      </c>
+      <c r="AC77" t="str">
+        <f t="shared" si="0"/>
+        <v>0000010010000000001010000</v>
+      </c>
+    </row>
+    <row r="78" spans="1:29" x14ac:dyDescent="0.3">
       <c r="B78" s="4" t="s">
-        <v>85</v>
+        <v>58</v>
       </c>
       <c r="G78">
         <v>1</v>
@@ -3144,34 +3704,45 @@
       <c r="K78">
         <v>1</v>
       </c>
+      <c r="N78" t="s">
+        <v>120</v>
+      </c>
       <c r="S78" t="s">
-        <v>133</v>
+        <v>104</v>
       </c>
       <c r="U78" s="6"/>
       <c r="W78" t="str" cm="1">
-        <f t="array" ref="W78">_xlfn.TEXTJOIN("", TRUE, IF(C78:Q78="", "0", C78:Q78))</f>
-        <v>000011001000000</v>
+        <f t="array" ref="W78">_xlfn.TEXTJOIN("", TRUE, IF(C78:M78="", "0", C78:M78))</f>
+        <v>00001100100</v>
       </c>
       <c r="X78" t="str">
-        <f>DEC2BIN(VLOOKUP(表格2[[#This Row],[ALUOP]],$R$2:$S$17,2,FALSE),4)</f>
+        <f>DEC2BIN(VLOOKUP(表格2[[#This Row],[BRANCH]],$N$4:$O$10,2,FALSE),3)</f>
+        <v>000</v>
+      </c>
+      <c r="Y78" t="str" cm="1">
+        <f t="array" ref="Y78">_xlfn.TEXTJOIN("", TRUE, IF(表格2[[#This Row],[JUMP]:[return]]="", "0",表格2[[#This Row],[JUMP]:[return]]))</f>
+        <v>000</v>
+      </c>
+      <c r="Z78" t="str">
+        <f>DEC2BIN(VLOOKUP(表格2[[#This Row],[ALUOP]],$R$2:$S$15,2,FALSE),4)</f>
         <v>0101</v>
       </c>
-      <c r="Y78" t="str">
-        <f>_xlfn.TEXTJOIN("", TRUE, IF(表格2[[#This Row],[SHIFT_V]]="", "0", 表格2[[#This Row],[SHIFT_V]]))</f>
-        <v>0</v>
-      </c>
-      <c r="Z78" t="str">
-        <f>_xlfn.TEXTJOIN("",TRUE,IF(表格2[[#This Row],[DATA_TYPE]]="","00",DEC2BIN(表格2[[#This Row],[DATA_TYPE]],2)))</f>
-        <v>00</v>
+      <c r="AA78" t="str">
+        <f>_xlfn.TEXTJOIN("", TRUE, IF(表格2[[#This Row],[SHIFT_V]]="", "0",表格2[[#This Row],[SHIFT_V]] ))</f>
+        <v>0</v>
       </c>
       <c r="AB78" t="str">
-        <f t="shared" si="1"/>
-        <v>0000110010000000101000</v>
-      </c>
-    </row>
-    <row r="79" spans="1:28" x14ac:dyDescent="0.3">
+        <f>DEC2BIN(IF(表格2[[#This Row],[DATA_TYPE]]="",0,表格2[[#This Row],[DATA_TYPE]]),3)</f>
+        <v>000</v>
+      </c>
+      <c r="AC78" t="str">
+        <f t="shared" si="0"/>
+        <v>0000110010000000001010000</v>
+      </c>
+    </row>
+    <row r="79" spans="1:29" x14ac:dyDescent="0.3">
       <c r="B79" s="4" t="s">
-        <v>86</v>
+        <v>59</v>
       </c>
       <c r="H79">
         <v>1</v>
@@ -3179,34 +3750,45 @@
       <c r="K79">
         <v>1</v>
       </c>
+      <c r="N79" t="s">
+        <v>120</v>
+      </c>
       <c r="S79" t="s">
-        <v>126</v>
+        <v>97</v>
       </c>
       <c r="U79" s="6"/>
       <c r="W79" t="str" cm="1">
-        <f t="array" ref="W79">_xlfn.TEXTJOIN("", TRUE, IF(C79:Q79="", "0", C79:Q79))</f>
-        <v>000001001000000</v>
+        <f t="array" ref="W79">_xlfn.TEXTJOIN("", TRUE, IF(C79:M79="", "0", C79:M79))</f>
+        <v>00000100100</v>
       </c>
       <c r="X79" t="str">
-        <f>DEC2BIN(VLOOKUP(表格2[[#This Row],[ALUOP]],$R$2:$S$17,2,FALSE),4)</f>
+        <f>DEC2BIN(VLOOKUP(表格2[[#This Row],[BRANCH]],$N$4:$O$10,2,FALSE),3)</f>
+        <v>000</v>
+      </c>
+      <c r="Y79" t="str" cm="1">
+        <f t="array" ref="Y79">_xlfn.TEXTJOIN("", TRUE, IF(表格2[[#This Row],[JUMP]:[return]]="", "0",表格2[[#This Row],[JUMP]:[return]]))</f>
+        <v>000</v>
+      </c>
+      <c r="Z79" t="str">
+        <f>DEC2BIN(VLOOKUP(表格2[[#This Row],[ALUOP]],$R$2:$S$15,2,FALSE),4)</f>
         <v>0000</v>
       </c>
-      <c r="Y79" t="str">
-        <f>_xlfn.TEXTJOIN("", TRUE, IF(表格2[[#This Row],[SHIFT_V]]="", "0", 表格2[[#This Row],[SHIFT_V]]))</f>
-        <v>0</v>
-      </c>
-      <c r="Z79" t="str">
-        <f>_xlfn.TEXTJOIN("",TRUE,IF(表格2[[#This Row],[DATA_TYPE]]="","00",DEC2BIN(表格2[[#This Row],[DATA_TYPE]],2)))</f>
-        <v>00</v>
+      <c r="AA79" t="str">
+        <f>_xlfn.TEXTJOIN("", TRUE, IF(表格2[[#This Row],[SHIFT_V]]="", "0",表格2[[#This Row],[SHIFT_V]] ))</f>
+        <v>0</v>
       </c>
       <c r="AB79" t="str">
-        <f t="shared" si="1"/>
-        <v>0000010010000000000000</v>
-      </c>
-    </row>
-    <row r="80" spans="1:28" x14ac:dyDescent="0.3">
+        <f>DEC2BIN(IF(表格2[[#This Row],[DATA_TYPE]]="",0,表格2[[#This Row],[DATA_TYPE]]),3)</f>
+        <v>000</v>
+      </c>
+      <c r="AC79" t="str">
+        <f t="shared" si="0"/>
+        <v>0000010010000000000000000</v>
+      </c>
+    </row>
+    <row r="80" spans="1:29" x14ac:dyDescent="0.3">
       <c r="B80" s="4" t="s">
-        <v>87</v>
+        <v>60</v>
       </c>
       <c r="H80">
         <v>1</v>
@@ -3214,34 +3796,45 @@
       <c r="K80">
         <v>1</v>
       </c>
+      <c r="N80" t="s">
+        <v>120</v>
+      </c>
       <c r="S80" t="s">
-        <v>127</v>
+        <v>98</v>
       </c>
       <c r="U80" s="6"/>
       <c r="W80" t="str" cm="1">
-        <f t="array" ref="W80">_xlfn.TEXTJOIN("", TRUE, IF(C80:Q80="", "0", C80:Q80))</f>
-        <v>000001001000000</v>
+        <f t="array" ref="W80">_xlfn.TEXTJOIN("", TRUE, IF(C80:M80="", "0", C80:M80))</f>
+        <v>00000100100</v>
       </c>
       <c r="X80" t="str">
-        <f>DEC2BIN(VLOOKUP(表格2[[#This Row],[ALUOP]],$R$2:$S$17,2,FALSE),4)</f>
+        <f>DEC2BIN(VLOOKUP(表格2[[#This Row],[BRANCH]],$N$4:$O$10,2,FALSE),3)</f>
+        <v>000</v>
+      </c>
+      <c r="Y80" t="str" cm="1">
+        <f t="array" ref="Y80">_xlfn.TEXTJOIN("", TRUE, IF(表格2[[#This Row],[JUMP]:[return]]="", "0",表格2[[#This Row],[JUMP]:[return]]))</f>
+        <v>000</v>
+      </c>
+      <c r="Z80" t="str">
+        <f>DEC2BIN(VLOOKUP(表格2[[#This Row],[ALUOP]],$R$2:$S$15,2,FALSE),4)</f>
         <v>0001</v>
       </c>
-      <c r="Y80" t="str">
-        <f>_xlfn.TEXTJOIN("", TRUE, IF(表格2[[#This Row],[SHIFT_V]]="", "0", 表格2[[#This Row],[SHIFT_V]]))</f>
-        <v>0</v>
-      </c>
-      <c r="Z80" t="str">
-        <f>_xlfn.TEXTJOIN("",TRUE,IF(表格2[[#This Row],[DATA_TYPE]]="","00",DEC2BIN(表格2[[#This Row],[DATA_TYPE]],2)))</f>
-        <v>00</v>
+      <c r="AA80" t="str">
+        <f>_xlfn.TEXTJOIN("", TRUE, IF(表格2[[#This Row],[SHIFT_V]]="", "0",表格2[[#This Row],[SHIFT_V]] ))</f>
+        <v>0</v>
       </c>
       <c r="AB80" t="str">
-        <f t="shared" si="1"/>
-        <v>0000010010000000001000</v>
-      </c>
-    </row>
-    <row r="81" spans="1:28" x14ac:dyDescent="0.3">
+        <f>DEC2BIN(IF(表格2[[#This Row],[DATA_TYPE]]="",0,表格2[[#This Row],[DATA_TYPE]]),3)</f>
+        <v>000</v>
+      </c>
+      <c r="AC80" t="str">
+        <f t="shared" si="0"/>
+        <v>0000010010000000000010000</v>
+      </c>
+    </row>
+    <row r="81" spans="1:29" x14ac:dyDescent="0.3">
       <c r="B81" s="4" t="s">
-        <v>88</v>
+        <v>61</v>
       </c>
       <c r="H81">
         <v>1</v>
@@ -3249,34 +3842,45 @@
       <c r="K81">
         <v>1</v>
       </c>
+      <c r="N81" t="s">
+        <v>120</v>
+      </c>
       <c r="S81" t="s">
-        <v>128</v>
+        <v>99</v>
       </c>
       <c r="U81" s="6"/>
       <c r="W81" t="str" cm="1">
-        <f t="array" ref="W81">_xlfn.TEXTJOIN("", TRUE, IF(C81:Q81="", "0", C81:Q81))</f>
-        <v>000001001000000</v>
+        <f t="array" ref="W81">_xlfn.TEXTJOIN("", TRUE, IF(C81:M81="", "0", C81:M81))</f>
+        <v>00000100100</v>
       </c>
       <c r="X81" t="str">
-        <f>DEC2BIN(VLOOKUP(表格2[[#This Row],[ALUOP]],$R$2:$S$17,2,FALSE),4)</f>
+        <f>DEC2BIN(VLOOKUP(表格2[[#This Row],[BRANCH]],$N$4:$O$10,2,FALSE),3)</f>
+        <v>000</v>
+      </c>
+      <c r="Y81" t="str" cm="1">
+        <f t="array" ref="Y81">_xlfn.TEXTJOIN("", TRUE, IF(表格2[[#This Row],[JUMP]:[return]]="", "0",表格2[[#This Row],[JUMP]:[return]]))</f>
+        <v>000</v>
+      </c>
+      <c r="Z81" t="str">
+        <f>DEC2BIN(VLOOKUP(表格2[[#This Row],[ALUOP]],$R$2:$S$15,2,FALSE),4)</f>
         <v>0010</v>
       </c>
-      <c r="Y81" t="str">
-        <f>_xlfn.TEXTJOIN("", TRUE, IF(表格2[[#This Row],[SHIFT_V]]="", "0", 表格2[[#This Row],[SHIFT_V]]))</f>
-        <v>0</v>
-      </c>
-      <c r="Z81" t="str">
-        <f>_xlfn.TEXTJOIN("",TRUE,IF(表格2[[#This Row],[DATA_TYPE]]="","00",DEC2BIN(表格2[[#This Row],[DATA_TYPE]],2)))</f>
-        <v>00</v>
+      <c r="AA81" t="str">
+        <f>_xlfn.TEXTJOIN("", TRUE, IF(表格2[[#This Row],[SHIFT_V]]="", "0",表格2[[#This Row],[SHIFT_V]] ))</f>
+        <v>0</v>
       </c>
       <c r="AB81" t="str">
-        <f t="shared" si="1"/>
-        <v>0000010010000000010000</v>
-      </c>
-    </row>
-    <row r="82" spans="1:28" x14ac:dyDescent="0.3">
+        <f>DEC2BIN(IF(表格2[[#This Row],[DATA_TYPE]]="",0,表格2[[#This Row],[DATA_TYPE]]),3)</f>
+        <v>000</v>
+      </c>
+      <c r="AC81" t="str">
+        <f t="shared" si="0"/>
+        <v>0000010010000000000100000</v>
+      </c>
+    </row>
+    <row r="82" spans="1:29" x14ac:dyDescent="0.3">
       <c r="B82" s="4" t="s">
-        <v>89</v>
+        <v>62</v>
       </c>
       <c r="H82">
         <v>1</v>
@@ -3284,37 +3888,48 @@
       <c r="K82">
         <v>1</v>
       </c>
+      <c r="N82" t="s">
+        <v>120</v>
+      </c>
       <c r="S82" t="s">
-        <v>129</v>
+        <v>100</v>
       </c>
       <c r="U82" s="6"/>
       <c r="W82" t="str" cm="1">
-        <f t="array" ref="W82">_xlfn.TEXTJOIN("", TRUE, IF(C82:Q82="", "0", C82:Q82))</f>
-        <v>000001001000000</v>
+        <f t="array" ref="W82">_xlfn.TEXTJOIN("", TRUE, IF(C82:M82="", "0", C82:M82))</f>
+        <v>00000100100</v>
       </c>
       <c r="X82" t="str">
-        <f>DEC2BIN(VLOOKUP(表格2[[#This Row],[ALUOP]],$R$2:$S$17,2,FALSE),4)</f>
+        <f>DEC2BIN(VLOOKUP(表格2[[#This Row],[BRANCH]],$N$4:$O$10,2,FALSE),3)</f>
+        <v>000</v>
+      </c>
+      <c r="Y82" t="str" cm="1">
+        <f t="array" ref="Y82">_xlfn.TEXTJOIN("", TRUE, IF(表格2[[#This Row],[JUMP]:[return]]="", "0",表格2[[#This Row],[JUMP]:[return]]))</f>
+        <v>000</v>
+      </c>
+      <c r="Z82" t="str">
+        <f>DEC2BIN(VLOOKUP(表格2[[#This Row],[ALUOP]],$R$2:$S$15,2,FALSE),4)</f>
         <v>0011</v>
       </c>
-      <c r="Y82" t="str">
-        <f>_xlfn.TEXTJOIN("", TRUE, IF(表格2[[#This Row],[SHIFT_V]]="", "0", 表格2[[#This Row],[SHIFT_V]]))</f>
-        <v>0</v>
-      </c>
-      <c r="Z82" t="str">
-        <f>_xlfn.TEXTJOIN("",TRUE,IF(表格2[[#This Row],[DATA_TYPE]]="","00",DEC2BIN(表格2[[#This Row],[DATA_TYPE]],2)))</f>
-        <v>00</v>
+      <c r="AA82" t="str">
+        <f>_xlfn.TEXTJOIN("", TRUE, IF(表格2[[#This Row],[SHIFT_V]]="", "0",表格2[[#This Row],[SHIFT_V]] ))</f>
+        <v>0</v>
       </c>
       <c r="AB82" t="str">
-        <f t="shared" si="1"/>
-        <v>0000010010000000011000</v>
-      </c>
-    </row>
-    <row r="83" spans="1:28" x14ac:dyDescent="0.3">
+        <f>DEC2BIN(IF(表格2[[#This Row],[DATA_TYPE]]="",0,表格2[[#This Row],[DATA_TYPE]]),3)</f>
+        <v>000</v>
+      </c>
+      <c r="AC82" t="str">
+        <f t="shared" si="0"/>
+        <v>0000010010000000000110000</v>
+      </c>
+    </row>
+    <row r="83" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>122</v>
+        <v>95</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>90</v>
+        <v>63</v>
       </c>
       <c r="H83">
         <v>1</v>
@@ -3322,34 +3937,45 @@
       <c r="K83">
         <v>1</v>
       </c>
+      <c r="N83" t="s">
+        <v>120</v>
+      </c>
       <c r="S83" t="s">
-        <v>142</v>
+        <v>111</v>
       </c>
       <c r="U83" s="6"/>
       <c r="W83" t="str" cm="1">
-        <f t="array" ref="W83">_xlfn.TEXTJOIN("", TRUE, IF(C83:Q83="", "0", C83:Q83))</f>
-        <v>000001001000000</v>
+        <f t="array" ref="W83">_xlfn.TEXTJOIN("", TRUE, IF(C83:M83="", "0", C83:M83))</f>
+        <v>00000100100</v>
       </c>
       <c r="X83" t="str">
-        <f>DEC2BIN(VLOOKUP(表格2[[#This Row],[ALUOP]],$R$2:$S$17,2,FALSE),4)</f>
-        <v>1000</v>
-      </c>
-      <c r="Y83" t="str">
-        <f>_xlfn.TEXTJOIN("", TRUE, IF(表格2[[#This Row],[SHIFT_V]]="", "0", 表格2[[#This Row],[SHIFT_V]]))</f>
-        <v>0</v>
+        <f>DEC2BIN(VLOOKUP(表格2[[#This Row],[BRANCH]],$N$4:$O$10,2,FALSE),3)</f>
+        <v>000</v>
+      </c>
+      <c r="Y83" t="str" cm="1">
+        <f t="array" ref="Y83">_xlfn.TEXTJOIN("", TRUE, IF(表格2[[#This Row],[JUMP]:[return]]="", "0",表格2[[#This Row],[JUMP]:[return]]))</f>
+        <v>000</v>
       </c>
       <c r="Z83" t="str">
-        <f>_xlfn.TEXTJOIN("",TRUE,IF(表格2[[#This Row],[DATA_TYPE]]="","00",DEC2BIN(表格2[[#This Row],[DATA_TYPE]],2)))</f>
-        <v>00</v>
+        <f>DEC2BIN(VLOOKUP(表格2[[#This Row],[ALUOP]],$R$2:$S$15,2,FALSE),4)</f>
+        <v>0110</v>
+      </c>
+      <c r="AA83" t="str">
+        <f>_xlfn.TEXTJOIN("", TRUE, IF(表格2[[#This Row],[SHIFT_V]]="", "0",表格2[[#This Row],[SHIFT_V]] ))</f>
+        <v>0</v>
       </c>
       <c r="AB83" t="str">
-        <f t="shared" si="1"/>
-        <v>0000010010000001000000</v>
-      </c>
-    </row>
-    <row r="84" spans="1:28" x14ac:dyDescent="0.3">
+        <f>DEC2BIN(IF(表格2[[#This Row],[DATA_TYPE]]="",0,表格2[[#This Row],[DATA_TYPE]]),3)</f>
+        <v>000</v>
+      </c>
+      <c r="AC83" t="str">
+        <f t="shared" si="0"/>
+        <v>0000010010000000001100000</v>
+      </c>
+    </row>
+    <row r="84" spans="1:29" x14ac:dyDescent="0.3">
       <c r="B84" s="4" t="s">
-        <v>91</v>
+        <v>64</v>
       </c>
       <c r="G84">
         <v>1</v>
@@ -3360,36 +3986,857 @@
       <c r="K84">
         <v>1</v>
       </c>
+      <c r="N84" t="s">
+        <v>120</v>
+      </c>
       <c r="S84" t="s">
-        <v>142</v>
+        <v>111</v>
       </c>
       <c r="U84" s="6"/>
       <c r="W84" t="str" cm="1">
-        <f t="array" ref="W84">_xlfn.TEXTJOIN("", TRUE, IF(C84:Q84="", "0", C84:Q84))</f>
-        <v>000011001000000</v>
+        <f t="array" ref="W84">_xlfn.TEXTJOIN("", TRUE, IF(C84:M84="", "0", C84:M84))</f>
+        <v>00001100100</v>
       </c>
       <c r="X84" t="str">
-        <f>DEC2BIN(VLOOKUP(表格2[[#This Row],[ALUOP]],$R$2:$S$17,2,FALSE),4)</f>
-        <v>1000</v>
-      </c>
-      <c r="Y84" t="str">
-        <f>_xlfn.TEXTJOIN("", TRUE, IF(表格2[[#This Row],[SHIFT_V]]="", "0", 表格2[[#This Row],[SHIFT_V]]))</f>
-        <v>0</v>
+        <f>DEC2BIN(VLOOKUP(表格2[[#This Row],[BRANCH]],$N$4:$O$10,2,FALSE),3)</f>
+        <v>000</v>
+      </c>
+      <c r="Y84" t="str" cm="1">
+        <f t="array" ref="Y84">_xlfn.TEXTJOIN("", TRUE, IF(表格2[[#This Row],[JUMP]:[return]]="", "0",表格2[[#This Row],[JUMP]:[return]]))</f>
+        <v>000</v>
       </c>
       <c r="Z84" t="str">
-        <f>_xlfn.TEXTJOIN("",TRUE,IF(表格2[[#This Row],[DATA_TYPE]]="","00",DEC2BIN(表格2[[#This Row],[DATA_TYPE]],2)))</f>
-        <v>00</v>
+        <f>DEC2BIN(VLOOKUP(表格2[[#This Row],[ALUOP]],$R$2:$S$15,2,FALSE),4)</f>
+        <v>0110</v>
+      </c>
+      <c r="AA84" t="str">
+        <f>_xlfn.TEXTJOIN("", TRUE, IF(表格2[[#This Row],[SHIFT_V]]="", "0",表格2[[#This Row],[SHIFT_V]] ))</f>
+        <v>0</v>
       </c>
       <c r="AB84" t="str">
-        <f t="shared" si="1"/>
-        <v>0000110010000001000000</v>
-      </c>
-    </row>
-    <row r="85" spans="1:28" x14ac:dyDescent="0.3">
+        <f>DEC2BIN(IF(表格2[[#This Row],[DATA_TYPE]]="",0,表格2[[#This Row],[DATA_TYPE]]),3)</f>
+        <v>000</v>
+      </c>
+      <c r="AC84" t="str">
+        <f t="shared" si="0"/>
+        <v>0000110010000000001100000</v>
+      </c>
+    </row>
+    <row r="85" spans="1:29" x14ac:dyDescent="0.3">
       <c r="U85" s="6"/>
     </row>
-    <row r="86" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:29" x14ac:dyDescent="0.3">
       <c r="U86" s="6"/>
+    </row>
+    <row r="91" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="U91" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="V91" t="s">
+        <v>12</v>
+      </c>
+      <c r="X91" t="s">
+        <v>141</v>
+      </c>
+      <c r="Y91" t="str">
+        <f>AC22</f>
+        <v>0000000000000010011010000</v>
+      </c>
+    </row>
+    <row r="92" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="U92" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="V92" t="s">
+        <v>13</v>
+      </c>
+      <c r="X92" t="s">
+        <v>141</v>
+      </c>
+      <c r="Y92" t="str">
+        <f t="shared" ref="Y92:Y154" si="1">AC23</f>
+        <v>0000000010000011011010000</v>
+      </c>
+    </row>
+    <row r="93" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="U93" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="V93" t="s">
+        <v>14</v>
+      </c>
+      <c r="X93" t="s">
+        <v>141</v>
+      </c>
+      <c r="Y93" t="str">
+        <f t="shared" si="1"/>
+        <v>0000000000000100001010000</v>
+      </c>
+    </row>
+    <row r="94" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="U94" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="V94" t="s">
+        <v>15</v>
+      </c>
+      <c r="X94" t="s">
+        <v>141</v>
+      </c>
+      <c r="Y94" t="str">
+        <f t="shared" si="1"/>
+        <v>0000000000001000001010000</v>
+      </c>
+    </row>
+    <row r="95" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="U95" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="V95" t="s">
+        <v>16</v>
+      </c>
+      <c r="X95" t="s">
+        <v>141</v>
+      </c>
+      <c r="Y95" t="str">
+        <f t="shared" si="1"/>
+        <v>0000000000001100011010000</v>
+      </c>
+    </row>
+    <row r="96" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="U96" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="V96" t="s">
+        <v>17</v>
+      </c>
+      <c r="X96" t="s">
+        <v>141</v>
+      </c>
+      <c r="Y96" t="str">
+        <f t="shared" si="1"/>
+        <v>0000000000010000011010000</v>
+      </c>
+    </row>
+    <row r="97" spans="21:25" x14ac:dyDescent="0.3">
+      <c r="U97" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="V97" t="s">
+        <v>18</v>
+      </c>
+      <c r="X97" t="s">
+        <v>141</v>
+      </c>
+      <c r="Y97" t="str">
+        <f t="shared" si="1"/>
+        <v>0000001010000000001000000</v>
+      </c>
+    </row>
+    <row r="98" spans="21:25" x14ac:dyDescent="0.3">
+      <c r="U98" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="V98" t="s">
+        <v>19</v>
+      </c>
+      <c r="X98" t="s">
+        <v>141</v>
+      </c>
+      <c r="Y98" t="str">
+        <f t="shared" si="1"/>
+        <v>0000101010000000001000000</v>
+      </c>
+    </row>
+    <row r="99" spans="21:25" x14ac:dyDescent="0.3">
+      <c r="U99" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="V99" t="s">
+        <v>20</v>
+      </c>
+      <c r="X99" t="s">
+        <v>141</v>
+      </c>
+      <c r="Y99" t="str">
+        <f t="shared" si="1"/>
+        <v>0000001010000000001100000</v>
+      </c>
+    </row>
+    <row r="100" spans="21:25" x14ac:dyDescent="0.3">
+      <c r="U100" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="V100" t="s">
+        <v>21</v>
+      </c>
+      <c r="X100" t="s">
+        <v>141</v>
+      </c>
+      <c r="Y100" t="str">
+        <f t="shared" si="1"/>
+        <v>0000101010000000001100000</v>
+      </c>
+    </row>
+    <row r="101" spans="21:25" x14ac:dyDescent="0.3">
+      <c r="U101" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="V101" t="s">
+        <v>22</v>
+      </c>
+      <c r="X101" t="s">
+        <v>141</v>
+      </c>
+      <c r="Y101" t="str">
+        <f t="shared" si="1"/>
+        <v>0000001010000000000000000</v>
+      </c>
+    </row>
+    <row r="102" spans="21:25" x14ac:dyDescent="0.3">
+      <c r="U102" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="V102" t="s">
+        <v>23</v>
+      </c>
+      <c r="X102" t="s">
+        <v>141</v>
+      </c>
+      <c r="Y102" t="str">
+        <f t="shared" si="1"/>
+        <v>0000001010000000000010000</v>
+      </c>
+    </row>
+    <row r="103" spans="21:25" x14ac:dyDescent="0.3">
+      <c r="U103" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="V103" t="s">
+        <v>24</v>
+      </c>
+      <c r="X103" t="s">
+        <v>141</v>
+      </c>
+      <c r="Y103" t="str">
+        <f t="shared" si="1"/>
+        <v>0000001010000000000100000</v>
+      </c>
+    </row>
+    <row r="104" spans="21:25" x14ac:dyDescent="0.3">
+      <c r="U104" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="V104" t="s">
+        <v>25</v>
+      </c>
+      <c r="X104" t="s">
+        <v>141</v>
+      </c>
+      <c r="Y104" t="str">
+        <f t="shared" si="1"/>
+        <v>0000001010000000000000000</v>
+      </c>
+    </row>
+    <row r="106" spans="21:25" x14ac:dyDescent="0.3">
+      <c r="U106" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="V106" t="s">
+        <v>26</v>
+      </c>
+      <c r="X106" t="s">
+        <v>141</v>
+      </c>
+      <c r="Y106" t="str">
+        <f t="shared" si="1"/>
+        <v>0000001111000000001000010</v>
+      </c>
+    </row>
+    <row r="107" spans="21:25" x14ac:dyDescent="0.3">
+      <c r="U107" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="V107" t="s">
+        <v>27</v>
+      </c>
+      <c r="X107" t="s">
+        <v>141</v>
+      </c>
+      <c r="Y107" t="str">
+        <f t="shared" si="1"/>
+        <v>0000001111000000001000001</v>
+      </c>
+    </row>
+    <row r="108" spans="21:25" x14ac:dyDescent="0.3">
+      <c r="U108" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="V108" t="s">
+        <v>31</v>
+      </c>
+      <c r="X108" t="s">
+        <v>141</v>
+      </c>
+      <c r="Y108" t="str">
+        <f t="shared" si="1"/>
+        <v>0000001111000000001000000</v>
+      </c>
+    </row>
+    <row r="109" spans="21:25" x14ac:dyDescent="0.3">
+      <c r="U109" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="V109" t="s">
+        <v>28</v>
+      </c>
+      <c r="X109" t="s">
+        <v>141</v>
+      </c>
+      <c r="Y109" t="str">
+        <f t="shared" si="1"/>
+        <v>0000001111000000001000000</v>
+      </c>
+    </row>
+    <row r="110" spans="21:25" x14ac:dyDescent="0.3">
+      <c r="U110" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="V110" t="s">
+        <v>29</v>
+      </c>
+      <c r="X110" t="s">
+        <v>141</v>
+      </c>
+      <c r="Y110" t="str">
+        <f t="shared" si="1"/>
+        <v>0000101111000000001000010</v>
+      </c>
+    </row>
+    <row r="111" spans="21:25" x14ac:dyDescent="0.3">
+      <c r="U111" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="V111" t="s">
+        <v>30</v>
+      </c>
+      <c r="X111" t="s">
+        <v>141</v>
+      </c>
+      <c r="Y111" t="str">
+        <f t="shared" si="1"/>
+        <v>0000101111000000001000001</v>
+      </c>
+    </row>
+    <row r="112" spans="21:25" x14ac:dyDescent="0.3">
+      <c r="U112" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="V112" t="s">
+        <v>32</v>
+      </c>
+      <c r="X112" t="s">
+        <v>141</v>
+      </c>
+      <c r="Y112" t="str">
+        <f t="shared" si="1"/>
+        <v>0000001111000000001000000</v>
+      </c>
+    </row>
+    <row r="114" spans="21:25" x14ac:dyDescent="0.3">
+      <c r="U114" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="V114" t="s">
+        <v>33</v>
+      </c>
+      <c r="X114" t="s">
+        <v>141</v>
+      </c>
+      <c r="Y114" t="str">
+        <f t="shared" si="1"/>
+        <v>0000001000100000001000010</v>
+      </c>
+    </row>
+    <row r="115" spans="21:25" x14ac:dyDescent="0.3">
+      <c r="U115" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="V115" t="s">
+        <v>34</v>
+      </c>
+      <c r="X115" t="s">
+        <v>141</v>
+      </c>
+      <c r="Y115" t="str">
+        <f t="shared" si="1"/>
+        <v>0000001000100000001000001</v>
+      </c>
+    </row>
+    <row r="116" spans="21:25" x14ac:dyDescent="0.3">
+      <c r="U116" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="V116" t="s">
+        <v>36</v>
+      </c>
+      <c r="X116" t="s">
+        <v>141</v>
+      </c>
+      <c r="Y116" t="str">
+        <f t="shared" si="1"/>
+        <v>0000001000100000001000000</v>
+      </c>
+    </row>
+    <row r="117" spans="21:25" x14ac:dyDescent="0.3">
+      <c r="U117" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="V117" t="s">
+        <v>35</v>
+      </c>
+      <c r="X117" t="s">
+        <v>141</v>
+      </c>
+      <c r="Y117" t="str">
+        <f t="shared" si="1"/>
+        <v>0000001000100000001000000</v>
+      </c>
+    </row>
+    <row r="118" spans="21:25" x14ac:dyDescent="0.3">
+      <c r="U118" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="V118" t="s">
+        <v>37</v>
+      </c>
+      <c r="X118" t="s">
+        <v>141</v>
+      </c>
+      <c r="Y118" t="str">
+        <f t="shared" si="1"/>
+        <v>0000001000100000001000000</v>
+      </c>
+    </row>
+    <row r="123" spans="21:25" x14ac:dyDescent="0.3">
+      <c r="U123" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="V123" t="s">
+        <v>38</v>
+      </c>
+      <c r="X123" t="s">
+        <v>141</v>
+      </c>
+      <c r="Y123" t="str">
+        <f t="shared" si="1"/>
+        <v>0000000000010100011010000</v>
+      </c>
+    </row>
+    <row r="124" spans="21:25" x14ac:dyDescent="0.3">
+      <c r="U124" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="V124" t="s">
+        <v>118</v>
+      </c>
+      <c r="X124" t="s">
+        <v>141</v>
+      </c>
+      <c r="Y124" t="str">
+        <f t="shared" si="1"/>
+        <v>0000000000011000011010000</v>
+      </c>
+    </row>
+    <row r="128" spans="21:25" x14ac:dyDescent="0.3">
+      <c r="U128" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="V128" t="s">
+        <v>39</v>
+      </c>
+      <c r="X128" t="s">
+        <v>141</v>
+      </c>
+      <c r="Y128" t="str">
+        <f t="shared" si="1"/>
+        <v>0000010010000000001110000</v>
+      </c>
+    </row>
+    <row r="129" spans="21:25" x14ac:dyDescent="0.3">
+      <c r="U129" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="V129" t="s">
+        <v>40</v>
+      </c>
+      <c r="X129" t="s">
+        <v>141</v>
+      </c>
+      <c r="Y129" t="str">
+        <f t="shared" si="1"/>
+        <v>0000010010000000010000000</v>
+      </c>
+    </row>
+    <row r="130" spans="21:25" x14ac:dyDescent="0.3">
+      <c r="U130" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="V130" t="s">
+        <v>41</v>
+      </c>
+      <c r="X130" t="s">
+        <v>141</v>
+      </c>
+      <c r="Y130" t="str">
+        <f t="shared" si="1"/>
+        <v>0000010010000000010010000</v>
+      </c>
+    </row>
+    <row r="131" spans="21:25" x14ac:dyDescent="0.3">
+      <c r="U131" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="V131" t="s">
+        <v>42</v>
+      </c>
+      <c r="X131" t="s">
+        <v>141</v>
+      </c>
+      <c r="Y131" t="str">
+        <f t="shared" si="1"/>
+        <v>0000010010000000001111000</v>
+      </c>
+    </row>
+    <row r="132" spans="21:25" x14ac:dyDescent="0.3">
+      <c r="U132" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="V132" t="s">
+        <v>43</v>
+      </c>
+      <c r="X132" t="s">
+        <v>141</v>
+      </c>
+      <c r="Y132" t="str">
+        <f t="shared" si="1"/>
+        <v>0000010010000000010001000</v>
+      </c>
+    </row>
+    <row r="133" spans="21:25" x14ac:dyDescent="0.3">
+      <c r="U133" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="V133" t="s">
+        <v>44</v>
+      </c>
+      <c r="X133" t="s">
+        <v>141</v>
+      </c>
+      <c r="Y133" t="str">
+        <f t="shared" si="1"/>
+        <v>0000010010000000010011000</v>
+      </c>
+    </row>
+    <row r="134" spans="21:25" x14ac:dyDescent="0.3">
+      <c r="U134" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="V134" t="s">
+        <v>45</v>
+      </c>
+      <c r="X134" t="s">
+        <v>141</v>
+      </c>
+      <c r="Y134" t="str">
+        <f t="shared" si="1"/>
+        <v>0000000000000010111010000</v>
+      </c>
+    </row>
+    <row r="135" spans="21:25" x14ac:dyDescent="0.3">
+      <c r="U135" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="V135" t="s">
+        <v>46</v>
+      </c>
+      <c r="X135" t="s">
+        <v>141</v>
+      </c>
+      <c r="Y135" t="str">
+        <f t="shared" si="1"/>
+        <v>0000010010000011111010000</v>
+      </c>
+    </row>
+    <row r="136" spans="21:25" x14ac:dyDescent="0.3">
+      <c r="U136" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="V136" t="s">
+        <v>47</v>
+      </c>
+      <c r="X136" t="s">
+        <v>141</v>
+      </c>
+      <c r="Y136" t="str">
+        <f t="shared" si="1"/>
+        <v>0100010010000000011010000</v>
+      </c>
+    </row>
+    <row r="137" spans="21:25" x14ac:dyDescent="0.3">
+      <c r="U137" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="V137" t="s">
+        <v>48</v>
+      </c>
+      <c r="X137" t="s">
+        <v>141</v>
+      </c>
+      <c r="Y137" t="str">
+        <f t="shared" si="1"/>
+        <v>1000000000000000011010000</v>
+      </c>
+    </row>
+    <row r="138" spans="21:25" x14ac:dyDescent="0.3">
+      <c r="U138" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="V138" t="s">
+        <v>49</v>
+      </c>
+      <c r="X138" t="s">
+        <v>141</v>
+      </c>
+      <c r="Y138" t="str">
+        <f t="shared" si="1"/>
+        <v>0001010010000000011010000</v>
+      </c>
+    </row>
+    <row r="139" spans="21:25" x14ac:dyDescent="0.3">
+      <c r="U139" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="V139" t="s">
+        <v>50</v>
+      </c>
+      <c r="X139" t="s">
+        <v>141</v>
+      </c>
+      <c r="Y139" t="str">
+        <f t="shared" si="1"/>
+        <v>0010000000000000011010000</v>
+      </c>
+    </row>
+    <row r="140" spans="21:25" x14ac:dyDescent="0.3">
+      <c r="U140" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="V140" t="s">
+        <v>51</v>
+      </c>
+      <c r="X140" t="s">
+        <v>141</v>
+      </c>
+      <c r="Y140" t="str">
+        <f t="shared" si="1"/>
+        <v>1010010000000000010100000</v>
+      </c>
+    </row>
+    <row r="141" spans="21:25" x14ac:dyDescent="0.3">
+      <c r="U141" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="V141" t="s">
+        <v>52</v>
+      </c>
+      <c r="X141" t="s">
+        <v>141</v>
+      </c>
+      <c r="Y141" t="str">
+        <f t="shared" si="1"/>
+        <v>1010110000000000010100000</v>
+      </c>
+    </row>
+    <row r="142" spans="21:25" x14ac:dyDescent="0.3">
+      <c r="U142" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="V142" t="s">
+        <v>53</v>
+      </c>
+      <c r="X142" t="s">
+        <v>141</v>
+      </c>
+      <c r="Y142" t="str">
+        <f t="shared" si="1"/>
+        <v>1010010000000000010110000</v>
+      </c>
+    </row>
+    <row r="143" spans="21:25" x14ac:dyDescent="0.3">
+      <c r="U143" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="V143" t="s">
+        <v>54</v>
+      </c>
+      <c r="X143" t="s">
+        <v>141</v>
+      </c>
+      <c r="Y143" t="str">
+        <f t="shared" si="1"/>
+        <v>1010110000000000010110000</v>
+      </c>
+    </row>
+    <row r="144" spans="21:25" x14ac:dyDescent="0.3">
+      <c r="U144" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="V144" t="s">
+        <v>55</v>
+      </c>
+      <c r="X144" t="s">
+        <v>141</v>
+      </c>
+      <c r="Y144" t="str">
+        <f t="shared" si="1"/>
+        <v>0000010010000000001000000</v>
+      </c>
+    </row>
+    <row r="145" spans="21:25" x14ac:dyDescent="0.3">
+      <c r="U145" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="V145" t="s">
+        <v>56</v>
+      </c>
+      <c r="X145" t="s">
+        <v>141</v>
+      </c>
+      <c r="Y145" t="str">
+        <f t="shared" si="1"/>
+        <v>0000110010000000001000000</v>
+      </c>
+    </row>
+    <row r="146" spans="21:25" x14ac:dyDescent="0.3">
+      <c r="U146" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="V146" t="s">
+        <v>57</v>
+      </c>
+      <c r="X146" t="s">
+        <v>141</v>
+      </c>
+      <c r="Y146" t="str">
+        <f t="shared" si="1"/>
+        <v>0000010010000000001010000</v>
+      </c>
+    </row>
+    <row r="147" spans="21:25" x14ac:dyDescent="0.3">
+      <c r="U147" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="V147" t="s">
+        <v>58</v>
+      </c>
+      <c r="X147" t="s">
+        <v>141</v>
+      </c>
+      <c r="Y147" t="str">
+        <f t="shared" si="1"/>
+        <v>0000110010000000001010000</v>
+      </c>
+    </row>
+    <row r="148" spans="21:25" x14ac:dyDescent="0.3">
+      <c r="U148" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="V148" t="s">
+        <v>59</v>
+      </c>
+      <c r="X148" t="s">
+        <v>141</v>
+      </c>
+      <c r="Y148" t="str">
+        <f t="shared" si="1"/>
+        <v>0000010010000000000000000</v>
+      </c>
+    </row>
+    <row r="149" spans="21:25" x14ac:dyDescent="0.3">
+      <c r="U149" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="V149" t="s">
+        <v>60</v>
+      </c>
+      <c r="X149" t="s">
+        <v>141</v>
+      </c>
+      <c r="Y149" t="str">
+        <f t="shared" si="1"/>
+        <v>0000010010000000000010000</v>
+      </c>
+    </row>
+    <row r="150" spans="21:25" x14ac:dyDescent="0.3">
+      <c r="U150" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="V150" t="s">
+        <v>61</v>
+      </c>
+      <c r="X150" t="s">
+        <v>141</v>
+      </c>
+      <c r="Y150" t="str">
+        <f t="shared" si="1"/>
+        <v>0000010010000000000100000</v>
+      </c>
+    </row>
+    <row r="151" spans="21:25" x14ac:dyDescent="0.3">
+      <c r="U151" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="V151" t="s">
+        <v>62</v>
+      </c>
+      <c r="X151" t="s">
+        <v>141</v>
+      </c>
+      <c r="Y151" t="str">
+        <f t="shared" si="1"/>
+        <v>0000010010000000000110000</v>
+      </c>
+    </row>
+    <row r="152" spans="21:25" x14ac:dyDescent="0.3">
+      <c r="U152" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="V152" t="s">
+        <v>63</v>
+      </c>
+      <c r="X152" t="s">
+        <v>141</v>
+      </c>
+      <c r="Y152" t="str">
+        <f t="shared" si="1"/>
+        <v>0000010010000000001100000</v>
+      </c>
+    </row>
+    <row r="153" spans="21:25" x14ac:dyDescent="0.3">
+      <c r="U153" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="V153" t="s">
+        <v>64</v>
+      </c>
+      <c r="X153" t="s">
+        <v>141</v>
+      </c>
+      <c r="Y153" t="str">
+        <f t="shared" si="1"/>
+        <v>0000110010000000001100000</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -3399,95 +4846,4 @@
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B3:B16"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:B16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="31.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.25" customWidth="1"/>
-    <col min="5" max="5" width="8" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B12" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B13" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="14" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B14" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B15" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="16" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B16" t="s">
-        <v>24</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/asm/mips32_all_control_signals_completed.xlsx
+++ b/asm/mips32_all_control_signals_completed.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2025_summer\Mips_single_cycle_verilog\asm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DA8B2EE-7265-481F-8DEA-E5EAB4FD36A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{997B493F-0D46-45F2-98D8-2562E10C9CBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="143">
   <si>
     <t>HI_READ</t>
   </si>
@@ -436,14 +436,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ALU_NOP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ALU_NOP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>BGEZ</t>
   </si>
   <si>
@@ -520,15 +512,26 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ALU_LUI</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>`define</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>25'b</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ALU_NONE</t>
+  </si>
+  <si>
+    <t>ALU_NONE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4:WordR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3:WordL</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -947,8 +950,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{500BC5D6-0FEA-43C3-9C8B-4F5A60F1D4E7}">
   <dimension ref="A2:AC153"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I73" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AB92" sqref="AB92"/>
+    <sheetView tabSelected="1" topLeftCell="J53" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AC22" sqref="AC22:AC84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -983,8 +986,8 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="R2" s="2" t="s">
-        <v>128</v>
+      <c r="R2" t="s">
+        <v>140</v>
       </c>
       <c r="S2">
         <v>0</v>
@@ -993,7 +996,7 @@
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.3">
       <c r="R3" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="S3">
         <v>1</v>
@@ -1002,13 +1005,13 @@
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="N4" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="R4" s="2" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="S4">
         <v>2</v>
@@ -1017,13 +1020,13 @@
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.3">
       <c r="N5" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="O5">
         <v>1</v>
       </c>
       <c r="R5" s="2" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="S5">
         <v>3</v>
@@ -1032,13 +1035,13 @@
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.3">
       <c r="N6" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="O6">
         <v>2</v>
       </c>
       <c r="R6" s="2" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="S6">
         <v>4</v>
@@ -1047,13 +1050,13 @@
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.3">
       <c r="N7" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="O7">
         <v>3</v>
       </c>
       <c r="R7" s="2" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="S7">
         <v>5</v>
@@ -1062,13 +1065,13 @@
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.3">
       <c r="N8" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="O8">
         <v>4</v>
       </c>
       <c r="R8" s="2" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="S8">
         <v>6</v>
@@ -1077,13 +1080,13 @@
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.3">
       <c r="N9" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="O9">
         <v>5</v>
       </c>
       <c r="R9" s="2" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="S9">
         <v>7</v>
@@ -1092,13 +1095,13 @@
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.3">
       <c r="N10" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="O10">
         <v>6</v>
       </c>
       <c r="R10" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="S10">
         <v>8</v>
@@ -1107,7 +1110,7 @@
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.3">
       <c r="R11" s="2" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="S11">
         <v>9</v>
@@ -1125,7 +1128,7 @@
         <v>69</v>
       </c>
       <c r="R12" s="2" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="S12">
         <v>10</v>
@@ -1181,7 +1184,7 @@
         <v>78</v>
       </c>
       <c r="R13" s="2" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="S13">
         <v>11</v>
@@ -1237,7 +1240,7 @@
         <v>83</v>
       </c>
       <c r="R14" s="2" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="S14">
         <v>12</v>
@@ -1245,15 +1248,16 @@
       <c r="T14" s="2" t="s">
         <v>108</v>
       </c>
+      <c r="U14" s="5" t="s">
+        <v>142</v>
+      </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="R15" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="S15">
-        <v>13</v>
-      </c>
+      <c r="R15" s="2"/>
       <c r="T15" s="2"/>
+      <c r="U15" s="5" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
@@ -1369,13 +1373,13 @@
         <v>12</v>
       </c>
       <c r="N22" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="O22">
         <v>1</v>
       </c>
       <c r="S22" t="s">
-        <v>116</v>
+        <v>139</v>
       </c>
       <c r="U22" s="6"/>
       <c r="W22" t="str" cm="1">
@@ -1392,7 +1396,7 @@
       </c>
       <c r="Z22" t="str">
         <f>DEC2BIN(VLOOKUP(表格2[[#This Row],[ALUOP]],$R$2:$S$15,2,FALSE),4)</f>
-        <v>1101</v>
+        <v>0000</v>
       </c>
       <c r="AA22" t="str">
         <f>_xlfn.TEXTJOIN("", TRUE, IF(表格2[[#This Row],[SHIFT_V]]="", "0",表格2[[#This Row],[SHIFT_V]] ))</f>
@@ -1404,7 +1408,7 @@
       </c>
       <c r="AC22" t="str">
         <f>_xlfn.TEXTJOIN("",TRUE,W22,X22,Y22,Z22,AA22,AB22)</f>
-        <v>0000000000000010011010000</v>
+        <v>0000000000000010000000000</v>
       </c>
     </row>
     <row r="23" spans="1:29" x14ac:dyDescent="0.3">
@@ -1415,7 +1419,7 @@
         <v>1</v>
       </c>
       <c r="N23" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="O23">
         <v>1</v>
@@ -1424,7 +1428,7 @@
         <v>1</v>
       </c>
       <c r="S23" t="s">
-        <v>116</v>
+        <v>139</v>
       </c>
       <c r="U23" s="6"/>
       <c r="W23" t="str" cm="1">
@@ -1441,7 +1445,7 @@
       </c>
       <c r="Z23" t="str">
         <f>DEC2BIN(VLOOKUP(表格2[[#This Row],[ALUOP]],$R$2:$S$15,2,FALSE),4)</f>
-        <v>1101</v>
+        <v>0000</v>
       </c>
       <c r="AA23" t="str">
         <f>_xlfn.TEXTJOIN("", TRUE, IF(表格2[[#This Row],[SHIFT_V]]="", "0",表格2[[#This Row],[SHIFT_V]] ))</f>
@@ -1453,7 +1457,7 @@
       </c>
       <c r="AC23" t="str">
         <f t="shared" ref="AC23:AC84" si="0">_xlfn.TEXTJOIN("",TRUE,W23,X23,Y23,Z23,AA23,AB23)</f>
-        <v>0000000010000011011010000</v>
+        <v>0000000010000011000000000</v>
       </c>
     </row>
     <row r="24" spans="1:29" x14ac:dyDescent="0.3">
@@ -1464,10 +1468,10 @@
         <v>14</v>
       </c>
       <c r="N24" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="S24" t="s">
-        <v>104</v>
+        <v>139</v>
       </c>
       <c r="U24" s="6"/>
       <c r="W24" t="str" cm="1">
@@ -1484,7 +1488,7 @@
       </c>
       <c r="Z24" t="str">
         <f>DEC2BIN(VLOOKUP(表格2[[#This Row],[ALUOP]],$R$2:$S$15,2,FALSE),4)</f>
-        <v>0101</v>
+        <v>0000</v>
       </c>
       <c r="AA24" t="str">
         <f>_xlfn.TEXTJOIN("", TRUE, IF(表格2[[#This Row],[SHIFT_V]]="", "0",表格2[[#This Row],[SHIFT_V]] ))</f>
@@ -1496,7 +1500,7 @@
       </c>
       <c r="AC24" t="str">
         <f t="shared" si="0"/>
-        <v>0000000000000100001010000</v>
+        <v>0000000000000100000000000</v>
       </c>
     </row>
     <row r="25" spans="1:29" x14ac:dyDescent="0.3">
@@ -1504,10 +1508,10 @@
         <v>15</v>
       </c>
       <c r="N25" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="S25" t="s">
-        <v>104</v>
+        <v>139</v>
       </c>
       <c r="U25" s="6"/>
       <c r="W25" t="str" cm="1">
@@ -1524,7 +1528,7 @@
       </c>
       <c r="Z25" t="str">
         <f>DEC2BIN(VLOOKUP(表格2[[#This Row],[ALUOP]],$R$2:$S$15,2,FALSE),4)</f>
-        <v>0101</v>
+        <v>0000</v>
       </c>
       <c r="AA25" t="str">
         <f>_xlfn.TEXTJOIN("", TRUE, IF(表格2[[#This Row],[SHIFT_V]]="", "0",表格2[[#This Row],[SHIFT_V]] ))</f>
@@ -1536,7 +1540,7 @@
       </c>
       <c r="AC25" t="str">
         <f t="shared" si="0"/>
-        <v>0000000000001000001010000</v>
+        <v>0000000000001000000000000</v>
       </c>
     </row>
     <row r="26" spans="1:29" x14ac:dyDescent="0.3">
@@ -1544,10 +1548,10 @@
         <v>16</v>
       </c>
       <c r="N26" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="S26" t="s">
-        <v>117</v>
+        <v>139</v>
       </c>
       <c r="U26" s="6"/>
       <c r="W26" t="str" cm="1">
@@ -1564,7 +1568,7 @@
       </c>
       <c r="Z26" t="str">
         <f>DEC2BIN(VLOOKUP(表格2[[#This Row],[ALUOP]],$R$2:$S$15,2,FALSE),4)</f>
-        <v>1101</v>
+        <v>0000</v>
       </c>
       <c r="AA26" t="str">
         <f>_xlfn.TEXTJOIN("", TRUE, IF(表格2[[#This Row],[SHIFT_V]]="", "0",表格2[[#This Row],[SHIFT_V]] ))</f>
@@ -1576,7 +1580,7 @@
       </c>
       <c r="AC26" t="str">
         <f t="shared" si="0"/>
-        <v>0000000000001100011010000</v>
+        <v>0000000000001100000000000</v>
       </c>
     </row>
     <row r="27" spans="1:29" x14ac:dyDescent="0.3">
@@ -1584,10 +1588,10 @@
         <v>17</v>
       </c>
       <c r="N27" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="S27" t="s">
-        <v>117</v>
+        <v>139</v>
       </c>
       <c r="U27" s="6"/>
       <c r="W27" t="str" cm="1">
@@ -1604,7 +1608,7 @@
       </c>
       <c r="Z27" t="str">
         <f>DEC2BIN(VLOOKUP(表格2[[#This Row],[ALUOP]],$R$2:$S$15,2,FALSE),4)</f>
-        <v>1101</v>
+        <v>0000</v>
       </c>
       <c r="AA27" t="str">
         <f>_xlfn.TEXTJOIN("", TRUE, IF(表格2[[#This Row],[SHIFT_V]]="", "0",表格2[[#This Row],[SHIFT_V]] ))</f>
@@ -1616,7 +1620,7 @@
       </c>
       <c r="AC27" t="str">
         <f t="shared" si="0"/>
-        <v>0000000000010000011010000</v>
+        <v>0000000000010000000000000</v>
       </c>
     </row>
     <row r="28" spans="1:29" x14ac:dyDescent="0.3">
@@ -1633,7 +1637,7 @@
         <v>1</v>
       </c>
       <c r="N28" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="S28" t="s">
         <v>103</v>
@@ -1653,7 +1657,7 @@
       </c>
       <c r="Z28" t="str">
         <f>DEC2BIN(VLOOKUP(表格2[[#This Row],[ALUOP]],$R$2:$S$15,2,FALSE),4)</f>
-        <v>0100</v>
+        <v>0101</v>
       </c>
       <c r="AA28" t="str">
         <f>_xlfn.TEXTJOIN("", TRUE, IF(表格2[[#This Row],[SHIFT_V]]="", "0",表格2[[#This Row],[SHIFT_V]] ))</f>
@@ -1665,7 +1669,7 @@
       </c>
       <c r="AC28" t="str">
         <f t="shared" si="0"/>
-        <v>0000001010000000001000000</v>
+        <v>0000001010000000001010000</v>
       </c>
     </row>
     <row r="29" spans="1:29" x14ac:dyDescent="0.3">
@@ -1682,7 +1686,7 @@
         <v>1</v>
       </c>
       <c r="N29" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="S29" t="s">
         <v>103</v>
@@ -1702,7 +1706,7 @@
       </c>
       <c r="Z29" t="str">
         <f>DEC2BIN(VLOOKUP(表格2[[#This Row],[ALUOP]],$R$2:$S$15,2,FALSE),4)</f>
-        <v>0100</v>
+        <v>0101</v>
       </c>
       <c r="AA29" t="str">
         <f>_xlfn.TEXTJOIN("", TRUE, IF(表格2[[#This Row],[SHIFT_V]]="", "0",表格2[[#This Row],[SHIFT_V]] ))</f>
@@ -1714,7 +1718,7 @@
       </c>
       <c r="AC29" t="str">
         <f t="shared" si="0"/>
-        <v>0000101010000000001000000</v>
+        <v>0000101010000000001010000</v>
       </c>
     </row>
     <row r="30" spans="1:29" x14ac:dyDescent="0.3">
@@ -1728,7 +1732,7 @@
         <v>1</v>
       </c>
       <c r="N30" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="S30" t="s">
         <v>111</v>
@@ -1748,7 +1752,7 @@
       </c>
       <c r="Z30" t="str">
         <f>DEC2BIN(VLOOKUP(表格2[[#This Row],[ALUOP]],$R$2:$S$15,2,FALSE),4)</f>
-        <v>0110</v>
+        <v>0111</v>
       </c>
       <c r="AA30" t="str">
         <f>_xlfn.TEXTJOIN("", TRUE, IF(表格2[[#This Row],[SHIFT_V]]="", "0",表格2[[#This Row],[SHIFT_V]] ))</f>
@@ -1760,7 +1764,7 @@
       </c>
       <c r="AC30" t="str">
         <f t="shared" si="0"/>
-        <v>0000001010000000001100000</v>
+        <v>0000001010000000001110000</v>
       </c>
     </row>
     <row r="31" spans="1:29" x14ac:dyDescent="0.3">
@@ -1777,7 +1781,7 @@
         <v>1</v>
       </c>
       <c r="N31" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="S31" t="s">
         <v>111</v>
@@ -1797,7 +1801,7 @@
       </c>
       <c r="Z31" t="str">
         <f>DEC2BIN(VLOOKUP(表格2[[#This Row],[ALUOP]],$R$2:$S$15,2,FALSE),4)</f>
-        <v>0110</v>
+        <v>0111</v>
       </c>
       <c r="AA31" t="str">
         <f>_xlfn.TEXTJOIN("", TRUE, IF(表格2[[#This Row],[SHIFT_V]]="", "0",表格2[[#This Row],[SHIFT_V]] ))</f>
@@ -1809,7 +1813,7 @@
       </c>
       <c r="AC31" t="str">
         <f t="shared" si="0"/>
-        <v>0000101010000000001100000</v>
+        <v>0000101010000000001110000</v>
       </c>
     </row>
     <row r="32" spans="1:29" x14ac:dyDescent="0.3">
@@ -1823,7 +1827,7 @@
         <v>1</v>
       </c>
       <c r="N32" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="S32" t="s">
         <v>97</v>
@@ -1843,7 +1847,7 @@
       </c>
       <c r="Z32" t="str">
         <f>DEC2BIN(VLOOKUP(表格2[[#This Row],[ALUOP]],$R$2:$S$15,2,FALSE),4)</f>
-        <v>0000</v>
+        <v>0001</v>
       </c>
       <c r="AA32" t="str">
         <f>_xlfn.TEXTJOIN("", TRUE, IF(表格2[[#This Row],[SHIFT_V]]="", "0",表格2[[#This Row],[SHIFT_V]] ))</f>
@@ -1855,7 +1859,7 @@
       </c>
       <c r="AC32" t="str">
         <f t="shared" si="0"/>
-        <v>0000001010000000000000000</v>
+        <v>0000001010000000000010000</v>
       </c>
     </row>
     <row r="33" spans="1:29" x14ac:dyDescent="0.3">
@@ -1869,7 +1873,7 @@
         <v>1</v>
       </c>
       <c r="N33" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="S33" t="s">
         <v>98</v>
@@ -1889,7 +1893,7 @@
       </c>
       <c r="Z33" t="str">
         <f>DEC2BIN(VLOOKUP(表格2[[#This Row],[ALUOP]],$R$2:$S$15,2,FALSE),4)</f>
-        <v>0001</v>
+        <v>0010</v>
       </c>
       <c r="AA33" t="str">
         <f>_xlfn.TEXTJOIN("", TRUE, IF(表格2[[#This Row],[SHIFT_V]]="", "0",表格2[[#This Row],[SHIFT_V]] ))</f>
@@ -1901,7 +1905,7 @@
       </c>
       <c r="AC33" t="str">
         <f t="shared" si="0"/>
-        <v>0000001010000000000010000</v>
+        <v>0000001010000000000100000</v>
       </c>
     </row>
     <row r="34" spans="1:29" x14ac:dyDescent="0.3">
@@ -1915,7 +1919,7 @@
         <v>1</v>
       </c>
       <c r="N34" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="S34" t="s">
         <v>99</v>
@@ -1935,7 +1939,7 @@
       </c>
       <c r="Z34" t="str">
         <f>DEC2BIN(VLOOKUP(表格2[[#This Row],[ALUOP]],$R$2:$S$15,2,FALSE),4)</f>
-        <v>0010</v>
+        <v>0011</v>
       </c>
       <c r="AA34" t="str">
         <f>_xlfn.TEXTJOIN("", TRUE, IF(表格2[[#This Row],[SHIFT_V]]="", "0",表格2[[#This Row],[SHIFT_V]] ))</f>
@@ -1947,7 +1951,7 @@
       </c>
       <c r="AC34" t="str">
         <f t="shared" si="0"/>
-        <v>0000001010000000000100000</v>
+        <v>0000001010000000000110000</v>
       </c>
     </row>
     <row r="35" spans="1:29" x14ac:dyDescent="0.3">
@@ -1961,7 +1965,7 @@
         <v>1</v>
       </c>
       <c r="N35" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="S35" t="s">
         <v>97</v>
@@ -1981,7 +1985,7 @@
       </c>
       <c r="Z35" t="str">
         <f>DEC2BIN(VLOOKUP(表格2[[#This Row],[ALUOP]],$R$2:$S$15,2,FALSE),4)</f>
-        <v>0000</v>
+        <v>0001</v>
       </c>
       <c r="AA35" t="str">
         <f>_xlfn.TEXTJOIN("", TRUE, IF(表格2[[#This Row],[SHIFT_V]]="", "0",表格2[[#This Row],[SHIFT_V]] ))</f>
@@ -1993,7 +1997,7 @@
       </c>
       <c r="AC35" t="str">
         <f t="shared" si="0"/>
-        <v>0000001010000000000000000</v>
+        <v>0000001010000000000010000</v>
       </c>
     </row>
     <row r="36" spans="1:29" x14ac:dyDescent="0.3">
@@ -2024,7 +2028,7 @@
         <v>1</v>
       </c>
       <c r="N37" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="S37" t="s">
         <v>103</v>
@@ -2046,7 +2050,7 @@
       </c>
       <c r="Z37" t="str">
         <f>DEC2BIN(VLOOKUP(表格2[[#This Row],[ALUOP]],$R$2:$S$15,2,FALSE),4)</f>
-        <v>0100</v>
+        <v>0101</v>
       </c>
       <c r="AA37" t="str">
         <f>_xlfn.TEXTJOIN("", TRUE, IF(表格2[[#This Row],[SHIFT_V]]="", "0",表格2[[#This Row],[SHIFT_V]] ))</f>
@@ -2058,7 +2062,7 @@
       </c>
       <c r="AC37" t="str">
         <f t="shared" si="0"/>
-        <v>0000001111000000001000010</v>
+        <v>0000001111000000001010010</v>
       </c>
     </row>
     <row r="38" spans="1:29" x14ac:dyDescent="0.3">
@@ -2078,7 +2082,7 @@
         <v>1</v>
       </c>
       <c r="N38" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="S38" t="s">
         <v>103</v>
@@ -2100,7 +2104,7 @@
       </c>
       <c r="Z38" t="str">
         <f>DEC2BIN(VLOOKUP(表格2[[#This Row],[ALUOP]],$R$2:$S$15,2,FALSE),4)</f>
-        <v>0100</v>
+        <v>0101</v>
       </c>
       <c r="AA38" t="str">
         <f>_xlfn.TEXTJOIN("", TRUE, IF(表格2[[#This Row],[SHIFT_V]]="", "0",表格2[[#This Row],[SHIFT_V]] ))</f>
@@ -2112,7 +2116,7 @@
       </c>
       <c r="AC38" t="str">
         <f t="shared" si="0"/>
-        <v>0000001111000000001000001</v>
+        <v>0000001111000000001010001</v>
       </c>
     </row>
     <row r="39" spans="1:29" x14ac:dyDescent="0.3">
@@ -2132,12 +2136,14 @@
         <v>1</v>
       </c>
       <c r="N39" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="S39" t="s">
         <v>103</v>
       </c>
-      <c r="U39" s="6"/>
+      <c r="U39" s="6">
+        <v>3</v>
+      </c>
       <c r="W39" t="str" cm="1">
         <f t="array" ref="W39">_xlfn.TEXTJOIN("", TRUE, IF(C39:M39="", "0", C39:M39))</f>
         <v>00000011110</v>
@@ -2152,7 +2158,7 @@
       </c>
       <c r="Z39" t="str">
         <f>DEC2BIN(VLOOKUP(表格2[[#This Row],[ALUOP]],$R$2:$S$15,2,FALSE),4)</f>
-        <v>0100</v>
+        <v>0101</v>
       </c>
       <c r="AA39" t="str">
         <f>_xlfn.TEXTJOIN("", TRUE, IF(表格2[[#This Row],[SHIFT_V]]="", "0",表格2[[#This Row],[SHIFT_V]] ))</f>
@@ -2160,11 +2166,11 @@
       </c>
       <c r="AB39" t="str">
         <f>DEC2BIN(IF(表格2[[#This Row],[DATA_TYPE]]="",0,表格2[[#This Row],[DATA_TYPE]]),3)</f>
-        <v>000</v>
+        <v>011</v>
       </c>
       <c r="AC39" t="str">
         <f t="shared" si="0"/>
-        <v>0000001111000000001000000</v>
+        <v>0000001111000000001010011</v>
       </c>
     </row>
     <row r="40" spans="1:29" x14ac:dyDescent="0.3">
@@ -2184,7 +2190,7 @@
         <v>1</v>
       </c>
       <c r="N40" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="S40" t="s">
         <v>103</v>
@@ -2204,7 +2210,7 @@
       </c>
       <c r="Z40" t="str">
         <f>DEC2BIN(VLOOKUP(表格2[[#This Row],[ALUOP]],$R$2:$S$15,2,FALSE),4)</f>
-        <v>0100</v>
+        <v>0101</v>
       </c>
       <c r="AA40" t="str">
         <f>_xlfn.TEXTJOIN("", TRUE, IF(表格2[[#This Row],[SHIFT_V]]="", "0",表格2[[#This Row],[SHIFT_V]] ))</f>
@@ -2216,7 +2222,7 @@
       </c>
       <c r="AC40" t="str">
         <f t="shared" si="0"/>
-        <v>0000001111000000001000000</v>
+        <v>0000001111000000001010000</v>
       </c>
     </row>
     <row r="41" spans="1:29" x14ac:dyDescent="0.3">
@@ -2239,7 +2245,7 @@
         <v>1</v>
       </c>
       <c r="N41" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="S41" t="s">
         <v>103</v>
@@ -2261,7 +2267,7 @@
       </c>
       <c r="Z41" t="str">
         <f>DEC2BIN(VLOOKUP(表格2[[#This Row],[ALUOP]],$R$2:$S$15,2,FALSE),4)</f>
-        <v>0100</v>
+        <v>0101</v>
       </c>
       <c r="AA41" t="str">
         <f>_xlfn.TEXTJOIN("", TRUE, IF(表格2[[#This Row],[SHIFT_V]]="", "0",表格2[[#This Row],[SHIFT_V]] ))</f>
@@ -2273,7 +2279,7 @@
       </c>
       <c r="AC41" t="str">
         <f t="shared" si="0"/>
-        <v>0000101111000000001000010</v>
+        <v>0000101111000000001010010</v>
       </c>
     </row>
     <row r="42" spans="1:29" x14ac:dyDescent="0.3">
@@ -2296,7 +2302,7 @@
         <v>1</v>
       </c>
       <c r="N42" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="S42" t="s">
         <v>103</v>
@@ -2318,7 +2324,7 @@
       </c>
       <c r="Z42" t="str">
         <f>DEC2BIN(VLOOKUP(表格2[[#This Row],[ALUOP]],$R$2:$S$15,2,FALSE),4)</f>
-        <v>0100</v>
+        <v>0101</v>
       </c>
       <c r="AA42" t="str">
         <f>_xlfn.TEXTJOIN("", TRUE, IF(表格2[[#This Row],[SHIFT_V]]="", "0",表格2[[#This Row],[SHIFT_V]] ))</f>
@@ -2330,7 +2336,7 @@
       </c>
       <c r="AC42" t="str">
         <f t="shared" si="0"/>
-        <v>0000101111000000001000001</v>
+        <v>0000101111000000001010001</v>
       </c>
     </row>
     <row r="43" spans="1:29" x14ac:dyDescent="0.3">
@@ -2350,12 +2356,14 @@
         <v>1</v>
       </c>
       <c r="N43" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="S43" t="s">
         <v>103</v>
       </c>
-      <c r="U43" s="6"/>
+      <c r="U43" s="6">
+        <v>4</v>
+      </c>
       <c r="W43" t="str" cm="1">
         <f t="array" ref="W43">_xlfn.TEXTJOIN("", TRUE, IF(C43:M43="", "0", C43:M43))</f>
         <v>00000011110</v>
@@ -2370,7 +2378,7 @@
       </c>
       <c r="Z43" t="str">
         <f>DEC2BIN(VLOOKUP(表格2[[#This Row],[ALUOP]],$R$2:$S$15,2,FALSE),4)</f>
-        <v>0100</v>
+        <v>0101</v>
       </c>
       <c r="AA43" t="str">
         <f>_xlfn.TEXTJOIN("", TRUE, IF(表格2[[#This Row],[SHIFT_V]]="", "0",表格2[[#This Row],[SHIFT_V]] ))</f>
@@ -2378,11 +2386,11 @@
       </c>
       <c r="AB43" t="str">
         <f>DEC2BIN(IF(表格2[[#This Row],[DATA_TYPE]]="",0,表格2[[#This Row],[DATA_TYPE]]),3)</f>
-        <v>000</v>
+        <v>100</v>
       </c>
       <c r="AC43" t="str">
         <f t="shared" si="0"/>
-        <v>0000001111000000001000000</v>
+        <v>0000001111000000001010100</v>
       </c>
     </row>
     <row r="44" spans="1:29" x14ac:dyDescent="0.3">
@@ -2404,7 +2412,7 @@
         <v>1</v>
       </c>
       <c r="N45" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="S45" t="s">
         <v>103</v>
@@ -2426,7 +2434,7 @@
       </c>
       <c r="Z45" t="str">
         <f>DEC2BIN(VLOOKUP(表格2[[#This Row],[ALUOP]],$R$2:$S$15,2,FALSE),4)</f>
-        <v>0100</v>
+        <v>0101</v>
       </c>
       <c r="AA45" t="str">
         <f>_xlfn.TEXTJOIN("", TRUE, IF(表格2[[#This Row],[SHIFT_V]]="", "0",表格2[[#This Row],[SHIFT_V]] ))</f>
@@ -2438,7 +2446,7 @@
       </c>
       <c r="AC45" t="str">
         <f t="shared" si="0"/>
-        <v>0000001000100000001000010</v>
+        <v>0000001000100000001010010</v>
       </c>
     </row>
     <row r="46" spans="1:29" x14ac:dyDescent="0.3">
@@ -2452,7 +2460,7 @@
         <v>1</v>
       </c>
       <c r="N46" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="S46" t="s">
         <v>103</v>
@@ -2474,7 +2482,7 @@
       </c>
       <c r="Z46" t="str">
         <f>DEC2BIN(VLOOKUP(表格2[[#This Row],[ALUOP]],$R$2:$S$15,2,FALSE),4)</f>
-        <v>0100</v>
+        <v>0101</v>
       </c>
       <c r="AA46" t="str">
         <f>_xlfn.TEXTJOIN("", TRUE, IF(表格2[[#This Row],[SHIFT_V]]="", "0",表格2[[#This Row],[SHIFT_V]] ))</f>
@@ -2486,7 +2494,7 @@
       </c>
       <c r="AC46" t="str">
         <f t="shared" si="0"/>
-        <v>0000001000100000001000001</v>
+        <v>0000001000100000001010001</v>
       </c>
     </row>
     <row r="47" spans="1:29" x14ac:dyDescent="0.3">
@@ -2500,12 +2508,14 @@
         <v>1</v>
       </c>
       <c r="N47" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="S47" t="s">
         <v>103</v>
       </c>
-      <c r="U47" s="6"/>
+      <c r="U47" s="6">
+        <v>3</v>
+      </c>
       <c r="W47" t="str" cm="1">
         <f t="array" ref="W47">_xlfn.TEXTJOIN("", TRUE, IF(C47:M47="", "0", C47:M47))</f>
         <v>00000010001</v>
@@ -2520,7 +2530,7 @@
       </c>
       <c r="Z47" t="str">
         <f>DEC2BIN(VLOOKUP(表格2[[#This Row],[ALUOP]],$R$2:$S$15,2,FALSE),4)</f>
-        <v>0100</v>
+        <v>0101</v>
       </c>
       <c r="AA47" t="str">
         <f>_xlfn.TEXTJOIN("", TRUE, IF(表格2[[#This Row],[SHIFT_V]]="", "0",表格2[[#This Row],[SHIFT_V]] ))</f>
@@ -2528,11 +2538,11 @@
       </c>
       <c r="AB47" t="str">
         <f>DEC2BIN(IF(表格2[[#This Row],[DATA_TYPE]]="",0,表格2[[#This Row],[DATA_TYPE]]),3)</f>
-        <v>000</v>
+        <v>011</v>
       </c>
       <c r="AC47" t="str">
         <f t="shared" si="0"/>
-        <v>0000001000100000001000000</v>
+        <v>0000001000100000001010011</v>
       </c>
     </row>
     <row r="48" spans="1:29" x14ac:dyDescent="0.3">
@@ -2546,7 +2556,7 @@
         <v>1</v>
       </c>
       <c r="N48" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="S48" t="s">
         <v>103</v>
@@ -2566,7 +2576,7 @@
       </c>
       <c r="Z48" t="str">
         <f>DEC2BIN(VLOOKUP(表格2[[#This Row],[ALUOP]],$R$2:$S$15,2,FALSE),4)</f>
-        <v>0100</v>
+        <v>0101</v>
       </c>
       <c r="AA48" t="str">
         <f>_xlfn.TEXTJOIN("", TRUE, IF(表格2[[#This Row],[SHIFT_V]]="", "0",表格2[[#This Row],[SHIFT_V]] ))</f>
@@ -2578,7 +2588,7 @@
       </c>
       <c r="AC48" t="str">
         <f t="shared" si="0"/>
-        <v>0000001000100000001000000</v>
+        <v>0000001000100000001010000</v>
       </c>
     </row>
     <row r="49" spans="1:29" x14ac:dyDescent="0.3">
@@ -2592,12 +2602,14 @@
         <v>1</v>
       </c>
       <c r="N49" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="S49" t="s">
         <v>103</v>
       </c>
-      <c r="U49" s="6"/>
+      <c r="U49" s="6">
+        <v>4</v>
+      </c>
       <c r="W49" t="str" cm="1">
         <f t="array" ref="W49">_xlfn.TEXTJOIN("", TRUE, IF(C49:M49="", "0", C49:M49))</f>
         <v>00000010001</v>
@@ -2612,7 +2624,7 @@
       </c>
       <c r="Z49" t="str">
         <f>DEC2BIN(VLOOKUP(表格2[[#This Row],[ALUOP]],$R$2:$S$15,2,FALSE),4)</f>
-        <v>0100</v>
+        <v>0101</v>
       </c>
       <c r="AA49" t="str">
         <f>_xlfn.TEXTJOIN("", TRUE, IF(表格2[[#This Row],[SHIFT_V]]="", "0",表格2[[#This Row],[SHIFT_V]] ))</f>
@@ -2620,11 +2632,11 @@
       </c>
       <c r="AB49" t="str">
         <f>DEC2BIN(IF(表格2[[#This Row],[DATA_TYPE]]="",0,表格2[[#This Row],[DATA_TYPE]]),3)</f>
-        <v>000</v>
+        <v>100</v>
       </c>
       <c r="AC49" t="str">
         <f t="shared" si="0"/>
-        <v>0000001000100000001000000</v>
+        <v>0000001000100000001010100</v>
       </c>
     </row>
     <row r="50" spans="1:29" x14ac:dyDescent="0.3">
@@ -2667,10 +2679,10 @@
         <v>38</v>
       </c>
       <c r="N54" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="S54" t="s">
-        <v>117</v>
+        <v>139</v>
       </c>
       <c r="U54" s="6"/>
       <c r="W54" t="str" cm="1">
@@ -2687,7 +2699,7 @@
       </c>
       <c r="Z54" t="str">
         <f>DEC2BIN(VLOOKUP(表格2[[#This Row],[ALUOP]],$R$2:$S$15,2,FALSE),4)</f>
-        <v>1101</v>
+        <v>0000</v>
       </c>
       <c r="AA54" t="str">
         <f>_xlfn.TEXTJOIN("", TRUE, IF(表格2[[#This Row],[SHIFT_V]]="", "0",表格2[[#This Row],[SHIFT_V]] ))</f>
@@ -2699,18 +2711,18 @@
       </c>
       <c r="AC54" t="str">
         <f t="shared" si="0"/>
-        <v>0000000000010100011010000</v>
+        <v>0000000000010100000000000</v>
       </c>
     </row>
     <row r="55" spans="1:29" x14ac:dyDescent="0.3">
       <c r="B55" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="N55" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="S55" t="s">
-        <v>117</v>
+        <v>139</v>
       </c>
       <c r="U55" s="6"/>
       <c r="W55" t="str" cm="1">
@@ -2727,7 +2739,7 @@
       </c>
       <c r="Z55" t="str">
         <f>DEC2BIN(VLOOKUP(表格2[[#This Row],[ALUOP]],$R$2:$S$15,2,FALSE),4)</f>
-        <v>1101</v>
+        <v>0000</v>
       </c>
       <c r="AA55" t="str">
         <f>_xlfn.TEXTJOIN("", TRUE, IF(表格2[[#This Row],[SHIFT_V]]="", "0",表格2[[#This Row],[SHIFT_V]] ))</f>
@@ -2739,7 +2751,7 @@
       </c>
       <c r="AC55" t="str">
         <f t="shared" si="0"/>
-        <v>0000000000011000011010000</v>
+        <v>0000000000011000000000000</v>
       </c>
     </row>
     <row r="56" spans="1:29" x14ac:dyDescent="0.3">
@@ -2780,7 +2792,7 @@
         <v>1</v>
       </c>
       <c r="N59" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="S59" t="s">
         <v>114</v>
@@ -2800,7 +2812,7 @@
       </c>
       <c r="Z59" t="str">
         <f>DEC2BIN(VLOOKUP(表格2[[#This Row],[ALUOP]],$R$2:$S$15,2,FALSE),4)</f>
-        <v>0111</v>
+        <v>1000</v>
       </c>
       <c r="AA59" t="str">
         <f>_xlfn.TEXTJOIN("", TRUE, IF(表格2[[#This Row],[SHIFT_V]]="", "0",表格2[[#This Row],[SHIFT_V]] ))</f>
@@ -2812,7 +2824,7 @@
       </c>
       <c r="AC59" t="str">
         <f t="shared" si="0"/>
-        <v>0000010010000000001110000</v>
+        <v>0000010010000000010000000</v>
       </c>
     </row>
     <row r="60" spans="1:29" x14ac:dyDescent="0.3">
@@ -2826,7 +2838,7 @@
         <v>1</v>
       </c>
       <c r="N60" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="S60" t="s">
         <v>113</v>
@@ -2846,7 +2858,7 @@
       </c>
       <c r="Z60" t="str">
         <f>DEC2BIN(VLOOKUP(表格2[[#This Row],[ALUOP]],$R$2:$S$15,2,FALSE),4)</f>
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="AA60" t="str">
         <f>_xlfn.TEXTJOIN("", TRUE, IF(表格2[[#This Row],[SHIFT_V]]="", "0",表格2[[#This Row],[SHIFT_V]] ))</f>
@@ -2858,7 +2870,7 @@
       </c>
       <c r="AC60" t="str">
         <f t="shared" si="0"/>
-        <v>0000010010000000010000000</v>
+        <v>0000010010000000010010000</v>
       </c>
     </row>
     <row r="61" spans="1:29" x14ac:dyDescent="0.3">
@@ -2872,7 +2884,7 @@
         <v>1</v>
       </c>
       <c r="N61" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="S61" t="s">
         <v>112</v>
@@ -2892,7 +2904,7 @@
       </c>
       <c r="Z61" t="str">
         <f>DEC2BIN(VLOOKUP(表格2[[#This Row],[ALUOP]],$R$2:$S$15,2,FALSE),4)</f>
-        <v>1001</v>
+        <v>1010</v>
       </c>
       <c r="AA61" t="str">
         <f>_xlfn.TEXTJOIN("", TRUE, IF(表格2[[#This Row],[SHIFT_V]]="", "0",表格2[[#This Row],[SHIFT_V]] ))</f>
@@ -2904,7 +2916,7 @@
       </c>
       <c r="AC61" t="str">
         <f t="shared" si="0"/>
-        <v>0000010010000000010010000</v>
+        <v>0000010010000000010100000</v>
       </c>
     </row>
     <row r="62" spans="1:29" x14ac:dyDescent="0.3">
@@ -2918,7 +2930,7 @@
         <v>1</v>
       </c>
       <c r="N62" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="S62" t="s">
         <v>114</v>
@@ -2941,7 +2953,7 @@
       </c>
       <c r="Z62" t="str">
         <f>DEC2BIN(VLOOKUP(表格2[[#This Row],[ALUOP]],$R$2:$S$15,2,FALSE),4)</f>
-        <v>0111</v>
+        <v>1000</v>
       </c>
       <c r="AA62" t="str">
         <f>_xlfn.TEXTJOIN("", TRUE, IF(表格2[[#This Row],[SHIFT_V]]="", "0",表格2[[#This Row],[SHIFT_V]] ))</f>
@@ -2953,7 +2965,7 @@
       </c>
       <c r="AC62" t="str">
         <f t="shared" si="0"/>
-        <v>0000010010000000001111000</v>
+        <v>0000010010000000010001000</v>
       </c>
     </row>
     <row r="63" spans="1:29" x14ac:dyDescent="0.3">
@@ -2967,7 +2979,7 @@
         <v>1</v>
       </c>
       <c r="N63" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="S63" t="s">
         <v>113</v>
@@ -2990,7 +3002,7 @@
       </c>
       <c r="Z63" t="str">
         <f>DEC2BIN(VLOOKUP(表格2[[#This Row],[ALUOP]],$R$2:$S$15,2,FALSE),4)</f>
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="AA63" t="str">
         <f>_xlfn.TEXTJOIN("", TRUE, IF(表格2[[#This Row],[SHIFT_V]]="", "0",表格2[[#This Row],[SHIFT_V]] ))</f>
@@ -3002,7 +3014,7 @@
       </c>
       <c r="AC63" t="str">
         <f t="shared" si="0"/>
-        <v>0000010010000000010001000</v>
+        <v>0000010010000000010011000</v>
       </c>
     </row>
     <row r="64" spans="1:29" x14ac:dyDescent="0.3">
@@ -3016,7 +3028,7 @@
         <v>1</v>
       </c>
       <c r="N64" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="S64" t="s">
         <v>112</v>
@@ -3039,7 +3051,7 @@
       </c>
       <c r="Z64" t="str">
         <f>DEC2BIN(VLOOKUP(表格2[[#This Row],[ALUOP]],$R$2:$S$15,2,FALSE),4)</f>
-        <v>1001</v>
+        <v>1010</v>
       </c>
       <c r="AA64" t="str">
         <f>_xlfn.TEXTJOIN("", TRUE, IF(表格2[[#This Row],[SHIFT_V]]="", "0",表格2[[#This Row],[SHIFT_V]] ))</f>
@@ -3051,7 +3063,7 @@
       </c>
       <c r="AC64" t="str">
         <f t="shared" si="0"/>
-        <v>0000010010000000010011000</v>
+        <v>0000010010000000010101000</v>
       </c>
     </row>
     <row r="65" spans="1:29" x14ac:dyDescent="0.3">
@@ -3062,7 +3074,7 @@
         <v>45</v>
       </c>
       <c r="N65" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="O65">
         <v>1</v>
@@ -3071,7 +3083,7 @@
         <v>1</v>
       </c>
       <c r="S65" t="s">
-        <v>116</v>
+        <v>139</v>
       </c>
       <c r="U65" s="6"/>
       <c r="W65" t="str" cm="1">
@@ -3088,7 +3100,7 @@
       </c>
       <c r="Z65" t="str">
         <f>DEC2BIN(VLOOKUP(表格2[[#This Row],[ALUOP]],$R$2:$S$15,2,FALSE),4)</f>
-        <v>1101</v>
+        <v>0000</v>
       </c>
       <c r="AA65" t="str">
         <f>_xlfn.TEXTJOIN("", TRUE, IF(表格2[[#This Row],[SHIFT_V]]="", "0",表格2[[#This Row],[SHIFT_V]] ))</f>
@@ -3100,7 +3112,7 @@
       </c>
       <c r="AC65" t="str">
         <f t="shared" si="0"/>
-        <v>0000000000000010111010000</v>
+        <v>0000000000000010100000000</v>
       </c>
     </row>
     <row r="66" spans="1:29" x14ac:dyDescent="0.3">
@@ -3114,7 +3126,7 @@
         <v>1</v>
       </c>
       <c r="N66" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="O66">
         <v>1</v>
@@ -3126,7 +3138,7 @@
         <v>1</v>
       </c>
       <c r="S66" t="s">
-        <v>116</v>
+        <v>139</v>
       </c>
       <c r="U66" s="6"/>
       <c r="W66" t="str" cm="1">
@@ -3143,7 +3155,7 @@
       </c>
       <c r="Z66" t="str">
         <f>DEC2BIN(VLOOKUP(表格2[[#This Row],[ALUOP]],$R$2:$S$15,2,FALSE),4)</f>
-        <v>1101</v>
+        <v>0000</v>
       </c>
       <c r="AA66" t="str">
         <f>_xlfn.TEXTJOIN("", TRUE, IF(表格2[[#This Row],[SHIFT_V]]="", "0",表格2[[#This Row],[SHIFT_V]] ))</f>
@@ -3155,7 +3167,7 @@
       </c>
       <c r="AC66" t="str">
         <f t="shared" si="0"/>
-        <v>0000010010000011111010000</v>
+        <v>0000010010000011100000000</v>
       </c>
     </row>
     <row r="67" spans="1:29" x14ac:dyDescent="0.3">
@@ -3175,10 +3187,10 @@
         <v>1</v>
       </c>
       <c r="N67" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="S67" t="s">
-        <v>116</v>
+        <v>139</v>
       </c>
       <c r="U67" s="6"/>
       <c r="W67" t="str" cm="1">
@@ -3195,7 +3207,7 @@
       </c>
       <c r="Z67" t="str">
         <f>DEC2BIN(VLOOKUP(表格2[[#This Row],[ALUOP]],$R$2:$S$15,2,FALSE),4)</f>
-        <v>1101</v>
+        <v>0000</v>
       </c>
       <c r="AA67" t="str">
         <f>_xlfn.TEXTJOIN("", TRUE, IF(表格2[[#This Row],[SHIFT_V]]="", "0",表格2[[#This Row],[SHIFT_V]] ))</f>
@@ -3207,7 +3219,7 @@
       </c>
       <c r="AC67" t="str">
         <f t="shared" si="0"/>
-        <v>0100010010000000011010000</v>
+        <v>0100010010000000000000000</v>
       </c>
     </row>
     <row r="68" spans="1:29" x14ac:dyDescent="0.3">
@@ -3218,10 +3230,10 @@
         <v>1</v>
       </c>
       <c r="N68" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="S68" t="s">
-        <v>116</v>
+        <v>139</v>
       </c>
       <c r="U68" s="6"/>
       <c r="W68" t="str" cm="1">
@@ -3238,7 +3250,7 @@
       </c>
       <c r="Z68" t="str">
         <f>DEC2BIN(VLOOKUP(表格2[[#This Row],[ALUOP]],$R$2:$S$15,2,FALSE),4)</f>
-        <v>1101</v>
+        <v>0000</v>
       </c>
       <c r="AA68" t="str">
         <f>_xlfn.TEXTJOIN("", TRUE, IF(表格2[[#This Row],[SHIFT_V]]="", "0",表格2[[#This Row],[SHIFT_V]] ))</f>
@@ -3250,7 +3262,7 @@
       </c>
       <c r="AC68" t="str">
         <f t="shared" si="0"/>
-        <v>1000000000000000011010000</v>
+        <v>1000000000000000000000000</v>
       </c>
     </row>
     <row r="69" spans="1:29" x14ac:dyDescent="0.3">
@@ -3267,10 +3279,10 @@
         <v>1</v>
       </c>
       <c r="N69" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="S69" t="s">
-        <v>116</v>
+        <v>139</v>
       </c>
       <c r="U69" s="6"/>
       <c r="W69" t="str" cm="1">
@@ -3287,7 +3299,7 @@
       </c>
       <c r="Z69" t="str">
         <f>DEC2BIN(VLOOKUP(表格2[[#This Row],[ALUOP]],$R$2:$S$15,2,FALSE),4)</f>
-        <v>1101</v>
+        <v>0000</v>
       </c>
       <c r="AA69" t="str">
         <f>_xlfn.TEXTJOIN("", TRUE, IF(表格2[[#This Row],[SHIFT_V]]="", "0",表格2[[#This Row],[SHIFT_V]] ))</f>
@@ -3299,7 +3311,7 @@
       </c>
       <c r="AC69" t="str">
         <f t="shared" si="0"/>
-        <v>0001010010000000011010000</v>
+        <v>0001010010000000000000000</v>
       </c>
     </row>
     <row r="70" spans="1:29" x14ac:dyDescent="0.3">
@@ -3310,10 +3322,10 @@
         <v>1</v>
       </c>
       <c r="N70" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="S70" t="s">
-        <v>116</v>
+        <v>139</v>
       </c>
       <c r="U70" s="6"/>
       <c r="W70" t="str" cm="1">
@@ -3330,7 +3342,7 @@
       </c>
       <c r="Z70" t="str">
         <f>DEC2BIN(VLOOKUP(表格2[[#This Row],[ALUOP]],$R$2:$S$15,2,FALSE),4)</f>
-        <v>1101</v>
+        <v>0000</v>
       </c>
       <c r="AA70" t="str">
         <f>_xlfn.TEXTJOIN("", TRUE, IF(表格2[[#This Row],[SHIFT_V]]="", "0",表格2[[#This Row],[SHIFT_V]] ))</f>
@@ -3342,7 +3354,7 @@
       </c>
       <c r="AC70" t="str">
         <f t="shared" si="0"/>
-        <v>0010000000000000011010000</v>
+        <v>0010000000000000000000000</v>
       </c>
     </row>
     <row r="71" spans="1:29" x14ac:dyDescent="0.3">
@@ -3362,7 +3374,7 @@
         <v>1</v>
       </c>
       <c r="N71" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="S71" t="s">
         <v>101</v>
@@ -3382,7 +3394,7 @@
       </c>
       <c r="Z71" t="str">
         <f>DEC2BIN(VLOOKUP(表格2[[#This Row],[ALUOP]],$R$2:$S$15,2,FALSE),4)</f>
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="AA71" t="str">
         <f>_xlfn.TEXTJOIN("", TRUE, IF(表格2[[#This Row],[SHIFT_V]]="", "0",表格2[[#This Row],[SHIFT_V]] ))</f>
@@ -3394,7 +3406,7 @@
       </c>
       <c r="AC71" t="str">
         <f t="shared" si="0"/>
-        <v>1010010000000000010100000</v>
+        <v>1010010000000000010110000</v>
       </c>
     </row>
     <row r="72" spans="1:29" x14ac:dyDescent="0.3">
@@ -3414,7 +3426,7 @@
         <v>1</v>
       </c>
       <c r="N72" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="S72" t="s">
         <v>101</v>
@@ -3434,7 +3446,7 @@
       </c>
       <c r="Z72" t="str">
         <f>DEC2BIN(VLOOKUP(表格2[[#This Row],[ALUOP]],$R$2:$S$15,2,FALSE),4)</f>
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="AA72" t="str">
         <f>_xlfn.TEXTJOIN("", TRUE, IF(表格2[[#This Row],[SHIFT_V]]="", "0",表格2[[#This Row],[SHIFT_V]] ))</f>
@@ -3446,7 +3458,7 @@
       </c>
       <c r="AC72" t="str">
         <f t="shared" si="0"/>
-        <v>1010110000000000010100000</v>
+        <v>1010110000000000010110000</v>
       </c>
     </row>
     <row r="73" spans="1:29" x14ac:dyDescent="0.3">
@@ -3463,7 +3475,7 @@
         <v>1</v>
       </c>
       <c r="N73" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="S73" t="s">
         <v>102</v>
@@ -3483,7 +3495,7 @@
       </c>
       <c r="Z73" t="str">
         <f>DEC2BIN(VLOOKUP(表格2[[#This Row],[ALUOP]],$R$2:$S$15,2,FALSE),4)</f>
-        <v>1011</v>
+        <v>1100</v>
       </c>
       <c r="AA73" t="str">
         <f>_xlfn.TEXTJOIN("", TRUE, IF(表格2[[#This Row],[SHIFT_V]]="", "0",表格2[[#This Row],[SHIFT_V]] ))</f>
@@ -3495,7 +3507,7 @@
       </c>
       <c r="AC73" t="str">
         <f t="shared" si="0"/>
-        <v>1010010000000000010110000</v>
+        <v>1010010000000000011000000</v>
       </c>
     </row>
     <row r="74" spans="1:29" x14ac:dyDescent="0.3">
@@ -3515,7 +3527,7 @@
         <v>1</v>
       </c>
       <c r="N74" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="S74" t="s">
         <v>102</v>
@@ -3535,7 +3547,7 @@
       </c>
       <c r="Z74" t="str">
         <f>DEC2BIN(VLOOKUP(表格2[[#This Row],[ALUOP]],$R$2:$S$15,2,FALSE),4)</f>
-        <v>1011</v>
+        <v>1100</v>
       </c>
       <c r="AA74" t="str">
         <f>_xlfn.TEXTJOIN("", TRUE, IF(表格2[[#This Row],[SHIFT_V]]="", "0",表格2[[#This Row],[SHIFT_V]] ))</f>
@@ -3547,7 +3559,7 @@
       </c>
       <c r="AC74" t="str">
         <f t="shared" si="0"/>
-        <v>1010110000000000010110000</v>
+        <v>1010110000000000011000000</v>
       </c>
     </row>
     <row r="75" spans="1:29" x14ac:dyDescent="0.3">
@@ -3561,7 +3573,7 @@
         <v>1</v>
       </c>
       <c r="N75" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="S75" t="s">
         <v>103</v>
@@ -3581,7 +3593,7 @@
       </c>
       <c r="Z75" t="str">
         <f>DEC2BIN(VLOOKUP(表格2[[#This Row],[ALUOP]],$R$2:$S$15,2,FALSE),4)</f>
-        <v>0100</v>
+        <v>0101</v>
       </c>
       <c r="AA75" t="str">
         <f>_xlfn.TEXTJOIN("", TRUE, IF(表格2[[#This Row],[SHIFT_V]]="", "0",表格2[[#This Row],[SHIFT_V]] ))</f>
@@ -3593,7 +3605,7 @@
       </c>
       <c r="AC75" t="str">
         <f t="shared" si="0"/>
-        <v>0000010010000000001000000</v>
+        <v>0000010010000000001010000</v>
       </c>
     </row>
     <row r="76" spans="1:29" x14ac:dyDescent="0.3">
@@ -3610,7 +3622,7 @@
         <v>1</v>
       </c>
       <c r="N76" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="S76" t="s">
         <v>103</v>
@@ -3630,7 +3642,7 @@
       </c>
       <c r="Z76" t="str">
         <f>DEC2BIN(VLOOKUP(表格2[[#This Row],[ALUOP]],$R$2:$S$15,2,FALSE),4)</f>
-        <v>0100</v>
+        <v>0101</v>
       </c>
       <c r="AA76" t="str">
         <f>_xlfn.TEXTJOIN("", TRUE, IF(表格2[[#This Row],[SHIFT_V]]="", "0",表格2[[#This Row],[SHIFT_V]] ))</f>
@@ -3642,7 +3654,7 @@
       </c>
       <c r="AC76" t="str">
         <f t="shared" si="0"/>
-        <v>0000110010000000001000000</v>
+        <v>0000110010000000001010000</v>
       </c>
     </row>
     <row r="77" spans="1:29" x14ac:dyDescent="0.3">
@@ -3656,7 +3668,7 @@
         <v>1</v>
       </c>
       <c r="N77" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="S77" t="s">
         <v>104</v>
@@ -3676,7 +3688,7 @@
       </c>
       <c r="Z77" t="str">
         <f>DEC2BIN(VLOOKUP(表格2[[#This Row],[ALUOP]],$R$2:$S$15,2,FALSE),4)</f>
-        <v>0101</v>
+        <v>0110</v>
       </c>
       <c r="AA77" t="str">
         <f>_xlfn.TEXTJOIN("", TRUE, IF(表格2[[#This Row],[SHIFT_V]]="", "0",表格2[[#This Row],[SHIFT_V]] ))</f>
@@ -3688,7 +3700,7 @@
       </c>
       <c r="AC77" t="str">
         <f t="shared" si="0"/>
-        <v>0000010010000000001010000</v>
+        <v>0000010010000000001100000</v>
       </c>
     </row>
     <row r="78" spans="1:29" x14ac:dyDescent="0.3">
@@ -3705,7 +3717,7 @@
         <v>1</v>
       </c>
       <c r="N78" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="S78" t="s">
         <v>104</v>
@@ -3725,7 +3737,7 @@
       </c>
       <c r="Z78" t="str">
         <f>DEC2BIN(VLOOKUP(表格2[[#This Row],[ALUOP]],$R$2:$S$15,2,FALSE),4)</f>
-        <v>0101</v>
+        <v>0110</v>
       </c>
       <c r="AA78" t="str">
         <f>_xlfn.TEXTJOIN("", TRUE, IF(表格2[[#This Row],[SHIFT_V]]="", "0",表格2[[#This Row],[SHIFT_V]] ))</f>
@@ -3737,7 +3749,7 @@
       </c>
       <c r="AC78" t="str">
         <f t="shared" si="0"/>
-        <v>0000110010000000001010000</v>
+        <v>0000110010000000001100000</v>
       </c>
     </row>
     <row r="79" spans="1:29" x14ac:dyDescent="0.3">
@@ -3751,7 +3763,7 @@
         <v>1</v>
       </c>
       <c r="N79" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="S79" t="s">
         <v>97</v>
@@ -3771,7 +3783,7 @@
       </c>
       <c r="Z79" t="str">
         <f>DEC2BIN(VLOOKUP(表格2[[#This Row],[ALUOP]],$R$2:$S$15,2,FALSE),4)</f>
-        <v>0000</v>
+        <v>0001</v>
       </c>
       <c r="AA79" t="str">
         <f>_xlfn.TEXTJOIN("", TRUE, IF(表格2[[#This Row],[SHIFT_V]]="", "0",表格2[[#This Row],[SHIFT_V]] ))</f>
@@ -3783,7 +3795,7 @@
       </c>
       <c r="AC79" t="str">
         <f t="shared" si="0"/>
-        <v>0000010010000000000000000</v>
+        <v>0000010010000000000010000</v>
       </c>
     </row>
     <row r="80" spans="1:29" x14ac:dyDescent="0.3">
@@ -3797,7 +3809,7 @@
         <v>1</v>
       </c>
       <c r="N80" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="S80" t="s">
         <v>98</v>
@@ -3817,7 +3829,7 @@
       </c>
       <c r="Z80" t="str">
         <f>DEC2BIN(VLOOKUP(表格2[[#This Row],[ALUOP]],$R$2:$S$15,2,FALSE),4)</f>
-        <v>0001</v>
+        <v>0010</v>
       </c>
       <c r="AA80" t="str">
         <f>_xlfn.TEXTJOIN("", TRUE, IF(表格2[[#This Row],[SHIFT_V]]="", "0",表格2[[#This Row],[SHIFT_V]] ))</f>
@@ -3829,7 +3841,7 @@
       </c>
       <c r="AC80" t="str">
         <f t="shared" si="0"/>
-        <v>0000010010000000000010000</v>
+        <v>0000010010000000000100000</v>
       </c>
     </row>
     <row r="81" spans="1:29" x14ac:dyDescent="0.3">
@@ -3843,7 +3855,7 @@
         <v>1</v>
       </c>
       <c r="N81" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="S81" t="s">
         <v>99</v>
@@ -3863,7 +3875,7 @@
       </c>
       <c r="Z81" t="str">
         <f>DEC2BIN(VLOOKUP(表格2[[#This Row],[ALUOP]],$R$2:$S$15,2,FALSE),4)</f>
-        <v>0010</v>
+        <v>0011</v>
       </c>
       <c r="AA81" t="str">
         <f>_xlfn.TEXTJOIN("", TRUE, IF(表格2[[#This Row],[SHIFT_V]]="", "0",表格2[[#This Row],[SHIFT_V]] ))</f>
@@ -3875,7 +3887,7 @@
       </c>
       <c r="AC81" t="str">
         <f t="shared" si="0"/>
-        <v>0000010010000000000100000</v>
+        <v>0000010010000000000110000</v>
       </c>
     </row>
     <row r="82" spans="1:29" x14ac:dyDescent="0.3">
@@ -3889,7 +3901,7 @@
         <v>1</v>
       </c>
       <c r="N82" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="S82" t="s">
         <v>100</v>
@@ -3909,7 +3921,7 @@
       </c>
       <c r="Z82" t="str">
         <f>DEC2BIN(VLOOKUP(表格2[[#This Row],[ALUOP]],$R$2:$S$15,2,FALSE),4)</f>
-        <v>0011</v>
+        <v>0100</v>
       </c>
       <c r="AA82" t="str">
         <f>_xlfn.TEXTJOIN("", TRUE, IF(表格2[[#This Row],[SHIFT_V]]="", "0",表格2[[#This Row],[SHIFT_V]] ))</f>
@@ -3921,7 +3933,7 @@
       </c>
       <c r="AC82" t="str">
         <f t="shared" si="0"/>
-        <v>0000010010000000000110000</v>
+        <v>0000010010000000001000000</v>
       </c>
     </row>
     <row r="83" spans="1:29" x14ac:dyDescent="0.3">
@@ -3938,7 +3950,7 @@
         <v>1</v>
       </c>
       <c r="N83" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="S83" t="s">
         <v>111</v>
@@ -3958,7 +3970,7 @@
       </c>
       <c r="Z83" t="str">
         <f>DEC2BIN(VLOOKUP(表格2[[#This Row],[ALUOP]],$R$2:$S$15,2,FALSE),4)</f>
-        <v>0110</v>
+        <v>0111</v>
       </c>
       <c r="AA83" t="str">
         <f>_xlfn.TEXTJOIN("", TRUE, IF(表格2[[#This Row],[SHIFT_V]]="", "0",表格2[[#This Row],[SHIFT_V]] ))</f>
@@ -3970,7 +3982,7 @@
       </c>
       <c r="AC83" t="str">
         <f t="shared" si="0"/>
-        <v>0000010010000000001100000</v>
+        <v>0000010010000000001110000</v>
       </c>
     </row>
     <row r="84" spans="1:29" x14ac:dyDescent="0.3">
@@ -3987,7 +3999,7 @@
         <v>1</v>
       </c>
       <c r="N84" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="S84" t="s">
         <v>111</v>
@@ -4007,7 +4019,7 @@
       </c>
       <c r="Z84" t="str">
         <f>DEC2BIN(VLOOKUP(表格2[[#This Row],[ALUOP]],$R$2:$S$15,2,FALSE),4)</f>
-        <v>0110</v>
+        <v>0111</v>
       </c>
       <c r="AA84" t="str">
         <f>_xlfn.TEXTJOIN("", TRUE, IF(表格2[[#This Row],[SHIFT_V]]="", "0",表格2[[#This Row],[SHIFT_V]] ))</f>
@@ -4019,7 +4031,7 @@
       </c>
       <c r="AC84" t="str">
         <f t="shared" si="0"/>
-        <v>0000110010000000001100000</v>
+        <v>0000110010000000001110000</v>
       </c>
     </row>
     <row r="85" spans="1:29" x14ac:dyDescent="0.3">
@@ -4030,812 +4042,812 @@
     </row>
     <row r="91" spans="1:29" x14ac:dyDescent="0.3">
       <c r="U91" s="5" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="V91" t="s">
         <v>12</v>
       </c>
       <c r="X91" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="Y91" t="str">
         <f>AC22</f>
-        <v>0000000000000010011010000</v>
+        <v>0000000000000010000000000</v>
       </c>
     </row>
     <row r="92" spans="1:29" x14ac:dyDescent="0.3">
       <c r="U92" s="5" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="V92" t="s">
         <v>13</v>
       </c>
       <c r="X92" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="Y92" t="str">
-        <f t="shared" ref="Y92:Y154" si="1">AC23</f>
-        <v>0000000010000011011010000</v>
+        <f t="shared" ref="Y92:Y153" si="1">AC23</f>
+        <v>0000000010000011000000000</v>
       </c>
     </row>
     <row r="93" spans="1:29" x14ac:dyDescent="0.3">
       <c r="U93" s="5" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="V93" t="s">
         <v>14</v>
       </c>
       <c r="X93" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="Y93" t="str">
         <f t="shared" si="1"/>
-        <v>0000000000000100001010000</v>
+        <v>0000000000000100000000000</v>
       </c>
     </row>
     <row r="94" spans="1:29" x14ac:dyDescent="0.3">
       <c r="U94" s="5" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="V94" t="s">
         <v>15</v>
       </c>
       <c r="X94" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="Y94" t="str">
         <f t="shared" si="1"/>
-        <v>0000000000001000001010000</v>
+        <v>0000000000001000000000000</v>
       </c>
     </row>
     <row r="95" spans="1:29" x14ac:dyDescent="0.3">
       <c r="U95" s="5" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="V95" t="s">
         <v>16</v>
       </c>
       <c r="X95" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="Y95" t="str">
         <f t="shared" si="1"/>
-        <v>0000000000001100011010000</v>
+        <v>0000000000001100000000000</v>
       </c>
     </row>
     <row r="96" spans="1:29" x14ac:dyDescent="0.3">
       <c r="U96" s="5" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="V96" t="s">
         <v>17</v>
       </c>
       <c r="X96" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="Y96" t="str">
         <f t="shared" si="1"/>
-        <v>0000000000010000011010000</v>
+        <v>0000000000010000000000000</v>
       </c>
     </row>
     <row r="97" spans="21:25" x14ac:dyDescent="0.3">
       <c r="U97" s="5" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="V97" t="s">
         <v>18</v>
       </c>
       <c r="X97" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="Y97" t="str">
         <f t="shared" si="1"/>
-        <v>0000001010000000001000000</v>
+        <v>0000001010000000001010000</v>
       </c>
     </row>
     <row r="98" spans="21:25" x14ac:dyDescent="0.3">
       <c r="U98" s="5" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="V98" t="s">
         <v>19</v>
       </c>
       <c r="X98" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="Y98" t="str">
         <f t="shared" si="1"/>
-        <v>0000101010000000001000000</v>
+        <v>0000101010000000001010000</v>
       </c>
     </row>
     <row r="99" spans="21:25" x14ac:dyDescent="0.3">
       <c r="U99" s="5" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="V99" t="s">
         <v>20</v>
       </c>
       <c r="X99" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="Y99" t="str">
         <f t="shared" si="1"/>
-        <v>0000001010000000001100000</v>
+        <v>0000001010000000001110000</v>
       </c>
     </row>
     <row r="100" spans="21:25" x14ac:dyDescent="0.3">
       <c r="U100" s="5" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="V100" t="s">
         <v>21</v>
       </c>
       <c r="X100" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="Y100" t="str">
         <f t="shared" si="1"/>
-        <v>0000101010000000001100000</v>
+        <v>0000101010000000001110000</v>
       </c>
     </row>
     <row r="101" spans="21:25" x14ac:dyDescent="0.3">
       <c r="U101" s="5" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="V101" t="s">
         <v>22</v>
       </c>
       <c r="X101" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="Y101" t="str">
         <f t="shared" si="1"/>
-        <v>0000001010000000000000000</v>
+        <v>0000001010000000000010000</v>
       </c>
     </row>
     <row r="102" spans="21:25" x14ac:dyDescent="0.3">
       <c r="U102" s="5" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="V102" t="s">
         <v>23</v>
       </c>
       <c r="X102" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="Y102" t="str">
         <f t="shared" si="1"/>
-        <v>0000001010000000000010000</v>
+        <v>0000001010000000000100000</v>
       </c>
     </row>
     <row r="103" spans="21:25" x14ac:dyDescent="0.3">
       <c r="U103" s="5" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="V103" t="s">
         <v>24</v>
       </c>
       <c r="X103" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="Y103" t="str">
         <f t="shared" si="1"/>
-        <v>0000001010000000000100000</v>
+        <v>0000001010000000000110000</v>
       </c>
     </row>
     <row r="104" spans="21:25" x14ac:dyDescent="0.3">
       <c r="U104" s="5" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="V104" t="s">
         <v>25</v>
       </c>
       <c r="X104" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="Y104" t="str">
         <f t="shared" si="1"/>
-        <v>0000001010000000000000000</v>
+        <v>0000001010000000000010000</v>
       </c>
     </row>
     <row r="106" spans="21:25" x14ac:dyDescent="0.3">
       <c r="U106" s="5" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="V106" t="s">
         <v>26</v>
       </c>
       <c r="X106" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="Y106" t="str">
         <f t="shared" si="1"/>
-        <v>0000001111000000001000010</v>
+        <v>0000001111000000001010010</v>
       </c>
     </row>
     <row r="107" spans="21:25" x14ac:dyDescent="0.3">
       <c r="U107" s="5" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="V107" t="s">
         <v>27</v>
       </c>
       <c r="X107" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="Y107" t="str">
         <f t="shared" si="1"/>
-        <v>0000001111000000001000001</v>
+        <v>0000001111000000001010001</v>
       </c>
     </row>
     <row r="108" spans="21:25" x14ac:dyDescent="0.3">
       <c r="U108" s="5" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="V108" t="s">
         <v>31</v>
       </c>
       <c r="X108" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="Y108" t="str">
         <f t="shared" si="1"/>
-        <v>0000001111000000001000000</v>
+        <v>0000001111000000001010011</v>
       </c>
     </row>
     <row r="109" spans="21:25" x14ac:dyDescent="0.3">
       <c r="U109" s="5" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="V109" t="s">
         <v>28</v>
       </c>
       <c r="X109" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="Y109" t="str">
         <f t="shared" si="1"/>
-        <v>0000001111000000001000000</v>
+        <v>0000001111000000001010000</v>
       </c>
     </row>
     <row r="110" spans="21:25" x14ac:dyDescent="0.3">
       <c r="U110" s="5" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="V110" t="s">
         <v>29</v>
       </c>
       <c r="X110" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="Y110" t="str">
         <f t="shared" si="1"/>
-        <v>0000101111000000001000010</v>
+        <v>0000101111000000001010010</v>
       </c>
     </row>
     <row r="111" spans="21:25" x14ac:dyDescent="0.3">
       <c r="U111" s="5" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="V111" t="s">
         <v>30</v>
       </c>
       <c r="X111" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="Y111" t="str">
         <f t="shared" si="1"/>
-        <v>0000101111000000001000001</v>
+        <v>0000101111000000001010001</v>
       </c>
     </row>
     <row r="112" spans="21:25" x14ac:dyDescent="0.3">
       <c r="U112" s="5" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="V112" t="s">
         <v>32</v>
       </c>
       <c r="X112" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="Y112" t="str">
         <f t="shared" si="1"/>
-        <v>0000001111000000001000000</v>
+        <v>0000001111000000001010100</v>
       </c>
     </row>
     <row r="114" spans="21:25" x14ac:dyDescent="0.3">
       <c r="U114" s="5" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="V114" t="s">
         <v>33</v>
       </c>
       <c r="X114" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="Y114" t="str">
         <f t="shared" si="1"/>
-        <v>0000001000100000001000010</v>
+        <v>0000001000100000001010010</v>
       </c>
     </row>
     <row r="115" spans="21:25" x14ac:dyDescent="0.3">
       <c r="U115" s="5" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="V115" t="s">
         <v>34</v>
       </c>
       <c r="X115" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="Y115" t="str">
         <f t="shared" si="1"/>
-        <v>0000001000100000001000001</v>
+        <v>0000001000100000001010001</v>
       </c>
     </row>
     <row r="116" spans="21:25" x14ac:dyDescent="0.3">
       <c r="U116" s="5" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="V116" t="s">
         <v>36</v>
       </c>
       <c r="X116" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="Y116" t="str">
         <f t="shared" si="1"/>
-        <v>0000001000100000001000000</v>
+        <v>0000001000100000001010011</v>
       </c>
     </row>
     <row r="117" spans="21:25" x14ac:dyDescent="0.3">
       <c r="U117" s="5" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="V117" t="s">
         <v>35</v>
       </c>
       <c r="X117" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="Y117" t="str">
         <f t="shared" si="1"/>
-        <v>0000001000100000001000000</v>
+        <v>0000001000100000001010000</v>
       </c>
     </row>
     <row r="118" spans="21:25" x14ac:dyDescent="0.3">
       <c r="U118" s="5" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="V118" t="s">
         <v>37</v>
       </c>
       <c r="X118" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="Y118" t="str">
         <f t="shared" si="1"/>
-        <v>0000001000100000001000000</v>
+        <v>0000001000100000001010100</v>
       </c>
     </row>
     <row r="123" spans="21:25" x14ac:dyDescent="0.3">
       <c r="U123" s="5" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="V123" t="s">
         <v>38</v>
       </c>
       <c r="X123" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="Y123" t="str">
         <f t="shared" si="1"/>
-        <v>0000000000010100011010000</v>
+        <v>0000000000010100000000000</v>
       </c>
     </row>
     <row r="124" spans="21:25" x14ac:dyDescent="0.3">
       <c r="U124" s="5" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="V124" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="X124" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="Y124" t="str">
         <f t="shared" si="1"/>
-        <v>0000000000011000011010000</v>
+        <v>0000000000011000000000000</v>
       </c>
     </row>
     <row r="128" spans="21:25" x14ac:dyDescent="0.3">
       <c r="U128" s="5" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="V128" t="s">
         <v>39</v>
       </c>
       <c r="X128" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="Y128" t="str">
         <f t="shared" si="1"/>
-        <v>0000010010000000001110000</v>
+        <v>0000010010000000010000000</v>
       </c>
     </row>
     <row r="129" spans="21:25" x14ac:dyDescent="0.3">
       <c r="U129" s="5" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="V129" t="s">
         <v>40</v>
       </c>
       <c r="X129" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="Y129" t="str">
         <f t="shared" si="1"/>
-        <v>0000010010000000010000000</v>
+        <v>0000010010000000010010000</v>
       </c>
     </row>
     <row r="130" spans="21:25" x14ac:dyDescent="0.3">
       <c r="U130" s="5" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="V130" t="s">
         <v>41</v>
       </c>
       <c r="X130" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="Y130" t="str">
         <f t="shared" si="1"/>
-        <v>0000010010000000010010000</v>
+        <v>0000010010000000010100000</v>
       </c>
     </row>
     <row r="131" spans="21:25" x14ac:dyDescent="0.3">
       <c r="U131" s="5" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="V131" t="s">
         <v>42</v>
       </c>
       <c r="X131" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="Y131" t="str">
         <f t="shared" si="1"/>
-        <v>0000010010000000001111000</v>
+        <v>0000010010000000010001000</v>
       </c>
     </row>
     <row r="132" spans="21:25" x14ac:dyDescent="0.3">
       <c r="U132" s="5" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="V132" t="s">
         <v>43</v>
       </c>
       <c r="X132" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="Y132" t="str">
         <f t="shared" si="1"/>
-        <v>0000010010000000010001000</v>
+        <v>0000010010000000010011000</v>
       </c>
     </row>
     <row r="133" spans="21:25" x14ac:dyDescent="0.3">
       <c r="U133" s="5" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="V133" t="s">
         <v>44</v>
       </c>
       <c r="X133" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="Y133" t="str">
         <f t="shared" si="1"/>
-        <v>0000010010000000010011000</v>
+        <v>0000010010000000010101000</v>
       </c>
     </row>
     <row r="134" spans="21:25" x14ac:dyDescent="0.3">
       <c r="U134" s="5" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="V134" t="s">
         <v>45</v>
       </c>
       <c r="X134" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="Y134" t="str">
         <f t="shared" si="1"/>
-        <v>0000000000000010111010000</v>
+        <v>0000000000000010100000000</v>
       </c>
     </row>
     <row r="135" spans="21:25" x14ac:dyDescent="0.3">
       <c r="U135" s="5" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="V135" t="s">
         <v>46</v>
       </c>
       <c r="X135" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="Y135" t="str">
         <f t="shared" si="1"/>
-        <v>0000010010000011111010000</v>
+        <v>0000010010000011100000000</v>
       </c>
     </row>
     <row r="136" spans="21:25" x14ac:dyDescent="0.3">
       <c r="U136" s="5" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="V136" t="s">
         <v>47</v>
       </c>
       <c r="X136" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="Y136" t="str">
         <f t="shared" si="1"/>
-        <v>0100010010000000011010000</v>
+        <v>0100010010000000000000000</v>
       </c>
     </row>
     <row r="137" spans="21:25" x14ac:dyDescent="0.3">
       <c r="U137" s="5" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="V137" t="s">
         <v>48</v>
       </c>
       <c r="X137" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="Y137" t="str">
         <f t="shared" si="1"/>
-        <v>1000000000000000011010000</v>
+        <v>1000000000000000000000000</v>
       </c>
     </row>
     <row r="138" spans="21:25" x14ac:dyDescent="0.3">
       <c r="U138" s="5" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="V138" t="s">
         <v>49</v>
       </c>
       <c r="X138" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="Y138" t="str">
         <f t="shared" si="1"/>
-        <v>0001010010000000011010000</v>
+        <v>0001010010000000000000000</v>
       </c>
     </row>
     <row r="139" spans="21:25" x14ac:dyDescent="0.3">
       <c r="U139" s="5" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="V139" t="s">
         <v>50</v>
       </c>
       <c r="X139" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="Y139" t="str">
         <f t="shared" si="1"/>
-        <v>0010000000000000011010000</v>
+        <v>0010000000000000000000000</v>
       </c>
     </row>
     <row r="140" spans="21:25" x14ac:dyDescent="0.3">
       <c r="U140" s="5" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="V140" t="s">
         <v>51</v>
       </c>
       <c r="X140" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="Y140" t="str">
         <f t="shared" si="1"/>
-        <v>1010010000000000010100000</v>
+        <v>1010010000000000010110000</v>
       </c>
     </row>
     <row r="141" spans="21:25" x14ac:dyDescent="0.3">
       <c r="U141" s="5" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="V141" t="s">
         <v>52</v>
       </c>
       <c r="X141" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="Y141" t="str">
         <f t="shared" si="1"/>
-        <v>1010110000000000010100000</v>
+        <v>1010110000000000010110000</v>
       </c>
     </row>
     <row r="142" spans="21:25" x14ac:dyDescent="0.3">
       <c r="U142" s="5" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="V142" t="s">
         <v>53</v>
       </c>
       <c r="X142" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="Y142" t="str">
         <f t="shared" si="1"/>
-        <v>1010010000000000010110000</v>
+        <v>1010010000000000011000000</v>
       </c>
     </row>
     <row r="143" spans="21:25" x14ac:dyDescent="0.3">
       <c r="U143" s="5" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="V143" t="s">
         <v>54</v>
       </c>
       <c r="X143" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="Y143" t="str">
         <f t="shared" si="1"/>
-        <v>1010110000000000010110000</v>
+        <v>1010110000000000011000000</v>
       </c>
     </row>
     <row r="144" spans="21:25" x14ac:dyDescent="0.3">
       <c r="U144" s="5" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="V144" t="s">
         <v>55</v>
       </c>
       <c r="X144" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="Y144" t="str">
         <f t="shared" si="1"/>
-        <v>0000010010000000001000000</v>
+        <v>0000010010000000001010000</v>
       </c>
     </row>
     <row r="145" spans="21:25" x14ac:dyDescent="0.3">
       <c r="U145" s="5" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="V145" t="s">
         <v>56</v>
       </c>
       <c r="X145" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="Y145" t="str">
         <f t="shared" si="1"/>
-        <v>0000110010000000001000000</v>
+        <v>0000110010000000001010000</v>
       </c>
     </row>
     <row r="146" spans="21:25" x14ac:dyDescent="0.3">
       <c r="U146" s="5" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="V146" t="s">
         <v>57</v>
       </c>
       <c r="X146" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="Y146" t="str">
         <f t="shared" si="1"/>
-        <v>0000010010000000001010000</v>
+        <v>0000010010000000001100000</v>
       </c>
     </row>
     <row r="147" spans="21:25" x14ac:dyDescent="0.3">
       <c r="U147" s="5" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="V147" t="s">
         <v>58</v>
       </c>
       <c r="X147" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="Y147" t="str">
         <f t="shared" si="1"/>
-        <v>0000110010000000001010000</v>
+        <v>0000110010000000001100000</v>
       </c>
     </row>
     <row r="148" spans="21:25" x14ac:dyDescent="0.3">
       <c r="U148" s="5" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="V148" t="s">
         <v>59</v>
       </c>
       <c r="X148" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="Y148" t="str">
         <f t="shared" si="1"/>
-        <v>0000010010000000000000000</v>
+        <v>0000010010000000000010000</v>
       </c>
     </row>
     <row r="149" spans="21:25" x14ac:dyDescent="0.3">
       <c r="U149" s="5" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="V149" t="s">
         <v>60</v>
       </c>
       <c r="X149" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="Y149" t="str">
         <f t="shared" si="1"/>
-        <v>0000010010000000000010000</v>
+        <v>0000010010000000000100000</v>
       </c>
     </row>
     <row r="150" spans="21:25" x14ac:dyDescent="0.3">
       <c r="U150" s="5" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="V150" t="s">
         <v>61</v>
       </c>
       <c r="X150" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="Y150" t="str">
         <f t="shared" si="1"/>
-        <v>0000010010000000000100000</v>
+        <v>0000010010000000000110000</v>
       </c>
     </row>
     <row r="151" spans="21:25" x14ac:dyDescent="0.3">
       <c r="U151" s="5" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="V151" t="s">
         <v>62</v>
       </c>
       <c r="X151" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="Y151" t="str">
         <f t="shared" si="1"/>
-        <v>0000010010000000000110000</v>
+        <v>0000010010000000001000000</v>
       </c>
     </row>
     <row r="152" spans="21:25" x14ac:dyDescent="0.3">
       <c r="U152" s="5" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="V152" t="s">
         <v>63</v>
       </c>
       <c r="X152" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="Y152" t="str">
         <f t="shared" si="1"/>
-        <v>0000010010000000001100000</v>
+        <v>0000010010000000001110000</v>
       </c>
     </row>
     <row r="153" spans="21:25" x14ac:dyDescent="0.3">
       <c r="U153" s="5" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="V153" t="s">
         <v>64</v>
       </c>
       <c r="X153" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="Y153" t="str">
         <f t="shared" si="1"/>
-        <v>0000110010000000001100000</v>
+        <v>0000110010000000001110000</v>
       </c>
     </row>
   </sheetData>

--- a/asm/mips32_all_control_signals_completed.xlsx
+++ b/asm/mips32_all_control_signals_completed.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2025_summer\Mips_single_cycle_verilog\asm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{997B493F-0D46-45F2-98D8-2562E10C9CBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF29EEE6-3B91-4A29-A20A-F25D01C10EE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="144">
   <si>
     <t>HI_READ</t>
   </si>
@@ -512,10 +512,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>`define</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>25'b</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -532,6 +528,14 @@
   </si>
   <si>
     <t>3:WordL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>J</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>`define CTRL_</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -950,8 +954,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{500BC5D6-0FEA-43C3-9C8B-4F5A60F1D4E7}">
   <dimension ref="A2:AC153"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J53" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AC22" sqref="AC22:AC84"/>
+    <sheetView tabSelected="1" topLeftCell="J96" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AA120" sqref="AA120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -987,7 +991,7 @@
   <sheetData>
     <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="R2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="S2">
         <v>0</v>
@@ -1249,14 +1253,14 @@
         <v>108</v>
       </c>
       <c r="U14" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.3">
       <c r="R15" s="2"/>
       <c r="T15" s="2"/>
       <c r="U15" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.3">
@@ -1379,7 +1383,7 @@
         <v>1</v>
       </c>
       <c r="S22" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="U22" s="6"/>
       <c r="W22" t="str" cm="1">
@@ -1428,7 +1432,7 @@
         <v>1</v>
       </c>
       <c r="S23" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="U23" s="6"/>
       <c r="W23" t="str" cm="1">
@@ -1471,7 +1475,7 @@
         <v>119</v>
       </c>
       <c r="S24" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="U24" s="6"/>
       <c r="W24" t="str" cm="1">
@@ -1511,7 +1515,7 @@
         <v>120</v>
       </c>
       <c r="S25" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="U25" s="6"/>
       <c r="W25" t="str" cm="1">
@@ -1551,7 +1555,7 @@
         <v>121</v>
       </c>
       <c r="S26" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="U26" s="6"/>
       <c r="W26" t="str" cm="1">
@@ -1591,7 +1595,7 @@
         <v>122</v>
       </c>
       <c r="S27" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="U27" s="6"/>
       <c r="W27" t="str" cm="1">
@@ -2682,7 +2686,7 @@
         <v>123</v>
       </c>
       <c r="S54" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="U54" s="6"/>
       <c r="W54" t="str" cm="1">
@@ -2722,7 +2726,7 @@
         <v>124</v>
       </c>
       <c r="S55" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="U55" s="6"/>
       <c r="W55" t="str" cm="1">
@@ -3083,7 +3087,7 @@
         <v>1</v>
       </c>
       <c r="S65" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="U65" s="6"/>
       <c r="W65" t="str" cm="1">
@@ -3138,7 +3142,7 @@
         <v>1</v>
       </c>
       <c r="S66" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="U66" s="6"/>
       <c r="W66" t="str" cm="1">
@@ -3190,7 +3194,7 @@
         <v>118</v>
       </c>
       <c r="S67" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="U67" s="6"/>
       <c r="W67" t="str" cm="1">
@@ -3233,7 +3237,7 @@
         <v>118</v>
       </c>
       <c r="S68" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="U68" s="6"/>
       <c r="W68" t="str" cm="1">
@@ -3282,7 +3286,7 @@
         <v>118</v>
       </c>
       <c r="S69" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="U69" s="6"/>
       <c r="W69" t="str" cm="1">
@@ -3325,7 +3329,7 @@
         <v>118</v>
       </c>
       <c r="S70" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="U70" s="6"/>
       <c r="W70" t="str" cm="1">
@@ -4042,13 +4046,13 @@
     </row>
     <row r="91" spans="1:29" x14ac:dyDescent="0.3">
       <c r="U91" s="5" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="V91" t="s">
-        <v>12</v>
+        <v>142</v>
       </c>
       <c r="X91" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Y91" t="str">
         <f>AC22</f>
@@ -4057,13 +4061,13 @@
     </row>
     <row r="92" spans="1:29" x14ac:dyDescent="0.3">
       <c r="U92" s="5" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="V92" t="s">
         <v>13</v>
       </c>
       <c r="X92" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Y92" t="str">
         <f t="shared" ref="Y92:Y153" si="1">AC23</f>
@@ -4072,13 +4076,13 @@
     </row>
     <row r="93" spans="1:29" x14ac:dyDescent="0.3">
       <c r="U93" s="5" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="V93" t="s">
         <v>14</v>
       </c>
       <c r="X93" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Y93" t="str">
         <f t="shared" si="1"/>
@@ -4087,13 +4091,13 @@
     </row>
     <row r="94" spans="1:29" x14ac:dyDescent="0.3">
       <c r="U94" s="5" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="V94" t="s">
         <v>15</v>
       </c>
       <c r="X94" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Y94" t="str">
         <f t="shared" si="1"/>
@@ -4102,13 +4106,13 @@
     </row>
     <row r="95" spans="1:29" x14ac:dyDescent="0.3">
       <c r="U95" s="5" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="V95" t="s">
         <v>16</v>
       </c>
       <c r="X95" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Y95" t="str">
         <f t="shared" si="1"/>
@@ -4117,13 +4121,13 @@
     </row>
     <row r="96" spans="1:29" x14ac:dyDescent="0.3">
       <c r="U96" s="5" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="V96" t="s">
         <v>17</v>
       </c>
       <c r="X96" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Y96" t="str">
         <f t="shared" si="1"/>
@@ -4132,13 +4136,13 @@
     </row>
     <row r="97" spans="21:25" x14ac:dyDescent="0.3">
       <c r="U97" s="5" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="V97" t="s">
         <v>18</v>
       </c>
       <c r="X97" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Y97" t="str">
         <f t="shared" si="1"/>
@@ -4147,13 +4151,13 @@
     </row>
     <row r="98" spans="21:25" x14ac:dyDescent="0.3">
       <c r="U98" s="5" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="V98" t="s">
         <v>19</v>
       </c>
       <c r="X98" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Y98" t="str">
         <f t="shared" si="1"/>
@@ -4162,13 +4166,13 @@
     </row>
     <row r="99" spans="21:25" x14ac:dyDescent="0.3">
       <c r="U99" s="5" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="V99" t="s">
         <v>20</v>
       </c>
       <c r="X99" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Y99" t="str">
         <f t="shared" si="1"/>
@@ -4177,13 +4181,13 @@
     </row>
     <row r="100" spans="21:25" x14ac:dyDescent="0.3">
       <c r="U100" s="5" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="V100" t="s">
         <v>21</v>
       </c>
       <c r="X100" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Y100" t="str">
         <f t="shared" si="1"/>
@@ -4192,13 +4196,13 @@
     </row>
     <row r="101" spans="21:25" x14ac:dyDescent="0.3">
       <c r="U101" s="5" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="V101" t="s">
         <v>22</v>
       </c>
       <c r="X101" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Y101" t="str">
         <f t="shared" si="1"/>
@@ -4207,13 +4211,13 @@
     </row>
     <row r="102" spans="21:25" x14ac:dyDescent="0.3">
       <c r="U102" s="5" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="V102" t="s">
         <v>23</v>
       </c>
       <c r="X102" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Y102" t="str">
         <f t="shared" si="1"/>
@@ -4222,13 +4226,13 @@
     </row>
     <row r="103" spans="21:25" x14ac:dyDescent="0.3">
       <c r="U103" s="5" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="V103" t="s">
         <v>24</v>
       </c>
       <c r="X103" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Y103" t="str">
         <f t="shared" si="1"/>
@@ -4237,28 +4241,33 @@
     </row>
     <row r="104" spans="21:25" x14ac:dyDescent="0.3">
       <c r="U104" s="5" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="V104" t="s">
         <v>25</v>
       </c>
       <c r="X104" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Y104" t="str">
         <f t="shared" si="1"/>
         <v>0000001010000000000010000</v>
+      </c>
+    </row>
+    <row r="105" spans="21:25" x14ac:dyDescent="0.3">
+      <c r="U105" s="5" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="106" spans="21:25" x14ac:dyDescent="0.3">
       <c r="U106" s="5" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="V106" t="s">
         <v>26</v>
       </c>
       <c r="X106" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Y106" t="str">
         <f t="shared" si="1"/>
@@ -4267,13 +4276,13 @@
     </row>
     <row r="107" spans="21:25" x14ac:dyDescent="0.3">
       <c r="U107" s="5" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="V107" t="s">
         <v>27</v>
       </c>
       <c r="X107" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Y107" t="str">
         <f t="shared" si="1"/>
@@ -4282,13 +4291,13 @@
     </row>
     <row r="108" spans="21:25" x14ac:dyDescent="0.3">
       <c r="U108" s="5" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="V108" t="s">
         <v>31</v>
       </c>
       <c r="X108" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Y108" t="str">
         <f t="shared" si="1"/>
@@ -4297,13 +4306,13 @@
     </row>
     <row r="109" spans="21:25" x14ac:dyDescent="0.3">
       <c r="U109" s="5" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="V109" t="s">
         <v>28</v>
       </c>
       <c r="X109" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Y109" t="str">
         <f t="shared" si="1"/>
@@ -4312,13 +4321,13 @@
     </row>
     <row r="110" spans="21:25" x14ac:dyDescent="0.3">
       <c r="U110" s="5" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="V110" t="s">
         <v>29</v>
       </c>
       <c r="X110" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Y110" t="str">
         <f t="shared" si="1"/>
@@ -4327,13 +4336,13 @@
     </row>
     <row r="111" spans="21:25" x14ac:dyDescent="0.3">
       <c r="U111" s="5" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="V111" t="s">
         <v>30</v>
       </c>
       <c r="X111" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Y111" t="str">
         <f t="shared" si="1"/>
@@ -4342,28 +4351,33 @@
     </row>
     <row r="112" spans="21:25" x14ac:dyDescent="0.3">
       <c r="U112" s="5" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="V112" t="s">
         <v>32</v>
       </c>
       <c r="X112" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Y112" t="str">
         <f t="shared" si="1"/>
         <v>0000001111000000001010100</v>
+      </c>
+    </row>
+    <row r="113" spans="21:25" x14ac:dyDescent="0.3">
+      <c r="U113" s="5" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="114" spans="21:25" x14ac:dyDescent="0.3">
       <c r="U114" s="5" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="V114" t="s">
         <v>33</v>
       </c>
       <c r="X114" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Y114" t="str">
         <f t="shared" si="1"/>
@@ -4372,13 +4386,13 @@
     </row>
     <row r="115" spans="21:25" x14ac:dyDescent="0.3">
       <c r="U115" s="5" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="V115" t="s">
         <v>34</v>
       </c>
       <c r="X115" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Y115" t="str">
         <f t="shared" si="1"/>
@@ -4387,13 +4401,13 @@
     </row>
     <row r="116" spans="21:25" x14ac:dyDescent="0.3">
       <c r="U116" s="5" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="V116" t="s">
         <v>36</v>
       </c>
       <c r="X116" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Y116" t="str">
         <f t="shared" si="1"/>
@@ -4402,13 +4416,13 @@
     </row>
     <row r="117" spans="21:25" x14ac:dyDescent="0.3">
       <c r="U117" s="5" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="V117" t="s">
         <v>35</v>
       </c>
       <c r="X117" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Y117" t="str">
         <f t="shared" si="1"/>
@@ -4417,28 +4431,48 @@
     </row>
     <row r="118" spans="21:25" x14ac:dyDescent="0.3">
       <c r="U118" s="5" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="V118" t="s">
         <v>37</v>
       </c>
       <c r="X118" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Y118" t="str">
         <f t="shared" si="1"/>
         <v>0000001000100000001010100</v>
+      </c>
+    </row>
+    <row r="119" spans="21:25" x14ac:dyDescent="0.3">
+      <c r="U119" s="5" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="120" spans="21:25" x14ac:dyDescent="0.3">
+      <c r="U120" s="5" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="121" spans="21:25" x14ac:dyDescent="0.3">
+      <c r="U121" s="5" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="122" spans="21:25" x14ac:dyDescent="0.3">
+      <c r="U122" s="5" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="123" spans="21:25" x14ac:dyDescent="0.3">
       <c r="U123" s="5" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="V123" t="s">
         <v>38</v>
       </c>
       <c r="X123" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Y123" t="str">
         <f t="shared" si="1"/>
@@ -4447,28 +4481,43 @@
     </row>
     <row r="124" spans="21:25" x14ac:dyDescent="0.3">
       <c r="U124" s="5" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="V124" t="s">
         <v>116</v>
       </c>
       <c r="X124" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Y124" t="str">
         <f t="shared" si="1"/>
         <v>0000000000011000000000000</v>
+      </c>
+    </row>
+    <row r="125" spans="21:25" x14ac:dyDescent="0.3">
+      <c r="U125" s="5" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="126" spans="21:25" x14ac:dyDescent="0.3">
+      <c r="U126" s="5" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="127" spans="21:25" x14ac:dyDescent="0.3">
+      <c r="U127" s="5" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="128" spans="21:25" x14ac:dyDescent="0.3">
       <c r="U128" s="5" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="V128" t="s">
         <v>39</v>
       </c>
       <c r="X128" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Y128" t="str">
         <f t="shared" si="1"/>
@@ -4477,13 +4526,13 @@
     </row>
     <row r="129" spans="21:25" x14ac:dyDescent="0.3">
       <c r="U129" s="5" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="V129" t="s">
         <v>40</v>
       </c>
       <c r="X129" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Y129" t="str">
         <f t="shared" si="1"/>
@@ -4492,13 +4541,13 @@
     </row>
     <row r="130" spans="21:25" x14ac:dyDescent="0.3">
       <c r="U130" s="5" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="V130" t="s">
         <v>41</v>
       </c>
       <c r="X130" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Y130" t="str">
         <f t="shared" si="1"/>
@@ -4507,13 +4556,13 @@
     </row>
     <row r="131" spans="21:25" x14ac:dyDescent="0.3">
       <c r="U131" s="5" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="V131" t="s">
         <v>42</v>
       </c>
       <c r="X131" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Y131" t="str">
         <f t="shared" si="1"/>
@@ -4522,13 +4571,13 @@
     </row>
     <row r="132" spans="21:25" x14ac:dyDescent="0.3">
       <c r="U132" s="5" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="V132" t="s">
         <v>43</v>
       </c>
       <c r="X132" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Y132" t="str">
         <f t="shared" si="1"/>
@@ -4537,13 +4586,13 @@
     </row>
     <row r="133" spans="21:25" x14ac:dyDescent="0.3">
       <c r="U133" s="5" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="V133" t="s">
         <v>44</v>
       </c>
       <c r="X133" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Y133" t="str">
         <f t="shared" si="1"/>
@@ -4552,13 +4601,13 @@
     </row>
     <row r="134" spans="21:25" x14ac:dyDescent="0.3">
       <c r="U134" s="5" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="V134" t="s">
         <v>45</v>
       </c>
       <c r="X134" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Y134" t="str">
         <f t="shared" si="1"/>
@@ -4567,13 +4616,13 @@
     </row>
     <row r="135" spans="21:25" x14ac:dyDescent="0.3">
       <c r="U135" s="5" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="V135" t="s">
         <v>46</v>
       </c>
       <c r="X135" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Y135" t="str">
         <f t="shared" si="1"/>
@@ -4582,13 +4631,13 @@
     </row>
     <row r="136" spans="21:25" x14ac:dyDescent="0.3">
       <c r="U136" s="5" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="V136" t="s">
         <v>47</v>
       </c>
       <c r="X136" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Y136" t="str">
         <f t="shared" si="1"/>
@@ -4597,13 +4646,13 @@
     </row>
     <row r="137" spans="21:25" x14ac:dyDescent="0.3">
       <c r="U137" s="5" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="V137" t="s">
         <v>48</v>
       </c>
       <c r="X137" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Y137" t="str">
         <f t="shared" si="1"/>
@@ -4612,13 +4661,13 @@
     </row>
     <row r="138" spans="21:25" x14ac:dyDescent="0.3">
       <c r="U138" s="5" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="V138" t="s">
         <v>49</v>
       </c>
       <c r="X138" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Y138" t="str">
         <f t="shared" si="1"/>
@@ -4627,13 +4676,13 @@
     </row>
     <row r="139" spans="21:25" x14ac:dyDescent="0.3">
       <c r="U139" s="5" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="V139" t="s">
         <v>50</v>
       </c>
       <c r="X139" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Y139" t="str">
         <f t="shared" si="1"/>
@@ -4642,13 +4691,13 @@
     </row>
     <row r="140" spans="21:25" x14ac:dyDescent="0.3">
       <c r="U140" s="5" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="V140" t="s">
         <v>51</v>
       </c>
       <c r="X140" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Y140" t="str">
         <f t="shared" si="1"/>
@@ -4657,13 +4706,13 @@
     </row>
     <row r="141" spans="21:25" x14ac:dyDescent="0.3">
       <c r="U141" s="5" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="V141" t="s">
         <v>52</v>
       </c>
       <c r="X141" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Y141" t="str">
         <f t="shared" si="1"/>
@@ -4672,13 +4721,13 @@
     </row>
     <row r="142" spans="21:25" x14ac:dyDescent="0.3">
       <c r="U142" s="5" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="V142" t="s">
         <v>53</v>
       </c>
       <c r="X142" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Y142" t="str">
         <f t="shared" si="1"/>
@@ -4687,13 +4736,13 @@
     </row>
     <row r="143" spans="21:25" x14ac:dyDescent="0.3">
       <c r="U143" s="5" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="V143" t="s">
         <v>54</v>
       </c>
       <c r="X143" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Y143" t="str">
         <f t="shared" si="1"/>
@@ -4702,13 +4751,13 @@
     </row>
     <row r="144" spans="21:25" x14ac:dyDescent="0.3">
       <c r="U144" s="5" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="V144" t="s">
         <v>55</v>
       </c>
       <c r="X144" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Y144" t="str">
         <f t="shared" si="1"/>
@@ -4717,13 +4766,13 @@
     </row>
     <row r="145" spans="21:25" x14ac:dyDescent="0.3">
       <c r="U145" s="5" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="V145" t="s">
         <v>56</v>
       </c>
       <c r="X145" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Y145" t="str">
         <f t="shared" si="1"/>
@@ -4732,13 +4781,13 @@
     </row>
     <row r="146" spans="21:25" x14ac:dyDescent="0.3">
       <c r="U146" s="5" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="V146" t="s">
         <v>57</v>
       </c>
       <c r="X146" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Y146" t="str">
         <f t="shared" si="1"/>
@@ -4747,13 +4796,13 @@
     </row>
     <row r="147" spans="21:25" x14ac:dyDescent="0.3">
       <c r="U147" s="5" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="V147" t="s">
         <v>58</v>
       </c>
       <c r="X147" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Y147" t="str">
         <f t="shared" si="1"/>
@@ -4762,13 +4811,13 @@
     </row>
     <row r="148" spans="21:25" x14ac:dyDescent="0.3">
       <c r="U148" s="5" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="V148" t="s">
         <v>59</v>
       </c>
       <c r="X148" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Y148" t="str">
         <f t="shared" si="1"/>
@@ -4777,13 +4826,13 @@
     </row>
     <row r="149" spans="21:25" x14ac:dyDescent="0.3">
       <c r="U149" s="5" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="V149" t="s">
         <v>60</v>
       </c>
       <c r="X149" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Y149" t="str">
         <f t="shared" si="1"/>
@@ -4792,13 +4841,13 @@
     </row>
     <row r="150" spans="21:25" x14ac:dyDescent="0.3">
       <c r="U150" s="5" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="V150" t="s">
         <v>61</v>
       </c>
       <c r="X150" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Y150" t="str">
         <f t="shared" si="1"/>
@@ -4807,13 +4856,13 @@
     </row>
     <row r="151" spans="21:25" x14ac:dyDescent="0.3">
       <c r="U151" s="5" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="V151" t="s">
         <v>62</v>
       </c>
       <c r="X151" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Y151" t="str">
         <f t="shared" si="1"/>
@@ -4822,13 +4871,13 @@
     </row>
     <row r="152" spans="21:25" x14ac:dyDescent="0.3">
       <c r="U152" s="5" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="V152" t="s">
         <v>63</v>
       </c>
       <c r="X152" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Y152" t="str">
         <f t="shared" si="1"/>
@@ -4837,13 +4886,13 @@
     </row>
     <row r="153" spans="21:25" x14ac:dyDescent="0.3">
       <c r="U153" s="5" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="V153" t="s">
         <v>64</v>
       </c>
       <c r="X153" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Y153" t="str">
         <f t="shared" si="1"/>

--- a/asm/mips32_all_control_signals_completed.xlsx
+++ b/asm/mips32_all_control_signals_completed.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2025_summer\Mips_single_cycle_verilog\asm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF29EEE6-3B91-4A29-A20A-F25D01C10EE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB684A32-89C9-455F-ADF4-DEC658E92571}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5910" yWindow="6045" windowWidth="21600" windowHeight="11235" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="2" r:id="rId1"/>
@@ -954,42 +954,41 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{500BC5D6-0FEA-43C3-9C8B-4F5A60F1D4E7}">
   <dimension ref="A2:AC153"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J96" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AA120" sqref="AA120"/>
+    <sheetView tabSelected="1" topLeftCell="A60" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H73" sqref="H73"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.125" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.25" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17.75" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.25" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13.625" customWidth="1"/>
-    <col min="21" max="21" width="19.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="19.25" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="10.375" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="31.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.5703125" customWidth="1"/>
+    <col min="21" max="21" width="19.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="31.42578125" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="11" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="29.375" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="34.25" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="34.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="R2" t="s">
         <v>139</v>
       </c>
@@ -998,7 +997,7 @@
       </c>
       <c r="T2" s="2"/>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="R3" s="2" t="s">
         <v>126</v>
       </c>
@@ -1007,7 +1006,7 @@
       </c>
       <c r="T3" s="2"/>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="N4" t="s">
         <v>118</v>
       </c>
@@ -1022,7 +1021,7 @@
       </c>
       <c r="T4" s="2"/>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="N5" t="s">
         <v>119</v>
       </c>
@@ -1037,7 +1036,7 @@
       </c>
       <c r="T5" s="2"/>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="N6" t="s">
         <v>120</v>
       </c>
@@ -1052,7 +1051,7 @@
       </c>
       <c r="T6" s="2"/>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="N7" t="s">
         <v>121</v>
       </c>
@@ -1067,7 +1066,7 @@
       </c>
       <c r="T7" s="2"/>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="N8" t="s">
         <v>122</v>
       </c>
@@ -1082,7 +1081,7 @@
       </c>
       <c r="T8" s="2"/>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="N9" t="s">
         <v>123</v>
       </c>
@@ -1097,7 +1096,7 @@
       </c>
       <c r="T9" s="2"/>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="N10" t="s">
         <v>124</v>
       </c>
@@ -1112,7 +1111,7 @@
       </c>
       <c r="T10" s="2"/>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="R11" s="2" t="s">
         <v>133</v>
       </c>
@@ -1124,7 +1123,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="P12" t="s">
         <v>69</v>
       </c>
@@ -1144,7 +1143,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>78</v>
       </c>
@@ -1200,7 +1199,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>83</v>
       </c>
@@ -1256,14 +1255,14 @@
         <v>141</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="R15" s="2"/>
       <c r="T15" s="2"/>
       <c r="U15" s="5" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>115</v>
       </c>
@@ -1273,17 +1272,17 @@
       </c>
       <c r="T16" s="2"/>
     </row>
-    <row r="17" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:29" x14ac:dyDescent="0.25">
       <c r="R17" s="2"/>
       <c r="T17" s="2"/>
     </row>
-    <row r="18" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:29" x14ac:dyDescent="0.25">
       <c r="AC18">
         <f>LEN(AC22)</f>
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>75</v>
       </c>
@@ -1351,7 +1350,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="20" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>71</v>
       </c>
@@ -1360,7 +1359,7 @@
       </c>
       <c r="U20" s="6"/>
     </row>
-    <row r="21" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>72</v>
       </c>
@@ -1369,7 +1368,7 @@
       </c>
       <c r="U21" s="6"/>
     </row>
-    <row r="22" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>87</v>
       </c>
@@ -1415,7 +1414,7 @@
         <v>0000000000000010000000000</v>
       </c>
     </row>
-    <row r="23" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B23" s="4" t="s">
         <v>13</v>
       </c>
@@ -1464,7 +1463,7 @@
         <v>0000000010000011000000000</v>
       </c>
     </row>
-    <row r="24" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>88</v>
       </c>
@@ -1507,7 +1506,7 @@
         <v>0000000000000100000000000</v>
       </c>
     </row>
-    <row r="25" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B25" s="4" t="s">
         <v>15</v>
       </c>
@@ -1547,7 +1546,7 @@
         <v>0000000000001000000000000</v>
       </c>
     </row>
-    <row r="26" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B26" s="4" t="s">
         <v>16</v>
       </c>
@@ -1587,7 +1586,7 @@
         <v>0000000000001100000000000</v>
       </c>
     </row>
-    <row r="27" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B27" s="4" t="s">
         <v>17</v>
       </c>
@@ -1627,7 +1626,7 @@
         <v>0000000000010000000000000</v>
       </c>
     </row>
-    <row r="28" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>89</v>
       </c>
@@ -1676,12 +1675,9 @@
         <v>0000001010000000001010000</v>
       </c>
     </row>
-    <row r="29" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B29" s="4" t="s">
         <v>19</v>
-      </c>
-      <c r="G29">
-        <v>1</v>
       </c>
       <c r="I29">
         <v>1</v>
@@ -1698,7 +1694,7 @@
       <c r="U29" s="6"/>
       <c r="W29" t="str" cm="1">
         <f t="array" ref="W29">_xlfn.TEXTJOIN("", TRUE, IF(C29:M29="", "0", C29:M29))</f>
-        <v>00001010100</v>
+        <v>00000010100</v>
       </c>
       <c r="X29" t="str">
         <f>DEC2BIN(VLOOKUP(表格2[[#This Row],[BRANCH]],$N$4:$O$10,2,FALSE),3)</f>
@@ -1722,10 +1718,10 @@
       </c>
       <c r="AC29" t="str">
         <f t="shared" si="0"/>
-        <v>0000101010000000001010000</v>
-      </c>
-    </row>
-    <row r="30" spans="1:29" x14ac:dyDescent="0.3">
+        <v>0000001010000000001010000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B30" s="4" t="s">
         <v>20</v>
       </c>
@@ -1771,12 +1767,9 @@
         <v>0000001010000000001110000</v>
       </c>
     </row>
-    <row r="31" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B31" s="4" t="s">
         <v>21</v>
-      </c>
-      <c r="G31">
-        <v>1</v>
       </c>
       <c r="I31">
         <v>1</v>
@@ -1793,7 +1786,7 @@
       <c r="U31" s="6"/>
       <c r="W31" t="str" cm="1">
         <f t="array" ref="W31">_xlfn.TEXTJOIN("", TRUE, IF(C31:M31="", "0", C31:M31))</f>
-        <v>00001010100</v>
+        <v>00000010100</v>
       </c>
       <c r="X31" t="str">
         <f>DEC2BIN(VLOOKUP(表格2[[#This Row],[BRANCH]],$N$4:$O$10,2,FALSE),3)</f>
@@ -1817,10 +1810,10 @@
       </c>
       <c r="AC31" t="str">
         <f t="shared" si="0"/>
-        <v>0000101010000000001110000</v>
-      </c>
-    </row>
-    <row r="32" spans="1:29" x14ac:dyDescent="0.3">
+        <v>0000001010000000001110000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B32" s="4" t="s">
         <v>22</v>
       </c>
@@ -1866,7 +1859,7 @@
         <v>0000001010000000000010000</v>
       </c>
     </row>
-    <row r="33" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B33" s="4" t="s">
         <v>23</v>
       </c>
@@ -1912,7 +1905,7 @@
         <v>0000001010000000000100000</v>
       </c>
     </row>
-    <row r="34" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B34" s="4" t="s">
         <v>24</v>
       </c>
@@ -1958,7 +1951,7 @@
         <v>0000001010000000000110000</v>
       </c>
     </row>
-    <row r="35" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B35" s="4" t="s">
         <v>25</v>
       </c>
@@ -2004,7 +1997,7 @@
         <v>0000001010000000000010000</v>
       </c>
     </row>
-    <row r="36" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B36" s="4"/>
       <c r="U36" s="6"/>
       <c r="AC36" t="str">
@@ -2012,7 +2005,7 @@
         <v/>
       </c>
     </row>
-    <row r="37" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>90</v>
       </c>
@@ -2069,7 +2062,7 @@
         <v>0000001111000000001010010</v>
       </c>
     </row>
-    <row r="38" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B38" s="4" t="s">
         <v>27</v>
       </c>
@@ -2123,7 +2116,7 @@
         <v>0000001111000000001010001</v>
       </c>
     </row>
-    <row r="39" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B39" s="4" t="s">
         <v>31</v>
       </c>
@@ -2177,7 +2170,7 @@
         <v>0000001111000000001010011</v>
       </c>
     </row>
-    <row r="40" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B40" s="4" t="s">
         <v>28</v>
       </c>
@@ -2229,13 +2222,10 @@
         <v>0000001111000000001010000</v>
       </c>
     </row>
-    <row r="41" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B41" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="G41">
-        <v>1</v>
-      </c>
       <c r="I41">
         <v>1</v>
       </c>
@@ -2259,7 +2249,7 @@
       </c>
       <c r="W41" t="str" cm="1">
         <f t="array" ref="W41">_xlfn.TEXTJOIN("", TRUE, IF(C41:M41="", "0", C41:M41))</f>
-        <v>00001011110</v>
+        <v>00000011110</v>
       </c>
       <c r="X41" t="str">
         <f>DEC2BIN(VLOOKUP(表格2[[#This Row],[BRANCH]],$N$4:$O$10,2,FALSE),3)</f>
@@ -2283,16 +2273,13 @@
       </c>
       <c r="AC41" t="str">
         <f t="shared" si="0"/>
-        <v>0000101111000000001010010</v>
-      </c>
-    </row>
-    <row r="42" spans="1:29" x14ac:dyDescent="0.3">
+        <v>0000001111000000001010010</v>
+      </c>
+    </row>
+    <row r="42" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B42" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="G42">
-        <v>1</v>
-      </c>
       <c r="I42">
         <v>1</v>
       </c>
@@ -2316,7 +2303,7 @@
       </c>
       <c r="W42" t="str" cm="1">
         <f t="array" ref="W42">_xlfn.TEXTJOIN("", TRUE, IF(C42:M42="", "0", C42:M42))</f>
-        <v>00001011110</v>
+        <v>00000011110</v>
       </c>
       <c r="X42" t="str">
         <f>DEC2BIN(VLOOKUP(表格2[[#This Row],[BRANCH]],$N$4:$O$10,2,FALSE),3)</f>
@@ -2340,10 +2327,10 @@
       </c>
       <c r="AC42" t="str">
         <f t="shared" si="0"/>
-        <v>0000101111000000001010001</v>
-      </c>
-    </row>
-    <row r="43" spans="1:29" x14ac:dyDescent="0.3">
+        <v>0000001111000000001010001</v>
+      </c>
+    </row>
+    <row r="43" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B43" s="4" t="s">
         <v>32</v>
       </c>
@@ -2397,7 +2384,7 @@
         <v>0000001111000000001010100</v>
       </c>
     </row>
-    <row r="44" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B44" s="4"/>
       <c r="U44" s="6"/>
       <c r="AC44" t="str">
@@ -2405,7 +2392,7 @@
         <v/>
       </c>
     </row>
-    <row r="45" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B45" s="4" t="s">
         <v>33</v>
       </c>
@@ -2453,7 +2440,7 @@
         <v>0000001000100000001010010</v>
       </c>
     </row>
-    <row r="46" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B46" s="4" t="s">
         <v>34</v>
       </c>
@@ -2501,7 +2488,7 @@
         <v>0000001000100000001010001</v>
       </c>
     </row>
-    <row r="47" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B47" s="4" t="s">
         <v>36</v>
       </c>
@@ -2549,7 +2536,7 @@
         <v>0000001000100000001010011</v>
       </c>
     </row>
-    <row r="48" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B48" s="4" t="s">
         <v>35</v>
       </c>
@@ -2595,7 +2582,7 @@
         <v>0000001000100000001010000</v>
       </c>
     </row>
-    <row r="49" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B49" s="4" t="s">
         <v>37</v>
       </c>
@@ -2643,7 +2630,7 @@
         <v>0000001000100000001010100</v>
       </c>
     </row>
-    <row r="50" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B50" s="4"/>
       <c r="U50" s="6"/>
       <c r="AC50" t="str">
@@ -2651,7 +2638,7 @@
         <v/>
       </c>
     </row>
-    <row r="51" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B51" s="4"/>
       <c r="U51" s="6"/>
       <c r="AC51" t="str">
@@ -2659,7 +2646,7 @@
         <v/>
       </c>
     </row>
-    <row r="52" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B52" s="4"/>
       <c r="U52" s="6"/>
       <c r="AC52" t="str">
@@ -2667,7 +2654,7 @@
         <v/>
       </c>
     </row>
-    <row r="53" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B53" s="4"/>
       <c r="U53" s="6"/>
       <c r="AC53" t="str">
@@ -2675,7 +2662,7 @@
         <v/>
       </c>
     </row>
-    <row r="54" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>72</v>
       </c>
@@ -2718,7 +2705,7 @@
         <v>0000000000010100000000000</v>
       </c>
     </row>
-    <row r="55" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B55" s="4" t="s">
         <v>117</v>
       </c>
@@ -2758,7 +2745,7 @@
         <v>0000000000011000000000000</v>
       </c>
     </row>
-    <row r="56" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B56" s="4"/>
       <c r="U56" s="6"/>
       <c r="AC56" t="str">
@@ -2766,7 +2753,7 @@
         <v/>
       </c>
     </row>
-    <row r="57" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B57" s="4"/>
       <c r="U57" s="6"/>
       <c r="AC57" t="str">
@@ -2774,7 +2761,7 @@
         <v/>
       </c>
     </row>
-    <row r="58" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B58" s="4"/>
       <c r="U58" s="6"/>
       <c r="AC58" t="str">
@@ -2782,7 +2769,7 @@
         <v/>
       </c>
     </row>
-    <row r="59" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>91</v>
       </c>
@@ -2831,7 +2818,7 @@
         <v>0000010010000000010000000</v>
       </c>
     </row>
-    <row r="60" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B60" s="4" t="s">
         <v>40</v>
       </c>
@@ -2877,7 +2864,7 @@
         <v>0000010010000000010010000</v>
       </c>
     </row>
-    <row r="61" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B61" s="4" t="s">
         <v>41</v>
       </c>
@@ -2923,7 +2910,7 @@
         <v>0000010010000000010100000</v>
       </c>
     </row>
-    <row r="62" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B62" s="4" t="s">
         <v>42</v>
       </c>
@@ -2972,7 +2959,7 @@
         <v>0000010010000000010001000</v>
       </c>
     </row>
-    <row r="63" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B63" s="4" t="s">
         <v>43</v>
       </c>
@@ -3021,7 +3008,7 @@
         <v>0000010010000000010011000</v>
       </c>
     </row>
-    <row r="64" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B64" s="4" t="s">
         <v>44</v>
       </c>
@@ -3070,7 +3057,7 @@
         <v>0000010010000000010101000</v>
       </c>
     </row>
-    <row r="65" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>92</v>
       </c>
@@ -3119,7 +3106,7 @@
         <v>0000000000000010100000000</v>
       </c>
     </row>
-    <row r="66" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B66" s="4" t="s">
         <v>46</v>
       </c>
@@ -3174,7 +3161,7 @@
         <v>0000010010000011100000000</v>
       </c>
     </row>
-    <row r="67" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>93</v>
       </c>
@@ -3226,7 +3213,7 @@
         <v>0100010010000000000000000</v>
       </c>
     </row>
-    <row r="68" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B68" s="4" t="s">
         <v>48</v>
       </c>
@@ -3269,7 +3256,7 @@
         <v>1000000000000000000000000</v>
       </c>
     </row>
-    <row r="69" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B69" s="4" t="s">
         <v>49</v>
       </c>
@@ -3318,7 +3305,7 @@
         <v>0001010010000000000000000</v>
       </c>
     </row>
-    <row r="70" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B70" s="4" t="s">
         <v>50</v>
       </c>
@@ -3361,7 +3348,7 @@
         <v>0010000000000000000000000</v>
       </c>
     </row>
-    <row r="71" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>94</v>
       </c>
@@ -3413,7 +3400,7 @@
         <v>1010010000000000010110000</v>
       </c>
     </row>
-    <row r="72" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B72" s="4" t="s">
         <v>52</v>
       </c>
@@ -3465,7 +3452,7 @@
         <v>1010110000000000010110000</v>
       </c>
     </row>
-    <row r="73" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B73" s="4" t="s">
         <v>53</v>
       </c>
@@ -3514,7 +3501,7 @@
         <v>1010010000000000011000000</v>
       </c>
     </row>
-    <row r="74" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B74" s="4" t="s">
         <v>54</v>
       </c>
@@ -3566,7 +3553,7 @@
         <v>1010110000000000011000000</v>
       </c>
     </row>
-    <row r="75" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B75" s="4" t="s">
         <v>55</v>
       </c>
@@ -3612,7 +3599,7 @@
         <v>0000010010000000001010000</v>
       </c>
     </row>
-    <row r="76" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B76" s="4" t="s">
         <v>56</v>
       </c>
@@ -3661,7 +3648,7 @@
         <v>0000110010000000001010000</v>
       </c>
     </row>
-    <row r="77" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B77" s="4" t="s">
         <v>57</v>
       </c>
@@ -3707,7 +3694,7 @@
         <v>0000010010000000001100000</v>
       </c>
     </row>
-    <row r="78" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B78" s="4" t="s">
         <v>58</v>
       </c>
@@ -3756,7 +3743,7 @@
         <v>0000110010000000001100000</v>
       </c>
     </row>
-    <row r="79" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B79" s="4" t="s">
         <v>59</v>
       </c>
@@ -3802,7 +3789,7 @@
         <v>0000010010000000000010000</v>
       </c>
     </row>
-    <row r="80" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B80" s="4" t="s">
         <v>60</v>
       </c>
@@ -3848,7 +3835,7 @@
         <v>0000010010000000000100000</v>
       </c>
     </row>
-    <row r="81" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B81" s="4" t="s">
         <v>61</v>
       </c>
@@ -3894,7 +3881,7 @@
         <v>0000010010000000000110000</v>
       </c>
     </row>
-    <row r="82" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B82" s="4" t="s">
         <v>62</v>
       </c>
@@ -3940,7 +3927,7 @@
         <v>0000010010000000001000000</v>
       </c>
     </row>
-    <row r="83" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>95</v>
       </c>
@@ -3989,7 +3976,7 @@
         <v>0000010010000000001110000</v>
       </c>
     </row>
-    <row r="84" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B84" s="4" t="s">
         <v>64</v>
       </c>
@@ -4038,13 +4025,13 @@
         <v>0000110010000000001110000</v>
       </c>
     </row>
-    <row r="85" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:29" x14ac:dyDescent="0.25">
       <c r="U85" s="6"/>
     </row>
-    <row r="86" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:29" x14ac:dyDescent="0.25">
       <c r="U86" s="6"/>
     </row>
-    <row r="91" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:29" x14ac:dyDescent="0.25">
       <c r="U91" s="5" t="s">
         <v>143</v>
       </c>
@@ -4059,7 +4046,7 @@
         <v>0000000000000010000000000</v>
       </c>
     </row>
-    <row r="92" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:29" x14ac:dyDescent="0.25">
       <c r="U92" s="5" t="s">
         <v>143</v>
       </c>
@@ -4074,7 +4061,7 @@
         <v>0000000010000011000000000</v>
       </c>
     </row>
-    <row r="93" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:29" x14ac:dyDescent="0.25">
       <c r="U93" s="5" t="s">
         <v>143</v>
       </c>
@@ -4089,7 +4076,7 @@
         <v>0000000000000100000000000</v>
       </c>
     </row>
-    <row r="94" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:29" x14ac:dyDescent="0.25">
       <c r="U94" s="5" t="s">
         <v>143</v>
       </c>
@@ -4104,7 +4091,7 @@
         <v>0000000000001000000000000</v>
       </c>
     </row>
-    <row r="95" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:29" x14ac:dyDescent="0.25">
       <c r="U95" s="5" t="s">
         <v>143</v>
       </c>
@@ -4119,7 +4106,7 @@
         <v>0000000000001100000000000</v>
       </c>
     </row>
-    <row r="96" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:29" x14ac:dyDescent="0.25">
       <c r="U96" s="5" t="s">
         <v>143</v>
       </c>
@@ -4134,7 +4121,7 @@
         <v>0000000000010000000000000</v>
       </c>
     </row>
-    <row r="97" spans="21:25" x14ac:dyDescent="0.3">
+    <row r="97" spans="21:25" x14ac:dyDescent="0.25">
       <c r="U97" s="5" t="s">
         <v>143</v>
       </c>
@@ -4149,7 +4136,7 @@
         <v>0000001010000000001010000</v>
       </c>
     </row>
-    <row r="98" spans="21:25" x14ac:dyDescent="0.3">
+    <row r="98" spans="21:25" x14ac:dyDescent="0.25">
       <c r="U98" s="5" t="s">
         <v>143</v>
       </c>
@@ -4161,10 +4148,10 @@
       </c>
       <c r="Y98" t="str">
         <f t="shared" si="1"/>
-        <v>0000101010000000001010000</v>
-      </c>
-    </row>
-    <row r="99" spans="21:25" x14ac:dyDescent="0.3">
+        <v>0000001010000000001010000</v>
+      </c>
+    </row>
+    <row r="99" spans="21:25" x14ac:dyDescent="0.25">
       <c r="U99" s="5" t="s">
         <v>143</v>
       </c>
@@ -4179,7 +4166,7 @@
         <v>0000001010000000001110000</v>
       </c>
     </row>
-    <row r="100" spans="21:25" x14ac:dyDescent="0.3">
+    <row r="100" spans="21:25" x14ac:dyDescent="0.25">
       <c r="U100" s="5" t="s">
         <v>143</v>
       </c>
@@ -4191,10 +4178,10 @@
       </c>
       <c r="Y100" t="str">
         <f t="shared" si="1"/>
-        <v>0000101010000000001110000</v>
-      </c>
-    </row>
-    <row r="101" spans="21:25" x14ac:dyDescent="0.3">
+        <v>0000001010000000001110000</v>
+      </c>
+    </row>
+    <row r="101" spans="21:25" x14ac:dyDescent="0.25">
       <c r="U101" s="5" t="s">
         <v>143</v>
       </c>
@@ -4209,7 +4196,7 @@
         <v>0000001010000000000010000</v>
       </c>
     </row>
-    <row r="102" spans="21:25" x14ac:dyDescent="0.3">
+    <row r="102" spans="21:25" x14ac:dyDescent="0.25">
       <c r="U102" s="5" t="s">
         <v>143</v>
       </c>
@@ -4224,7 +4211,7 @@
         <v>0000001010000000000100000</v>
       </c>
     </row>
-    <row r="103" spans="21:25" x14ac:dyDescent="0.3">
+    <row r="103" spans="21:25" x14ac:dyDescent="0.25">
       <c r="U103" s="5" t="s">
         <v>143</v>
       </c>
@@ -4239,7 +4226,7 @@
         <v>0000001010000000000110000</v>
       </c>
     </row>
-    <row r="104" spans="21:25" x14ac:dyDescent="0.3">
+    <row r="104" spans="21:25" x14ac:dyDescent="0.25">
       <c r="U104" s="5" t="s">
         <v>143</v>
       </c>
@@ -4254,12 +4241,12 @@
         <v>0000001010000000000010000</v>
       </c>
     </row>
-    <row r="105" spans="21:25" x14ac:dyDescent="0.3">
+    <row r="105" spans="21:25" x14ac:dyDescent="0.25">
       <c r="U105" s="5" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="106" spans="21:25" x14ac:dyDescent="0.3">
+    <row r="106" spans="21:25" x14ac:dyDescent="0.25">
       <c r="U106" s="5" t="s">
         <v>143</v>
       </c>
@@ -4274,7 +4261,7 @@
         <v>0000001111000000001010010</v>
       </c>
     </row>
-    <row r="107" spans="21:25" x14ac:dyDescent="0.3">
+    <row r="107" spans="21:25" x14ac:dyDescent="0.25">
       <c r="U107" s="5" t="s">
         <v>143</v>
       </c>
@@ -4289,7 +4276,7 @@
         <v>0000001111000000001010001</v>
       </c>
     </row>
-    <row r="108" spans="21:25" x14ac:dyDescent="0.3">
+    <row r="108" spans="21:25" x14ac:dyDescent="0.25">
       <c r="U108" s="5" t="s">
         <v>143</v>
       </c>
@@ -4304,7 +4291,7 @@
         <v>0000001111000000001010011</v>
       </c>
     </row>
-    <row r="109" spans="21:25" x14ac:dyDescent="0.3">
+    <row r="109" spans="21:25" x14ac:dyDescent="0.25">
       <c r="U109" s="5" t="s">
         <v>143</v>
       </c>
@@ -4319,7 +4306,7 @@
         <v>0000001111000000001010000</v>
       </c>
     </row>
-    <row r="110" spans="21:25" x14ac:dyDescent="0.3">
+    <row r="110" spans="21:25" x14ac:dyDescent="0.25">
       <c r="U110" s="5" t="s">
         <v>143</v>
       </c>
@@ -4331,10 +4318,10 @@
       </c>
       <c r="Y110" t="str">
         <f t="shared" si="1"/>
-        <v>0000101111000000001010010</v>
-      </c>
-    </row>
-    <row r="111" spans="21:25" x14ac:dyDescent="0.3">
+        <v>0000001111000000001010010</v>
+      </c>
+    </row>
+    <row r="111" spans="21:25" x14ac:dyDescent="0.25">
       <c r="U111" s="5" t="s">
         <v>143</v>
       </c>
@@ -4346,10 +4333,10 @@
       </c>
       <c r="Y111" t="str">
         <f t="shared" si="1"/>
-        <v>0000101111000000001010001</v>
-      </c>
-    </row>
-    <row r="112" spans="21:25" x14ac:dyDescent="0.3">
+        <v>0000001111000000001010001</v>
+      </c>
+    </row>
+    <row r="112" spans="21:25" x14ac:dyDescent="0.25">
       <c r="U112" s="5" t="s">
         <v>143</v>
       </c>
@@ -4364,12 +4351,12 @@
         <v>0000001111000000001010100</v>
       </c>
     </row>
-    <row r="113" spans="21:25" x14ac:dyDescent="0.3">
+    <row r="113" spans="21:25" x14ac:dyDescent="0.25">
       <c r="U113" s="5" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="114" spans="21:25" x14ac:dyDescent="0.3">
+    <row r="114" spans="21:25" x14ac:dyDescent="0.25">
       <c r="U114" s="5" t="s">
         <v>143</v>
       </c>
@@ -4384,7 +4371,7 @@
         <v>0000001000100000001010010</v>
       </c>
     </row>
-    <row r="115" spans="21:25" x14ac:dyDescent="0.3">
+    <row r="115" spans="21:25" x14ac:dyDescent="0.25">
       <c r="U115" s="5" t="s">
         <v>143</v>
       </c>
@@ -4399,7 +4386,7 @@
         <v>0000001000100000001010001</v>
       </c>
     </row>
-    <row r="116" spans="21:25" x14ac:dyDescent="0.3">
+    <row r="116" spans="21:25" x14ac:dyDescent="0.25">
       <c r="U116" s="5" t="s">
         <v>143</v>
       </c>
@@ -4414,7 +4401,7 @@
         <v>0000001000100000001010011</v>
       </c>
     </row>
-    <row r="117" spans="21:25" x14ac:dyDescent="0.3">
+    <row r="117" spans="21:25" x14ac:dyDescent="0.25">
       <c r="U117" s="5" t="s">
         <v>143</v>
       </c>
@@ -4429,7 +4416,7 @@
         <v>0000001000100000001010000</v>
       </c>
     </row>
-    <row r="118" spans="21:25" x14ac:dyDescent="0.3">
+    <row r="118" spans="21:25" x14ac:dyDescent="0.25">
       <c r="U118" s="5" t="s">
         <v>143</v>
       </c>
@@ -4444,27 +4431,27 @@
         <v>0000001000100000001010100</v>
       </c>
     </row>
-    <row r="119" spans="21:25" x14ac:dyDescent="0.3">
+    <row r="119" spans="21:25" x14ac:dyDescent="0.25">
       <c r="U119" s="5" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="120" spans="21:25" x14ac:dyDescent="0.3">
+    <row r="120" spans="21:25" x14ac:dyDescent="0.25">
       <c r="U120" s="5" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="121" spans="21:25" x14ac:dyDescent="0.3">
+    <row r="121" spans="21:25" x14ac:dyDescent="0.25">
       <c r="U121" s="5" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="122" spans="21:25" x14ac:dyDescent="0.3">
+    <row r="122" spans="21:25" x14ac:dyDescent="0.25">
       <c r="U122" s="5" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="123" spans="21:25" x14ac:dyDescent="0.3">
+    <row r="123" spans="21:25" x14ac:dyDescent="0.25">
       <c r="U123" s="5" t="s">
         <v>143</v>
       </c>
@@ -4479,7 +4466,7 @@
         <v>0000000000010100000000000</v>
       </c>
     </row>
-    <row r="124" spans="21:25" x14ac:dyDescent="0.3">
+    <row r="124" spans="21:25" x14ac:dyDescent="0.25">
       <c r="U124" s="5" t="s">
         <v>143</v>
       </c>
@@ -4494,22 +4481,22 @@
         <v>0000000000011000000000000</v>
       </c>
     </row>
-    <row r="125" spans="21:25" x14ac:dyDescent="0.3">
+    <row r="125" spans="21:25" x14ac:dyDescent="0.25">
       <c r="U125" s="5" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="126" spans="21:25" x14ac:dyDescent="0.3">
+    <row r="126" spans="21:25" x14ac:dyDescent="0.25">
       <c r="U126" s="5" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="127" spans="21:25" x14ac:dyDescent="0.3">
+    <row r="127" spans="21:25" x14ac:dyDescent="0.25">
       <c r="U127" s="5" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="128" spans="21:25" x14ac:dyDescent="0.3">
+    <row r="128" spans="21:25" x14ac:dyDescent="0.25">
       <c r="U128" s="5" t="s">
         <v>143</v>
       </c>
@@ -4524,7 +4511,7 @@
         <v>0000010010000000010000000</v>
       </c>
     </row>
-    <row r="129" spans="21:25" x14ac:dyDescent="0.3">
+    <row r="129" spans="21:25" x14ac:dyDescent="0.25">
       <c r="U129" s="5" t="s">
         <v>143</v>
       </c>
@@ -4539,7 +4526,7 @@
         <v>0000010010000000010010000</v>
       </c>
     </row>
-    <row r="130" spans="21:25" x14ac:dyDescent="0.3">
+    <row r="130" spans="21:25" x14ac:dyDescent="0.25">
       <c r="U130" s="5" t="s">
         <v>143</v>
       </c>
@@ -4554,7 +4541,7 @@
         <v>0000010010000000010100000</v>
       </c>
     </row>
-    <row r="131" spans="21:25" x14ac:dyDescent="0.3">
+    <row r="131" spans="21:25" x14ac:dyDescent="0.25">
       <c r="U131" s="5" t="s">
         <v>143</v>
       </c>
@@ -4569,7 +4556,7 @@
         <v>0000010010000000010001000</v>
       </c>
     </row>
-    <row r="132" spans="21:25" x14ac:dyDescent="0.3">
+    <row r="132" spans="21:25" x14ac:dyDescent="0.25">
       <c r="U132" s="5" t="s">
         <v>143</v>
       </c>
@@ -4584,7 +4571,7 @@
         <v>0000010010000000010011000</v>
       </c>
     </row>
-    <row r="133" spans="21:25" x14ac:dyDescent="0.3">
+    <row r="133" spans="21:25" x14ac:dyDescent="0.25">
       <c r="U133" s="5" t="s">
         <v>143</v>
       </c>
@@ -4599,7 +4586,7 @@
         <v>0000010010000000010101000</v>
       </c>
     </row>
-    <row r="134" spans="21:25" x14ac:dyDescent="0.3">
+    <row r="134" spans="21:25" x14ac:dyDescent="0.25">
       <c r="U134" s="5" t="s">
         <v>143</v>
       </c>
@@ -4614,7 +4601,7 @@
         <v>0000000000000010100000000</v>
       </c>
     </row>
-    <row r="135" spans="21:25" x14ac:dyDescent="0.3">
+    <row r="135" spans="21:25" x14ac:dyDescent="0.25">
       <c r="U135" s="5" t="s">
         <v>143</v>
       </c>
@@ -4629,7 +4616,7 @@
         <v>0000010010000011100000000</v>
       </c>
     </row>
-    <row r="136" spans="21:25" x14ac:dyDescent="0.3">
+    <row r="136" spans="21:25" x14ac:dyDescent="0.25">
       <c r="U136" s="5" t="s">
         <v>143</v>
       </c>
@@ -4644,7 +4631,7 @@
         <v>0100010010000000000000000</v>
       </c>
     </row>
-    <row r="137" spans="21:25" x14ac:dyDescent="0.3">
+    <row r="137" spans="21:25" x14ac:dyDescent="0.25">
       <c r="U137" s="5" t="s">
         <v>143</v>
       </c>
@@ -4659,7 +4646,7 @@
         <v>1000000000000000000000000</v>
       </c>
     </row>
-    <row r="138" spans="21:25" x14ac:dyDescent="0.3">
+    <row r="138" spans="21:25" x14ac:dyDescent="0.25">
       <c r="U138" s="5" t="s">
         <v>143</v>
       </c>
@@ -4674,7 +4661,7 @@
         <v>0001010010000000000000000</v>
       </c>
     </row>
-    <row r="139" spans="21:25" x14ac:dyDescent="0.3">
+    <row r="139" spans="21:25" x14ac:dyDescent="0.25">
       <c r="U139" s="5" t="s">
         <v>143</v>
       </c>
@@ -4689,7 +4676,7 @@
         <v>0010000000000000000000000</v>
       </c>
     </row>
-    <row r="140" spans="21:25" x14ac:dyDescent="0.3">
+    <row r="140" spans="21:25" x14ac:dyDescent="0.25">
       <c r="U140" s="5" t="s">
         <v>143</v>
       </c>
@@ -4704,7 +4691,7 @@
         <v>1010010000000000010110000</v>
       </c>
     </row>
-    <row r="141" spans="21:25" x14ac:dyDescent="0.3">
+    <row r="141" spans="21:25" x14ac:dyDescent="0.25">
       <c r="U141" s="5" t="s">
         <v>143</v>
       </c>
@@ -4719,7 +4706,7 @@
         <v>1010110000000000010110000</v>
       </c>
     </row>
-    <row r="142" spans="21:25" x14ac:dyDescent="0.3">
+    <row r="142" spans="21:25" x14ac:dyDescent="0.25">
       <c r="U142" s="5" t="s">
         <v>143</v>
       </c>
@@ -4734,7 +4721,7 @@
         <v>1010010000000000011000000</v>
       </c>
     </row>
-    <row r="143" spans="21:25" x14ac:dyDescent="0.3">
+    <row r="143" spans="21:25" x14ac:dyDescent="0.25">
       <c r="U143" s="5" t="s">
         <v>143</v>
       </c>
@@ -4749,7 +4736,7 @@
         <v>1010110000000000011000000</v>
       </c>
     </row>
-    <row r="144" spans="21:25" x14ac:dyDescent="0.3">
+    <row r="144" spans="21:25" x14ac:dyDescent="0.25">
       <c r="U144" s="5" t="s">
         <v>143</v>
       </c>
@@ -4764,7 +4751,7 @@
         <v>0000010010000000001010000</v>
       </c>
     </row>
-    <row r="145" spans="21:25" x14ac:dyDescent="0.3">
+    <row r="145" spans="21:25" x14ac:dyDescent="0.25">
       <c r="U145" s="5" t="s">
         <v>143</v>
       </c>
@@ -4779,7 +4766,7 @@
         <v>0000110010000000001010000</v>
       </c>
     </row>
-    <row r="146" spans="21:25" x14ac:dyDescent="0.3">
+    <row r="146" spans="21:25" x14ac:dyDescent="0.25">
       <c r="U146" s="5" t="s">
         <v>143</v>
       </c>
@@ -4794,7 +4781,7 @@
         <v>0000010010000000001100000</v>
       </c>
     </row>
-    <row r="147" spans="21:25" x14ac:dyDescent="0.3">
+    <row r="147" spans="21:25" x14ac:dyDescent="0.25">
       <c r="U147" s="5" t="s">
         <v>143</v>
       </c>
@@ -4809,7 +4796,7 @@
         <v>0000110010000000001100000</v>
       </c>
     </row>
-    <row r="148" spans="21:25" x14ac:dyDescent="0.3">
+    <row r="148" spans="21:25" x14ac:dyDescent="0.25">
       <c r="U148" s="5" t="s">
         <v>143</v>
       </c>
@@ -4824,7 +4811,7 @@
         <v>0000010010000000000010000</v>
       </c>
     </row>
-    <row r="149" spans="21:25" x14ac:dyDescent="0.3">
+    <row r="149" spans="21:25" x14ac:dyDescent="0.25">
       <c r="U149" s="5" t="s">
         <v>143</v>
       </c>
@@ -4839,7 +4826,7 @@
         <v>0000010010000000000100000</v>
       </c>
     </row>
-    <row r="150" spans="21:25" x14ac:dyDescent="0.3">
+    <row r="150" spans="21:25" x14ac:dyDescent="0.25">
       <c r="U150" s="5" t="s">
         <v>143</v>
       </c>
@@ -4854,7 +4841,7 @@
         <v>0000010010000000000110000</v>
       </c>
     </row>
-    <row r="151" spans="21:25" x14ac:dyDescent="0.3">
+    <row r="151" spans="21:25" x14ac:dyDescent="0.25">
       <c r="U151" s="5" t="s">
         <v>143</v>
       </c>
@@ -4869,7 +4856,7 @@
         <v>0000010010000000001000000</v>
       </c>
     </row>
-    <row r="152" spans="21:25" x14ac:dyDescent="0.3">
+    <row r="152" spans="21:25" x14ac:dyDescent="0.25">
       <c r="U152" s="5" t="s">
         <v>143</v>
       </c>
@@ -4884,7 +4871,7 @@
         <v>0000010010000000001110000</v>
       </c>
     </row>
-    <row r="153" spans="21:25" x14ac:dyDescent="0.3">
+    <row r="153" spans="21:25" x14ac:dyDescent="0.25">
       <c r="U153" s="5" t="s">
         <v>143</v>
       </c>
